--- a/2_metal_balance/data/2-4假数据.xlsx
+++ b/2_metal_balance/data/2-4假数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>material</t>
   </si>
@@ -93,10 +93,19 @@
     <t>currentCostDry</t>
   </si>
   <si>
+    <t>currentCostPercentageCu</t>
+  </si>
+  <si>
     <t>currentCostCu</t>
   </si>
   <si>
+    <t>currentCostUnitageAg</t>
+  </si>
+  <si>
     <t>currentCostAg</t>
+  </si>
+  <si>
+    <t>currentCostUnitageAu</t>
   </si>
   <si>
     <t>currentCostAu</t>
@@ -149,31 +158,31 @@
     </r>
   </si>
   <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>铜精矿（湿重）</t>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>铜精矿</t>
   </si>
   <si>
     <t>外购冰铜</t>
   </si>
   <si>
+    <t>铜渣（南丹）</t>
+  </si>
+  <si>
     <t>粗铜（南丹）</t>
   </si>
   <si>
-    <t>铜渣（南丹）</t>
-  </si>
-  <si>
     <t>窑渣（南丹）</t>
   </si>
   <si>
     <t>废铜制品（南丹）</t>
   </si>
   <si>
-    <t>输出</t>
-  </si>
-  <si>
-    <t>渣精矿（湿重）</t>
+    <t>中间物料</t>
+  </si>
+  <si>
+    <t>渣精矿</t>
   </si>
   <si>
     <t>冰铜（侧吹）</t>
@@ -182,6 +191,9 @@
     <t>熔炼渣（侧吹）</t>
   </si>
   <si>
+    <t>熔炼渣</t>
+  </si>
+  <si>
     <t>熔炼烟尘</t>
   </si>
   <si>
@@ -233,19 +245,16 @@
     <t>废阴极铜</t>
   </si>
   <si>
-    <t>熔炼渣</t>
-  </si>
-  <si>
-    <t>铅滤饼（湿重）</t>
-  </si>
-  <si>
-    <t>硫化铜渣（湿重）</t>
-  </si>
-  <si>
-    <t>砷滤饼（湿重）</t>
-  </si>
-  <si>
-    <t>中和渣（湿重）</t>
+    <t>铅滤饼</t>
+  </si>
+  <si>
+    <t>硫化铜渣</t>
+  </si>
+  <si>
+    <t>砷滤饼</t>
+  </si>
+  <si>
+    <t>中和渣</t>
   </si>
   <si>
     <t>污泥渣（应急水处理站）</t>
@@ -299,9 +308,6 @@
     <t>1.原料</t>
   </si>
   <si>
-    <t>铜精矿</t>
-  </si>
-  <si>
     <t>外购铜米</t>
   </si>
   <si>
@@ -320,12 +326,6 @@
     <t>白烟灰</t>
   </si>
   <si>
-    <t>铅滤饼</t>
-  </si>
-  <si>
-    <t>硫化铜渣</t>
-  </si>
-  <si>
     <t>阳极铜（槽存）</t>
   </si>
   <si>
@@ -341,9 +341,6 @@
     <t>阴极铜（次品铜）</t>
   </si>
   <si>
-    <t>渣精矿</t>
-  </si>
-  <si>
     <t>渣精矿（浓密机）</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>浮选槽</t>
   </si>
   <si>
-    <t>中和渣</t>
-  </si>
-  <si>
     <t>污泥渣</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
   </si>
   <si>
     <t>尾矿</t>
-  </si>
-  <si>
-    <t>砷滤饼</t>
   </si>
   <si>
     <t xml:space="preserve">铜回收率（%）= </t>
@@ -453,21 +444,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.000000_);[Red]\(0.000000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,9 +532,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -562,6 +573,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -569,51 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,24 +611,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,8 +652,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,39 +699,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,14 +723,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,7 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +799,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,49 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,108 +931,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1059,6 +1069,65 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1070,41 +1139,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1121,6 +1155,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,173 +1203,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,22 +1426,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,7 +1450,7 @@
     <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,28 +1465,28 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,46 +1495,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1480,184 +1549,277 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="常规 19" xfId="2"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="3"/>
-    <cellStyle name="常规 21" xfId="4"/>
+    <cellStyle name="常规 21" xfId="1"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
+    <cellStyle name="常规 19" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -2001,3593 +2163,4049 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Z9" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:A33"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="16.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="33.0454545454545" style="87" customWidth="1"/>
-    <col min="5" max="5" width="26.3636363636364" style="88" customWidth="1"/>
+    <col min="3" max="3" width="16.9090909090909" style="89" customWidth="1"/>
+    <col min="4" max="4" width="33.0454545454545" style="90" customWidth="1"/>
+    <col min="5" max="5" width="26.3636363636364" style="91" customWidth="1"/>
     <col min="6" max="6" width="15.1818181818182" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="15.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="21.3909090909091" style="87" customWidth="1"/>
+    <col min="11" max="11" width="21.3909090909091" style="90" customWidth="1"/>
     <col min="12" max="12" width="28.6363636363636" customWidth="1"/>
     <col min="13" max="13" width="16.6818181818182" customWidth="1"/>
     <col min="14" max="14" width="25.2727272727273" customWidth="1"/>
     <col min="15" max="15" width="17.3636363636364" customWidth="1"/>
     <col min="16" max="16" width="24.8" customWidth="1"/>
     <col min="17" max="17" width="15.6090909090909" customWidth="1"/>
-    <col min="18" max="18" width="19.6363636363636" style="87" customWidth="1"/>
+    <col min="18" max="18" width="19.6363636363636" style="90" customWidth="1"/>
     <col min="19" max="19" width="29.8181818181818" customWidth="1"/>
     <col min="20" max="20" width="18.5454545454545" customWidth="1"/>
     <col min="21" max="21" width="26.3636363636364" customWidth="1"/>
     <col min="22" max="22" width="18.5454545454545" customWidth="1"/>
     <col min="23" max="23" width="26.3636363636364" customWidth="1"/>
     <col min="24" max="24" width="18.5454545454545" customWidth="1"/>
-    <col min="25" max="25" width="16.2727272727273" style="87" customWidth="1"/>
-    <col min="26" max="28" width="15.1818181818182" customWidth="1"/>
-    <col min="29" max="29" width="11.7272727272727"/>
-    <col min="32" max="32" width="45.0272727272727" customWidth="1"/>
+    <col min="25" max="25" width="16.2727272727273" style="92" customWidth="1"/>
+    <col min="26" max="26" width="11.9727272727273" style="92" customWidth="1"/>
+    <col min="27" max="27" width="15.1818181818182" style="92" customWidth="1"/>
+    <col min="28" max="28" width="13.4727272727273" style="92" customWidth="1"/>
+    <col min="29" max="29" width="15.1818181818182" style="92" customWidth="1"/>
+    <col min="30" max="30" width="10.8" style="92" customWidth="1"/>
+    <col min="31" max="31" width="15.1818181818182" style="92" customWidth="1"/>
+    <col min="32" max="32" width="12.8181818181818"/>
+    <col min="33" max="34" width="11.8181818181818" customWidth="1"/>
+    <col min="35" max="35" width="45.0272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" customHeight="1" spans="1:39">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89" t="s">
+    <row r="1" ht="53" customHeight="1" spans="1:42">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="104" t="s">
+      <c r="S1" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="104" t="s">
+      <c r="U1" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="89" t="s">
+      <c r="V1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="104" t="s">
+      <c r="W1" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="89" t="s">
+      <c r="X1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="90" t="s">
+      <c r="Y1" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="89" t="s">
+      <c r="Z1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="89" t="s">
+      <c r="AA1" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="89" t="s">
+      <c r="AB1" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="109" t="s">
+      <c r="AF1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="89" t="s">
+      <c r="AG1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="89">
+      <c r="AH1" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+    </row>
+    <row r="2" s="87" customFormat="1" ht="14.25" spans="1:42">
+      <c r="A2" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="97">
         <v>10001</v>
       </c>
-      <c r="C2" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="92">
-        <v>38960.18</v>
-      </c>
-      <c r="E2" s="101">
+      <c r="C2" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="99">
+        <v>35937.151</v>
+      </c>
+      <c r="E2" s="116">
         <v>22.6041151676158</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="117">
         <f>D2*E2/100</f>
-        <v>8806.60395671042</v>
-      </c>
-      <c r="G2" s="101">
+        <v>8123.27499999999</v>
+      </c>
+      <c r="G2" s="116">
         <v>2.19185432924274</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="117">
         <f>D2*G2</f>
-        <v>85395.0392010764</v>
-      </c>
-      <c r="I2" s="101">
+        <v>78769.0000000001</v>
+      </c>
+      <c r="I2" s="116">
         <v>140.355867386371</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="117">
         <f>D2*I2</f>
-        <v>5468289.85742914</v>
-      </c>
-      <c r="K2" s="87">
+        <v>5043989.99999999</v>
+      </c>
+      <c r="K2" s="127">
         <v>98261.76</v>
       </c>
-      <c r="L2" s="101">
+      <c r="L2" s="116">
         <v>22.6041151676158</v>
       </c>
-      <c r="M2" s="89">
+      <c r="M2" s="97">
         <f>K2*L2/100</f>
         <v>22211.2013961262</v>
       </c>
-      <c r="N2" s="101">
+      <c r="N2" s="116">
         <v>140.355867386371</v>
       </c>
-      <c r="O2" s="89">
+      <c r="O2" s="97">
         <f>K2*N2</f>
         <v>13791614.5557114</v>
       </c>
-      <c r="P2" s="101">
+      <c r="P2" s="116">
         <v>2.19185432924274</v>
       </c>
-      <c r="Q2" s="89">
+      <c r="Q2" s="97">
         <f>K2*P2</f>
         <v>215375.464055011</v>
       </c>
-      <c r="R2" s="105">
-        <v>34739.56</v>
-      </c>
-      <c r="S2" s="101">
-        <v>22.6041151676158</v>
-      </c>
-      <c r="T2" s="89">
+      <c r="R2" s="99">
+        <v>32284.196</v>
+      </c>
+      <c r="S2" s="116">
+        <v>22.5243831378053</v>
+      </c>
+      <c r="T2" s="97">
         <f>R2*S2/100</f>
-        <v>7852.57015112299</v>
-      </c>
-      <c r="U2" s="101">
-        <v>140.355867386371</v>
-      </c>
-      <c r="V2" s="89">
+        <v>7271.81600000001</v>
+      </c>
+      <c r="U2" s="116">
+        <v>139.629960120425</v>
+      </c>
+      <c r="V2" s="97">
         <f>R2*U2</f>
-        <v>4875901.07642088</v>
-      </c>
-      <c r="W2" s="101">
-        <v>2.19185432924274</v>
-      </c>
-      <c r="X2" s="89">
+        <v>4507840.99999999</v>
+      </c>
+      <c r="W2" s="116">
+        <v>1.28195851617305</v>
+      </c>
+      <c r="X2" s="97">
         <f>R2*W2</f>
-        <v>76144.0549819879</v>
-      </c>
-      <c r="Y2" s="90">
+        <v>41386.9999999999</v>
+      </c>
+      <c r="Y2" s="134">
         <f>D2+K2-R2</f>
-        <v>102482.38</v>
-      </c>
-      <c r="Z2" s="89">
-        <f>Y2*S2/100</f>
-        <v>23165.2352017137</v>
-      </c>
-      <c r="AA2" s="89">
-        <f>Y2*U2</f>
-        <v>14384003.3367197</v>
-      </c>
-      <c r="AB2" s="89">
-        <f>Y2*W2</f>
-        <v>224626.4482741</v>
-      </c>
-      <c r="AC2" s="89">
-        <f>D18/((SUM(Z2:Z7)+SUM(F8:F33)-SUM(T8:T33)-(Z10+Z28)))*100</f>
-        <v>1.27017099012541</v>
-      </c>
-      <c r="AD2" s="89">
+        <v>101914.715</v>
+      </c>
+      <c r="Z2" s="135">
+        <f>(AA2/Y2)</f>
+        <v>22.6293724082201</v>
+      </c>
+      <c r="AA2" s="134">
+        <f>(D2*E2+K2*L2-R2*S2)</f>
+        <v>2306266.03961262</v>
+      </c>
+      <c r="AB2" s="135">
+        <f>(AC2/Y2)</f>
+        <v>140.585817815527</v>
+      </c>
+      <c r="AC2" s="134">
+        <f>(D2*I2+K2*N2-R2*U2)</f>
+        <v>14327763.5557114</v>
+      </c>
+      <c r="AD2" s="135">
+        <f>(AE2/Y2)</f>
+        <v>2.48008802315751</v>
+      </c>
+      <c r="AE2" s="134">
+        <f>(D2*G2+K2*P2-R2*W2)</f>
+        <v>252757.464055011</v>
+      </c>
+      <c r="AF2" s="97">
+        <f>D18/((SUM(AA2:AA7)+SUM(F8:F33)-SUM(T8:T33)-(AA10+AA28)))*100</f>
+        <v>0.028931086788265</v>
+      </c>
+      <c r="AG2" s="97">
         <v>95</v>
       </c>
-      <c r="AE2" s="89">
+      <c r="AH2" s="97">
         <v>90</v>
       </c>
-      <c r="AF2" s="89">
-        <f>D18/((SUM(Z2:Z7)+SUM(F8:F33)-SUM(T8:T33)-(Z10+Z28)))*100</f>
-        <v>1.27017099012541</v>
-      </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="89">
+      <c r="AI2" s="97">
+        <f>D18/((SUM(AA2:AA7)+SUM(F8:F33)-SUM(T8:T33)-(AA10+AA28)))*100</f>
+        <v>0.028931086788265</v>
+      </c>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:42">
+      <c r="A3" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="93">
         <v>10002</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="92">
-        <v>187.8</v>
-      </c>
-      <c r="E3" s="101">
+      <c r="C3" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="101">
+        <v>187.616</v>
+      </c>
+      <c r="E3" s="118">
         <v>60.3967678662801</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="119">
         <f t="shared" ref="F3:F33" si="0">D3*E3/100</f>
-        <v>113.425130052874</v>
-      </c>
-      <c r="G3" s="101">
+        <v>113.314</v>
+      </c>
+      <c r="G3" s="118">
         <v>0.4583830803343</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="119">
         <f t="shared" ref="H3:H33" si="1">D3*G3</f>
-        <v>86.0843424867815</v>
-      </c>
-      <c r="I3" s="101">
+        <v>86</v>
+      </c>
+      <c r="I3" s="118">
         <v>140.734265734266</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="119">
         <f t="shared" ref="J3:J8" si="2">D3*I3</f>
-        <v>26429.8951048952</v>
-      </c>
-      <c r="K3" s="87">
-        <v>0</v>
-      </c>
-      <c r="L3" s="101">
+        <v>26404.0000000001</v>
+      </c>
+      <c r="K3" s="102">
+        <v>0</v>
+      </c>
+      <c r="L3" s="118">
         <v>60.3967678662801</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="93">
         <f t="shared" ref="M3:M33" si="3">K3*L3/100</f>
         <v>0</v>
       </c>
-      <c r="N3" s="101">
+      <c r="N3" s="118">
         <v>140.734265734266</v>
       </c>
-      <c r="O3" s="89">
+      <c r="O3" s="93">
         <f t="shared" ref="O3:O33" si="4">K3*N3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="101">
+      <c r="P3" s="118">
         <v>0.4583830803343</v>
       </c>
-      <c r="Q3" s="89">
+      <c r="Q3" s="93">
         <f t="shared" ref="Q3:Q33" si="5">K3*P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="106">
-        <v>187.8</v>
-      </c>
-      <c r="S3" s="101">
+      <c r="R3" s="101">
+        <v>187.616</v>
+      </c>
+      <c r="S3" s="118">
         <v>60.3967678662801</v>
       </c>
-      <c r="T3" s="89">
+      <c r="T3" s="93">
         <f t="shared" ref="T3:T33" si="6">R3*S3/100</f>
-        <v>113.425130052874</v>
-      </c>
-      <c r="U3" s="101">
+        <v>113.314</v>
+      </c>
+      <c r="U3" s="118">
         <v>140.734265734266</v>
       </c>
-      <c r="V3" s="89">
+      <c r="V3" s="93">
         <f t="shared" ref="V3:V33" si="7">R3*U3</f>
-        <v>26429.8951048952</v>
-      </c>
-      <c r="W3" s="101">
+        <v>26404.0000000001</v>
+      </c>
+      <c r="W3" s="118">
         <v>0.4583830803343</v>
       </c>
-      <c r="X3" s="89">
+      <c r="X3" s="93">
         <f t="shared" ref="X3:X33" si="8">R3*W3</f>
-        <v>86.0843424867815</v>
-      </c>
-      <c r="Y3" s="90">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="133">
         <f t="shared" ref="Y3:Y33" si="9">D3+K3-R3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="89">
-        <f t="shared" ref="Z3:Z24" si="10">Y3*S3/100</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="89">
-        <f t="shared" ref="AA3:AA33" si="11">Y3*U3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="89">
-        <f t="shared" ref="AB3:AB33" si="12">Y3*W3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="89">
+      <c r="Z3" s="135" t="e">
+        <f t="shared" ref="Z3:Z33" si="10">(AA3/Y3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" s="134">
+        <f t="shared" ref="AA3:AA33" si="11">(D3*E3+K3*L3-R3*S3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="135" t="e">
+        <f t="shared" ref="AB3:AB33" si="12">(AC3/Y3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="134">
+        <f t="shared" ref="AC3:AC33" si="13">(D3*I3+K3*N3-R3*U3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="135" t="e">
+        <f t="shared" ref="AD3:AD33" si="14">(AE3/Y3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE3" s="133">
+        <f t="shared" ref="AE3:AE33" si="15">(D3*G3+K3*P3-R3*W3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:42">
+      <c r="A4" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="93">
         <v>10035</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="120"/>
+      <c r="H4" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="120"/>
+      <c r="J4" s="119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="102">
+        <v>0</v>
+      </c>
+      <c r="L4" s="118">
+        <v>78.960396039604</v>
+      </c>
+      <c r="M4" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="118">
+        <v>6948.0198019802</v>
+      </c>
+      <c r="O4" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="101">
+        <v>93.15</v>
+      </c>
+      <c r="S4" s="118">
+        <v>64.5260332796565</v>
+      </c>
+      <c r="T4" s="93">
+        <f t="shared" si="6"/>
+        <v>60.1060000000001</v>
+      </c>
+      <c r="U4" s="118">
+        <v>581.29898013956</v>
+      </c>
+      <c r="V4" s="93">
+        <f t="shared" si="7"/>
+        <v>54148</v>
+      </c>
+      <c r="W4" s="118">
+        <v>0.128824476650564</v>
+      </c>
+      <c r="X4" s="93">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Y4" s="133">
+        <f t="shared" si="9"/>
+        <v>-93.15</v>
+      </c>
+      <c r="Z4" s="135">
+        <f t="shared" si="10"/>
+        <v>64.5260332796565</v>
+      </c>
+      <c r="AA4" s="134">
+        <f t="shared" si="11"/>
+        <v>-6010.6</v>
+      </c>
+      <c r="AB4" s="135">
+        <f t="shared" si="12"/>
+        <v>581.29898013956</v>
+      </c>
+      <c r="AC4" s="134">
+        <f t="shared" si="13"/>
+        <v>-54148</v>
+      </c>
+      <c r="AD4" s="135">
+        <f t="shared" si="14"/>
+        <v>0.128824476650564</v>
+      </c>
+      <c r="AE4" s="133">
+        <f t="shared" si="15"/>
+        <v>-12</v>
+      </c>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:42">
+      <c r="A5" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="92">
+      <c r="B5" s="93">
+        <v>10036</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="101">
         <v>4.04</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E5" s="118">
         <v>78.960396039604</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="119">
         <f t="shared" si="0"/>
         <v>3.19</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4">
+      <c r="G5" s="118"/>
+      <c r="H5" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="101">
+      <c r="I5" s="118">
         <v>6948.0198019802</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="119">
         <f t="shared" si="2"/>
         <v>28070</v>
       </c>
-      <c r="K4" s="87">
-        <v>0</v>
-      </c>
-      <c r="L4" s="101">
-        <v>78.960396039604</v>
-      </c>
-      <c r="M4" s="89">
+      <c r="K5" s="102">
+        <v>125.66</v>
+      </c>
+      <c r="L5" s="118"/>
+      <c r="M5" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="101">
-        <v>6948.0198019802</v>
-      </c>
-      <c r="O4" s="89">
+      <c r="N5" s="118"/>
+      <c r="O5" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="89">
+      <c r="P5" s="118"/>
+      <c r="Q5" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="105">
-        <v>0</v>
-      </c>
-      <c r="S4" s="101">
-        <v>78.960396039604</v>
-      </c>
-      <c r="T4" s="89">
+      <c r="R5" s="102"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U4" s="101">
-        <v>6948.0198019802</v>
-      </c>
-      <c r="V4" s="89">
+      <c r="U5" s="120"/>
+      <c r="V5" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W4" s="101"/>
-      <c r="X4" s="89">
+      <c r="W5" s="120"/>
+      <c r="X5" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="90">
+      <c r="Y5" s="133">
         <f t="shared" si="9"/>
-        <v>4.04</v>
-      </c>
-      <c r="Z4" s="89">
+        <v>129.7</v>
+      </c>
+      <c r="Z5" s="135">
         <f t="shared" si="10"/>
-        <v>3.19</v>
-      </c>
-      <c r="AA4" s="89">
+        <v>2.45952197378566</v>
+      </c>
+      <c r="AA5" s="134">
         <f t="shared" si="11"/>
+        <v>319</v>
+      </c>
+      <c r="AB5" s="135">
+        <f t="shared" si="12"/>
+        <v>216.422513492675</v>
+      </c>
+      <c r="AC5" s="134">
+        <f t="shared" si="13"/>
         <v>28070</v>
       </c>
-      <c r="AB4" s="89">
+      <c r="AD5" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:42">
+      <c r="A6" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="93">
+        <v>10037</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="101">
+        <v>109.783</v>
+      </c>
+      <c r="E6" s="118">
+        <v>0.909976954537588</v>
+      </c>
+      <c r="F6" s="119">
+        <f t="shared" si="0"/>
+        <v>0.999</v>
+      </c>
+      <c r="G6" s="118">
+        <v>0.628512611242178</v>
+      </c>
+      <c r="H6" s="119">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="I6" s="118">
+        <v>60.4009728282157</v>
+      </c>
+      <c r="J6" s="119">
+        <f t="shared" si="2"/>
+        <v>6631</v>
+      </c>
+      <c r="K6" s="102">
+        <v>0</v>
+      </c>
+      <c r="L6" s="118">
+        <v>0.909976954537588</v>
+      </c>
+      <c r="M6" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="118">
+        <v>60.4009728282157</v>
+      </c>
+      <c r="O6" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="118">
+        <v>0.628512611242178</v>
+      </c>
+      <c r="Q6" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="102"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="120"/>
+      <c r="V6" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="120"/>
+      <c r="X6" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="133">
+        <f t="shared" si="9"/>
+        <v>109.783</v>
+      </c>
+      <c r="Z6" s="135">
+        <f t="shared" si="10"/>
+        <v>0.909976954537588</v>
+      </c>
+      <c r="AA6" s="134">
+        <f t="shared" si="11"/>
+        <v>99.9</v>
+      </c>
+      <c r="AB6" s="135">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="89">
-        <v>10036</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="101"/>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="101"/>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="101"/>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="87">
-        <v>125.66</v>
-      </c>
-      <c r="L5" s="101"/>
-      <c r="M5" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="101"/>
-      <c r="O5" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="105">
-        <v>125.66</v>
-      </c>
-      <c r="S5" s="101"/>
-      <c r="T5" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="101"/>
-      <c r="V5" s="89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="101"/>
-      <c r="X5" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="89">
-        <v>10037</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="93">
-        <v>121.74</v>
-      </c>
-      <c r="E6" s="101">
-        <v>0.909976954537588</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1.10780594445406</v>
-      </c>
-      <c r="G6" s="101">
+        <v>60.4009728282157</v>
+      </c>
+      <c r="AC6" s="134">
+        <f t="shared" si="13"/>
+        <v>6631</v>
+      </c>
+      <c r="AD6" s="135">
+        <f t="shared" si="14"/>
         <v>0.628512611242178</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>76.5151252926228</v>
-      </c>
-      <c r="I6" s="101">
-        <v>60.4009728282157</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>7353.21443210698</v>
-      </c>
-      <c r="K6" s="87">
-        <v>0</v>
-      </c>
-      <c r="L6" s="101">
-        <v>0.909976954537588</v>
-      </c>
-      <c r="M6" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="101">
-        <v>60.4009728282157</v>
-      </c>
-      <c r="O6" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="101">
-        <v>0.628512611242178</v>
-      </c>
-      <c r="Q6" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="105">
-        <v>0</v>
-      </c>
-      <c r="S6" s="101">
-        <v>0.909976954537588</v>
-      </c>
-      <c r="T6" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="101">
-        <v>60.4009728282157</v>
-      </c>
-      <c r="V6" s="89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="101">
-        <v>0.628512611242178</v>
-      </c>
-      <c r="X6" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="90">
-        <f t="shared" si="9"/>
-        <v>121.74</v>
-      </c>
-      <c r="Z6" s="89">
-        <f t="shared" si="10"/>
-        <v>1.10780594445406</v>
-      </c>
-      <c r="AA6" s="89">
-        <f t="shared" si="11"/>
-        <v>7353.21443210698</v>
-      </c>
-      <c r="AB6" s="89">
-        <f t="shared" si="12"/>
-        <v>76.5151252926228</v>
-      </c>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:39">
-      <c r="A7" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="89">
+      <c r="AE6" s="133">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+    </row>
+    <row r="7" s="88" customFormat="1" ht="14.25" spans="1:42">
+      <c r="A7" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="103">
         <v>10039</v>
       </c>
-      <c r="C7" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="94">
+      <c r="C7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="105">
         <v>39.18</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="121">
         <v>99.02</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="122">
         <f t="shared" si="0"/>
         <v>38.796036</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7">
+      <c r="G7" s="121"/>
+      <c r="H7" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7">
+      <c r="I7" s="121"/>
+      <c r="J7" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="128">
         <v>3.34</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="121">
         <v>99.02</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="103">
         <f t="shared" si="3"/>
         <v>3.307268</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="89">
+      <c r="N7" s="121"/>
+      <c r="O7" s="103">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="89">
+      <c r="P7" s="121"/>
+      <c r="Q7" s="103">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7" s="105">
         <v>20.16</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="121">
         <v>99.02</v>
       </c>
-      <c r="T7" s="89">
+      <c r="T7" s="103">
         <f t="shared" si="6"/>
         <v>19.962432</v>
       </c>
-      <c r="U7" s="101"/>
-      <c r="V7" s="89">
+      <c r="U7" s="121"/>
+      <c r="V7" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="101"/>
-      <c r="X7" s="89">
+      <c r="W7" s="121"/>
+      <c r="X7" s="103">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="90">
+      <c r="Y7" s="136">
         <f t="shared" si="9"/>
         <v>22.36</v>
       </c>
-      <c r="Z7" s="89">
+      <c r="Z7" s="135">
         <f t="shared" si="10"/>
-        <v>22.140872</v>
-      </c>
-      <c r="AA7" s="89">
+        <v>99.02</v>
+      </c>
+      <c r="AA7" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="89">
+        <v>2214.0872</v>
+      </c>
+      <c r="AB7" s="135">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="89">
+      <c r="AC7" s="134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="140"/>
+      <c r="AL7" s="140"/>
+      <c r="AM7" s="140"/>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="140"/>
+      <c r="AP7" s="140"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:42">
+      <c r="A8" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="93">
         <v>10041</v>
       </c>
-      <c r="C8" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="95">
-        <v>580</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="C8" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="101">
+        <v>528.902</v>
+      </c>
+      <c r="E8" s="123">
         <v>24.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="119">
         <f t="shared" si="0"/>
-        <v>140.36</v>
-      </c>
-      <c r="G8" s="101">
+        <v>127.994284</v>
+      </c>
+      <c r="G8" s="123">
         <v>0.2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="119">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="I8" s="101">
+        <v>105.7804</v>
+      </c>
+      <c r="I8" s="123">
         <v>41.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="119">
         <f t="shared" si="2"/>
-        <v>23896</v>
-      </c>
-      <c r="K8" s="87">
+        <v>21790.7624</v>
+      </c>
+      <c r="K8" s="102">
         <v>5022.1</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="123">
         <v>24.2</v>
       </c>
-      <c r="M8" s="89">
+      <c r="M8" s="93">
         <f t="shared" si="3"/>
         <v>1215.3482</v>
       </c>
-      <c r="N8" s="101">
+      <c r="N8" s="123">
         <v>41.2</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="93">
         <f t="shared" si="4"/>
         <v>206910.52</v>
       </c>
-      <c r="P8" s="101">
+      <c r="P8" s="123">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="89">
+      <c r="Q8" s="93">
         <f t="shared" si="5"/>
         <v>1004.42</v>
       </c>
-      <c r="R8" s="105">
-        <v>706.79</v>
-      </c>
-      <c r="S8" s="101">
-        <v>24.2</v>
-      </c>
-      <c r="T8" s="89">
+      <c r="R8" s="101">
+        <v>637.171185</v>
+      </c>
+      <c r="S8" s="123">
+        <v>24.8</v>
+      </c>
+      <c r="T8" s="93">
         <f t="shared" si="6"/>
-        <v>171.04318</v>
-      </c>
-      <c r="U8" s="101">
-        <v>41.2</v>
-      </c>
-      <c r="V8" s="89">
+        <v>158.01845388</v>
+      </c>
+      <c r="U8" s="123">
+        <v>39.88</v>
+      </c>
+      <c r="V8" s="93">
         <f t="shared" si="7"/>
-        <v>29119.748</v>
-      </c>
-      <c r="W8" s="101">
-        <v>0.2</v>
-      </c>
-      <c r="X8" s="89">
+        <v>25410.3868578</v>
+      </c>
+      <c r="W8" s="123">
+        <v>0.32</v>
+      </c>
+      <c r="X8" s="93">
         <f t="shared" si="8"/>
-        <v>141.358</v>
-      </c>
-      <c r="Y8" s="90">
+        <v>203.8947792</v>
+      </c>
+      <c r="Y8" s="133">
         <f t="shared" si="9"/>
-        <v>4895.31</v>
-      </c>
-      <c r="Z8" s="89">
+        <v>4913.830815</v>
+      </c>
+      <c r="Z8" s="135">
         <f t="shared" si="10"/>
-        <v>1184.66502</v>
-      </c>
-      <c r="AA8" s="89">
+        <v>24.1221986418757</v>
+      </c>
+      <c r="AA8" s="134">
         <f t="shared" si="11"/>
-        <v>201686.772</v>
-      </c>
-      <c r="AB8" s="89">
+        <v>118532.403012</v>
+      </c>
+      <c r="AB8" s="135">
         <f t="shared" si="12"/>
-        <v>979.062</v>
-      </c>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="89">
+        <v>41.3711629878734</v>
+      </c>
+      <c r="AC8" s="134">
+        <f t="shared" si="13"/>
+        <v>203290.8955422</v>
+      </c>
+      <c r="AD8" s="135">
+        <f t="shared" si="14"/>
+        <v>0.184439728375141</v>
+      </c>
+      <c r="AE8" s="133">
+        <f t="shared" si="15"/>
+        <v>906.3056208</v>
+      </c>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:42">
+      <c r="A9" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="93">
         <v>10043</v>
       </c>
-      <c r="C9" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="97">
+      <c r="C9" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="101">
         <v>376.2</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="124">
         <v>73.62</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="119">
         <f t="shared" si="0"/>
         <v>276.95844</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="124">
         <v>8.97</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="119">
         <f t="shared" si="1"/>
         <v>3374.514</v>
       </c>
-      <c r="I9" s="102">
+      <c r="I9" s="124">
         <v>237.5</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J33" si="13">D9*I9</f>
+      <c r="J9" s="119">
+        <f t="shared" ref="J9:J33" si="16">D9*I9</f>
         <v>89347.5</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="102">
         <v>39.6</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="124">
         <v>73.62</v>
       </c>
-      <c r="M9" s="89">
+      <c r="M9" s="93">
         <f t="shared" si="3"/>
         <v>29.15352</v>
       </c>
-      <c r="N9" s="102">
+      <c r="N9" s="124">
         <v>237.5</v>
       </c>
-      <c r="O9" s="89">
+      <c r="O9" s="93">
         <f t="shared" si="4"/>
         <v>9405</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="124">
         <v>8.97</v>
       </c>
-      <c r="Q9" s="89">
+      <c r="Q9" s="93">
         <f t="shared" si="5"/>
         <v>355.212</v>
       </c>
-      <c r="R9" s="105">
+      <c r="R9" s="101">
         <v>415.8</v>
       </c>
-      <c r="S9" s="102">
-        <v>73.62</v>
-      </c>
-      <c r="T9" s="89">
+      <c r="S9" s="124">
+        <v>73.99</v>
+      </c>
+      <c r="T9" s="93">
         <f t="shared" si="6"/>
-        <v>306.11196</v>
-      </c>
-      <c r="U9" s="102">
-        <v>237.5</v>
-      </c>
-      <c r="V9" s="89">
+        <v>307.65042</v>
+      </c>
+      <c r="U9" s="124">
+        <v>264.9</v>
+      </c>
+      <c r="V9" s="93">
         <f t="shared" si="7"/>
-        <v>98752.5</v>
-      </c>
-      <c r="W9" s="102">
-        <v>8.97</v>
-      </c>
-      <c r="X9" s="89">
+        <v>110145.42</v>
+      </c>
+      <c r="W9" s="124">
+        <v>5.32</v>
+      </c>
+      <c r="X9" s="93">
         <f t="shared" si="8"/>
-        <v>3729.726</v>
-      </c>
-      <c r="Y9" s="90">
+        <v>2212.056</v>
+      </c>
+      <c r="Y9" s="133">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="89">
+      <c r="Z9" s="135" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="89">
+        <v>-153.845999999998</v>
+      </c>
+      <c r="AB9" s="135" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" s="134">
+        <f t="shared" si="13"/>
+        <v>-11392.92</v>
+      </c>
+      <c r="AD9" s="135" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE9" s="133">
+        <f t="shared" si="15"/>
+        <v>1517.67</v>
+      </c>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:42">
+      <c r="A10" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="93">
         <v>10045</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="97">
+      <c r="C10" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="101">
         <v>215.27</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="124">
         <v>1.89</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="119">
         <f t="shared" si="0"/>
         <v>4.068603</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="124">
         <v>0.06</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="119">
         <f t="shared" si="1"/>
         <v>12.9162</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="124">
         <v>5.6</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="13"/>
+      <c r="J10" s="119">
+        <f t="shared" si="16"/>
         <v>1205.512</v>
       </c>
-      <c r="K10" s="90">
-        <v>0</v>
-      </c>
-      <c r="L10" s="102">
+      <c r="K10" s="102">
+        <v>0</v>
+      </c>
+      <c r="L10" s="124">
         <v>1.89</v>
       </c>
-      <c r="M10" s="89">
+      <c r="M10" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="102">
+      <c r="N10" s="124">
         <v>5.6</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="124">
         <v>0.06</v>
       </c>
-      <c r="Q10" s="89">
+      <c r="Q10" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="105">
+      <c r="R10" s="101">
         <v>209</v>
       </c>
-      <c r="S10" s="102">
+      <c r="S10" s="124">
         <v>1.89</v>
       </c>
-      <c r="T10" s="89">
+      <c r="T10" s="93">
         <f t="shared" si="6"/>
         <v>3.9501</v>
       </c>
-      <c r="U10" s="102">
-        <v>5.6</v>
-      </c>
-      <c r="V10" s="89">
+      <c r="U10" s="124">
+        <v>6.1</v>
+      </c>
+      <c r="V10" s="93">
         <f t="shared" si="7"/>
-        <v>1170.4</v>
-      </c>
-      <c r="W10" s="102">
-        <v>0.06</v>
-      </c>
-      <c r="X10" s="89">
+        <v>1274.9</v>
+      </c>
+      <c r="W10" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="X10" s="93">
         <f t="shared" si="8"/>
-        <v>12.54</v>
-      </c>
-      <c r="Y10" s="90">
+        <v>10.45</v>
+      </c>
+      <c r="Y10" s="133">
         <f t="shared" si="9"/>
         <v>6.27000000000001</v>
       </c>
-      <c r="Z10" s="89">
+      <c r="Z10" s="135">
         <f t="shared" si="10"/>
-        <v>0.118503</v>
-      </c>
-      <c r="AA10" s="89">
+        <v>1.89</v>
+      </c>
+      <c r="AA10" s="134">
         <f t="shared" si="11"/>
-        <v>35.1120000000001</v>
-      </c>
-      <c r="AB10" s="89">
+        <v>11.8503</v>
+      </c>
+      <c r="AB10" s="135">
         <f t="shared" si="12"/>
-        <v>0.376200000000001</v>
-      </c>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="A11" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="89">
+        <v>-11.0666666666666</v>
+      </c>
+      <c r="AC10" s="134">
+        <f t="shared" si="13"/>
+        <v>-69.3879999999999</v>
+      </c>
+      <c r="AD10" s="135">
+        <f t="shared" si="14"/>
+        <v>0.393333333333333</v>
+      </c>
+      <c r="AE10" s="133">
+        <f t="shared" si="15"/>
+        <v>2.4662</v>
+      </c>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:42">
+      <c r="A11" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="93">
         <v>10047</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="98">
+      <c r="C11" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="101">
+        <v>0</v>
+      </c>
+      <c r="E11" s="124"/>
+      <c r="F11" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="124"/>
+      <c r="J11" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="102"/>
+      <c r="L11" s="124">
+        <v>12.71</v>
+      </c>
+      <c r="M11" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="124">
+        <v>130.6</v>
+      </c>
+      <c r="O11" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="124">
+        <v>1.15</v>
+      </c>
+      <c r="Q11" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="101">
+        <v>148.32</v>
+      </c>
+      <c r="S11" s="124">
+        <v>1.89</v>
+      </c>
+      <c r="T11" s="93">
+        <f t="shared" si="6"/>
+        <v>2.803248</v>
+      </c>
+      <c r="U11" s="124">
+        <v>6.1</v>
+      </c>
+      <c r="V11" s="93">
+        <f t="shared" si="7"/>
+        <v>904.752</v>
+      </c>
+      <c r="W11" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="X11" s="93">
+        <f t="shared" si="8"/>
+        <v>7.416</v>
+      </c>
+      <c r="Y11" s="133">
+        <f t="shared" si="9"/>
+        <v>-148.32</v>
+      </c>
+      <c r="Z11" s="135">
+        <f t="shared" si="10"/>
+        <v>1.89</v>
+      </c>
+      <c r="AA11" s="134">
+        <f t="shared" si="11"/>
+        <v>-280.3248</v>
+      </c>
+      <c r="AB11" s="135">
+        <f t="shared" si="12"/>
+        <v>6.1</v>
+      </c>
+      <c r="AC11" s="134">
+        <f t="shared" si="13"/>
+        <v>-904.752</v>
+      </c>
+      <c r="AD11" s="135">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE11" s="133">
+        <f t="shared" si="15"/>
+        <v>-7.416</v>
+      </c>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:42">
+      <c r="A12" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="93">
+        <v>10049</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="101">
         <v>237</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E12" s="124">
         <v>12.71</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="119">
         <f t="shared" si="0"/>
         <v>30.1227</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G12" s="124">
         <v>1.15</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="119">
         <f t="shared" si="1"/>
         <v>272.55</v>
       </c>
-      <c r="I11" s="102">
+      <c r="I12" s="124">
         <v>130.6</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="13"/>
+      <c r="J12" s="119">
+        <f t="shared" si="16"/>
         <v>30952.2</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K12" s="102">
         <v>721.29</v>
       </c>
-      <c r="L11" s="102">
-        <v>12.71</v>
-      </c>
-      <c r="M11" s="89">
+      <c r="L12" s="124">
+        <v>99.01</v>
+      </c>
+      <c r="M12" s="93">
         <f t="shared" si="3"/>
-        <v>91.675959</v>
-      </c>
-      <c r="N11" s="102">
-        <v>130.6</v>
-      </c>
-      <c r="O11" s="89">
+        <v>714.149229</v>
+      </c>
+      <c r="N12" s="124">
+        <v>315</v>
+      </c>
+      <c r="O12" s="93">
         <f t="shared" si="4"/>
-        <v>94200.474</v>
-      </c>
-      <c r="P11" s="102">
-        <v>1.15</v>
-      </c>
-      <c r="Q11" s="89">
+        <v>227206.35</v>
+      </c>
+      <c r="P12" s="124">
+        <v>12.02</v>
+      </c>
+      <c r="Q12" s="93">
         <f t="shared" si="5"/>
-        <v>829.4835</v>
-      </c>
-      <c r="R11" s="105">
+        <v>8669.9058</v>
+      </c>
+      <c r="R12" s="101">
         <v>33.3</v>
       </c>
-      <c r="S11" s="102">
-        <v>12.71</v>
-      </c>
-      <c r="T11" s="89">
+      <c r="S12" s="124">
+        <v>11.5</v>
+      </c>
+      <c r="T12" s="93">
         <f t="shared" si="6"/>
-        <v>4.23243</v>
-      </c>
-      <c r="U11" s="102">
-        <v>130.6</v>
-      </c>
-      <c r="V11" s="89">
+        <v>3.8295</v>
+      </c>
+      <c r="U12" s="124">
+        <v>118.6</v>
+      </c>
+      <c r="V12" s="93">
         <f t="shared" si="7"/>
-        <v>4348.98</v>
-      </c>
-      <c r="W11" s="102">
-        <v>1.15</v>
-      </c>
-      <c r="X11" s="89">
+        <v>3949.38</v>
+      </c>
+      <c r="W12" s="124">
+        <v>0.67</v>
+      </c>
+      <c r="X12" s="93">
         <f t="shared" si="8"/>
-        <v>38.295</v>
-      </c>
-      <c r="Y11" s="90">
+        <v>22.311</v>
+      </c>
+      <c r="Y12" s="133">
         <f t="shared" si="9"/>
         <v>924.99</v>
       </c>
-      <c r="Z11" s="89">
+      <c r="Z12" s="135">
         <f t="shared" si="10"/>
-        <v>117.566229</v>
-      </c>
-      <c r="AA11" s="89">
+        <v>80.0486955534654</v>
+      </c>
+      <c r="AA12" s="134">
         <f t="shared" si="11"/>
-        <v>120803.694</v>
-      </c>
-      <c r="AB11" s="89">
+        <v>74044.2429</v>
+      </c>
+      <c r="AB12" s="135">
         <f t="shared" si="12"/>
-        <v>1063.7385</v>
-      </c>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="89">
-        <v>10049</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="95">
+        <v>274.823695391301</v>
+      </c>
+      <c r="AC12" s="134">
+        <f t="shared" si="13"/>
+        <v>254209.17</v>
+      </c>
+      <c r="AD12" s="135">
+        <f t="shared" si="14"/>
+        <v>9.64350403788149</v>
+      </c>
+      <c r="AE12" s="133">
+        <f t="shared" si="15"/>
+        <v>8920.1448</v>
+      </c>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:42">
+      <c r="A13" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="93">
+        <v>10051</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="101">
         <v>438.54</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E13" s="124">
         <v>99.01</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="119">
         <f t="shared" si="0"/>
         <v>434.198454</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G13" s="124">
         <v>12.02</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="119">
         <f t="shared" si="1"/>
         <v>5271.2508</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I13" s="124">
         <v>315</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="119">
+        <f t="shared" si="16"/>
+        <v>138140.1</v>
+      </c>
+      <c r="K13" s="102">
+        <v>99.41</v>
+      </c>
+      <c r="L13" s="124">
+        <v>30.51</v>
+      </c>
+      <c r="M13" s="93">
+        <f t="shared" si="3"/>
+        <v>30.329991</v>
+      </c>
+      <c r="N13" s="124">
+        <v>13.9</v>
+      </c>
+      <c r="O13" s="93">
+        <f t="shared" si="4"/>
+        <v>1381.799</v>
+      </c>
+      <c r="P13" s="124">
+        <v>0.15</v>
+      </c>
+      <c r="Q13" s="93">
+        <f t="shared" si="5"/>
+        <v>14.9115</v>
+      </c>
+      <c r="R13" s="101">
+        <v>537.95</v>
+      </c>
+      <c r="S13" s="124">
+        <v>98.95</v>
+      </c>
+      <c r="T13" s="93">
+        <f t="shared" si="6"/>
+        <v>532.301525</v>
+      </c>
+      <c r="U13" s="124">
+        <v>420.4</v>
+      </c>
+      <c r="V13" s="93">
+        <f t="shared" si="7"/>
+        <v>226154.18</v>
+      </c>
+      <c r="W13" s="124">
+        <v>9.12</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="8"/>
+        <v>4906.104</v>
+      </c>
+      <c r="Y13" s="133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="134">
+        <f t="shared" si="11"/>
+        <v>-6777.308</v>
+      </c>
+      <c r="AB13" s="135" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="134">
         <f t="shared" si="13"/>
-        <v>138140.1</v>
-      </c>
-      <c r="K12" s="90">
-        <v>99.41</v>
-      </c>
-      <c r="L12" s="102">
-        <v>99.01</v>
-      </c>
-      <c r="M12" s="89">
-        <f t="shared" si="3"/>
-        <v>98.425841</v>
-      </c>
-      <c r="N12" s="102">
-        <v>315</v>
-      </c>
-      <c r="O12" s="89">
-        <f t="shared" si="4"/>
-        <v>31314.15</v>
-      </c>
-      <c r="P12" s="102">
-        <v>12.02</v>
-      </c>
-      <c r="Q12" s="89">
-        <f t="shared" si="5"/>
-        <v>1194.9082</v>
-      </c>
-      <c r="R12" s="105">
-        <v>537.95</v>
-      </c>
-      <c r="S12" s="102">
-        <v>99.01</v>
-      </c>
-      <c r="T12" s="89">
-        <f t="shared" si="6"/>
-        <v>532.624295</v>
-      </c>
-      <c r="U12" s="102">
-        <v>315</v>
-      </c>
-      <c r="V12" s="89">
-        <f t="shared" si="7"/>
-        <v>169454.25</v>
-      </c>
-      <c r="W12" s="102">
-        <v>12.02</v>
-      </c>
-      <c r="X12" s="89">
-        <f t="shared" si="8"/>
-        <v>6466.159</v>
-      </c>
-      <c r="Y12" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="89">
-        <v>10051</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="95">
+        <v>-86632.281</v>
+      </c>
+      <c r="AD13" s="135" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="133">
+        <f t="shared" si="15"/>
+        <v>380.0583</v>
+      </c>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:42">
+      <c r="A14" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="93">
+        <v>10053</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="101">
         <v>161.13</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E14" s="124">
         <v>30.51</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="119">
         <f t="shared" si="0"/>
         <v>49.160763</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G14" s="124">
         <v>0.15</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="119">
         <f t="shared" si="1"/>
         <v>24.1695</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I14" s="124">
         <v>13.9</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="13"/>
+      <c r="J14" s="119">
+        <f t="shared" si="16"/>
         <v>2239.707</v>
       </c>
-      <c r="K13" s="90">
-        <v>0</v>
-      </c>
-      <c r="L13" s="102">
+      <c r="K14" s="102">
+        <v>0</v>
+      </c>
+      <c r="L14" s="124">
         <v>30.51</v>
       </c>
-      <c r="M13" s="89">
+      <c r="M14" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="102">
+      <c r="N14" s="124">
         <v>13.9</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O14" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P14" s="124">
         <v>0.15</v>
       </c>
-      <c r="Q13" s="89">
+      <c r="Q14" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="105">
+      <c r="R14" s="101">
         <v>136.06</v>
       </c>
-      <c r="S13" s="102">
-        <v>30.51</v>
-      </c>
-      <c r="T13" s="89">
+      <c r="S14" s="124">
+        <v>32.79</v>
+      </c>
+      <c r="T14" s="93">
         <f t="shared" si="6"/>
-        <v>41.511906</v>
-      </c>
-      <c r="U13" s="102">
-        <v>13.9</v>
-      </c>
-      <c r="V13" s="89">
+        <v>44.614074</v>
+      </c>
+      <c r="U14" s="124">
+        <v>16.7</v>
+      </c>
+      <c r="V14" s="93">
         <f t="shared" si="7"/>
-        <v>1891.234</v>
-      </c>
-      <c r="W13" s="102">
-        <v>0.15</v>
-      </c>
-      <c r="X13" s="89">
+        <v>2272.202</v>
+      </c>
+      <c r="W14" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="X14" s="93">
         <f t="shared" si="8"/>
-        <v>20.409</v>
-      </c>
-      <c r="Y13" s="90">
+        <v>6.803</v>
+      </c>
+      <c r="Y14" s="133">
         <f t="shared" si="9"/>
         <v>25.07</v>
       </c>
-      <c r="Z13" s="89">
+      <c r="Z14" s="135">
         <f t="shared" si="10"/>
-        <v>7.648857</v>
-      </c>
-      <c r="AA13" s="89">
+        <v>18.1359752692461</v>
+      </c>
+      <c r="AA14" s="134">
         <f t="shared" si="11"/>
-        <v>348.473</v>
-      </c>
-      <c r="AB13" s="89">
+        <v>454.6689</v>
+      </c>
+      <c r="AB14" s="135">
         <f t="shared" si="12"/>
-        <v>3.7605</v>
-      </c>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="89">
-        <v>10053</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="97">
+        <v>-1.29617072197846</v>
+      </c>
+      <c r="AC14" s="134">
+        <f t="shared" si="13"/>
+        <v>-32.4949999999999</v>
+      </c>
+      <c r="AD14" s="135">
+        <f t="shared" si="14"/>
+        <v>0.692720382927802</v>
+      </c>
+      <c r="AE14" s="133">
+        <f t="shared" si="15"/>
+        <v>17.3665</v>
+      </c>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:42">
+      <c r="A15" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="93">
+        <v>10055</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="101">
         <v>312.5</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E15" s="124">
         <v>30.51</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="119">
         <f t="shared" si="0"/>
         <v>95.34375</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G15" s="124">
         <v>0.15</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="119">
         <f t="shared" si="1"/>
         <v>46.875</v>
       </c>
-      <c r="I14" s="102">
+      <c r="I15" s="124">
         <v>13.9</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="13"/>
+      <c r="J15" s="119">
+        <f t="shared" si="16"/>
         <v>4343.75</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K15" s="102">
         <v>3399.43</v>
       </c>
-      <c r="L14" s="102">
-        <v>30.51</v>
-      </c>
-      <c r="M14" s="89">
+      <c r="L15" s="124">
+        <v>12.71</v>
+      </c>
+      <c r="M15" s="93">
         <f t="shared" si="3"/>
-        <v>1037.166093</v>
-      </c>
-      <c r="N14" s="102">
-        <v>13.9</v>
-      </c>
-      <c r="O14" s="89">
+        <v>432.067553</v>
+      </c>
+      <c r="N15" s="124">
+        <v>130.6</v>
+      </c>
+      <c r="O15" s="93">
         <f t="shared" si="4"/>
-        <v>47252.077</v>
-      </c>
-      <c r="P14" s="102">
-        <v>0.15</v>
-      </c>
-      <c r="Q14" s="89">
+        <v>443965.558</v>
+      </c>
+      <c r="P15" s="124">
+        <v>1.15</v>
+      </c>
+      <c r="Q15" s="93">
         <f t="shared" si="5"/>
-        <v>509.9145</v>
-      </c>
-      <c r="R14" s="105">
+        <v>3909.3445</v>
+      </c>
+      <c r="R15" s="101">
         <v>53.6</v>
       </c>
-      <c r="S14" s="102">
-        <v>30.51</v>
-      </c>
-      <c r="T14" s="89">
+      <c r="S15" s="124">
+        <v>32.79</v>
+      </c>
+      <c r="T15" s="93">
         <f t="shared" si="6"/>
-        <v>16.35336</v>
-      </c>
-      <c r="U14" s="102">
-        <v>13.9</v>
-      </c>
-      <c r="V14" s="89">
+        <v>17.57544</v>
+      </c>
+      <c r="U15" s="124">
+        <v>16.7</v>
+      </c>
+      <c r="V15" s="93">
         <f t="shared" si="7"/>
-        <v>745.04</v>
-      </c>
-      <c r="W14" s="102">
-        <v>0.15</v>
-      </c>
-      <c r="X14" s="89">
+        <v>895.12</v>
+      </c>
+      <c r="W15" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="X15" s="93">
         <f t="shared" si="8"/>
-        <v>8.04</v>
-      </c>
-      <c r="Y14" s="90">
+        <v>2.68</v>
+      </c>
+      <c r="Y15" s="133">
         <f t="shared" si="9"/>
         <v>3658.33</v>
       </c>
-      <c r="Z14" s="89">
+      <c r="Z15" s="135">
         <f t="shared" si="10"/>
-        <v>1116.156483</v>
-      </c>
-      <c r="AA14" s="89">
+        <v>13.936300525103</v>
+      </c>
+      <c r="AA15" s="134">
         <f t="shared" si="11"/>
-        <v>50850.787</v>
-      </c>
-      <c r="AB14" s="89">
+        <v>50983.5863</v>
+      </c>
+      <c r="AB15" s="135">
         <f t="shared" si="12"/>
-        <v>548.7495</v>
-      </c>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="89">
-        <v>10055</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="98">
+        <v>122.300117266622</v>
+      </c>
+      <c r="AC15" s="134">
+        <f t="shared" si="13"/>
+        <v>447414.188</v>
+      </c>
+      <c r="AD15" s="135">
+        <f t="shared" si="14"/>
+        <v>1.08069515325299</v>
+      </c>
+      <c r="AE15" s="133">
+        <f t="shared" si="15"/>
+        <v>3953.5395</v>
+      </c>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:42">
+      <c r="A16" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="93">
+        <v>10057</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="101">
         <v>63</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E16" s="124">
         <v>12.71</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="119">
         <f t="shared" si="0"/>
         <v>8.0073</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G16" s="124">
         <v>1.15</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="119">
         <f t="shared" si="1"/>
         <v>72.45</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I16" s="124">
         <v>130.6</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="13"/>
+      <c r="J16" s="119">
+        <f t="shared" si="16"/>
         <v>8227.8</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K16" s="102">
         <v>335.66</v>
       </c>
-      <c r="L15" s="102">
-        <v>12.71</v>
-      </c>
-      <c r="M15" s="89">
+      <c r="L16" s="118">
+        <v>7.01934074501771</v>
+      </c>
+      <c r="M16" s="93">
         <f t="shared" si="3"/>
-        <v>42.662386</v>
-      </c>
-      <c r="N15" s="102">
-        <v>130.6</v>
-      </c>
-      <c r="O15" s="89">
+        <v>23.5611191447264</v>
+      </c>
+      <c r="N16" s="118">
+        <v>75.2281060486258</v>
+      </c>
+      <c r="O16" s="93">
         <f t="shared" si="4"/>
-        <v>43837.196</v>
-      </c>
-      <c r="P15" s="102">
-        <v>1.15</v>
-      </c>
-      <c r="Q15" s="89">
+        <v>25251.0660762817</v>
+      </c>
+      <c r="P16" s="118">
+        <v>0.514870565217551</v>
+      </c>
+      <c r="Q16" s="93">
         <f t="shared" si="5"/>
-        <v>386.009</v>
-      </c>
-      <c r="R15" s="105">
+        <v>172.821453920923</v>
+      </c>
+      <c r="R16" s="101">
         <v>11.7</v>
       </c>
-      <c r="S15" s="102">
-        <v>12.71</v>
-      </c>
-      <c r="T15" s="89">
+      <c r="S16" s="124">
+        <v>11.5</v>
+      </c>
+      <c r="T16" s="93">
         <f t="shared" si="6"/>
-        <v>1.48707</v>
-      </c>
-      <c r="U15" s="102">
-        <v>130.6</v>
-      </c>
-      <c r="V15" s="89">
+        <v>1.3455</v>
+      </c>
+      <c r="U16" s="124">
+        <v>118.6</v>
+      </c>
+      <c r="V16" s="93">
         <f t="shared" si="7"/>
-        <v>1528.02</v>
-      </c>
-      <c r="W15" s="102">
-        <v>1.15</v>
-      </c>
-      <c r="X15" s="89">
+        <v>1387.62</v>
+      </c>
+      <c r="W16" s="124">
+        <v>0.67</v>
+      </c>
+      <c r="X16" s="93">
         <f t="shared" si="8"/>
-        <v>13.455</v>
-      </c>
-      <c r="Y15" s="90">
+        <v>7.839</v>
+      </c>
+      <c r="Y16" s="133">
         <f t="shared" si="9"/>
         <v>386.96</v>
       </c>
-      <c r="Z15" s="89">
+      <c r="Z16" s="135">
         <f t="shared" si="10"/>
-        <v>49.182616</v>
-      </c>
-      <c r="AA15" s="89">
+        <v>7.81034710169693</v>
+      </c>
+      <c r="AA16" s="134">
         <f t="shared" si="11"/>
-        <v>50536.976</v>
-      </c>
-      <c r="AB15" s="89">
+        <v>3022.29191447264</v>
+      </c>
+      <c r="AB16" s="135">
         <f t="shared" si="12"/>
-        <v>445.004</v>
-      </c>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="89">
-        <v>10057</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="97">
+        <v>82.9316882269013</v>
+      </c>
+      <c r="AC16" s="134">
+        <f t="shared" si="13"/>
+        <v>32091.2460762817</v>
+      </c>
+      <c r="AD16" s="135">
+        <f t="shared" si="14"/>
+        <v>0.613583972299264</v>
+      </c>
+      <c r="AE16" s="133">
+        <f t="shared" si="15"/>
+        <v>237.432453920923</v>
+      </c>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:42">
+      <c r="A17" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="93">
+        <v>10059</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="101">
         <v>2719.13</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E17" s="118">
         <v>7.01934074501771</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="119">
         <f t="shared" si="0"/>
         <v>190.865</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G17" s="118">
         <v>0.514870565217551</v>
       </c>
-      <c r="H16">
+      <c r="H17" s="119">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="I16" s="101">
+      <c r="I17" s="118">
         <v>75.2281060486258</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="13"/>
+      <c r="J17" s="119">
+        <f t="shared" si="16"/>
         <v>204555</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K17" s="102">
         <v>443.86</v>
       </c>
-      <c r="L16" s="101">
-        <v>7.01934074501771</v>
-      </c>
-      <c r="M16" s="89">
+      <c r="L17" s="125">
+        <v>99.57</v>
+      </c>
+      <c r="M17" s="93">
         <f t="shared" si="3"/>
-        <v>31.1560458308356</v>
-      </c>
-      <c r="N16" s="101">
-        <v>75.2281060486258</v>
-      </c>
-      <c r="O16" s="89">
+        <v>441.951402</v>
+      </c>
+      <c r="N17" s="125">
+        <v>329.29</v>
+      </c>
+      <c r="O17" s="93">
         <f t="shared" si="4"/>
-        <v>33390.7471507431</v>
-      </c>
-      <c r="P16" s="101">
-        <v>0.514870565217551</v>
-      </c>
-      <c r="Q16" s="89">
+        <v>146158.6594</v>
+      </c>
+      <c r="P17" s="125">
+        <v>11.6</v>
+      </c>
+      <c r="Q17" s="93">
         <f t="shared" si="5"/>
-        <v>228.530449077462</v>
-      </c>
-      <c r="R16" s="105">
+        <v>5148.776</v>
+      </c>
+      <c r="R17" s="101">
         <v>3060.67</v>
       </c>
-      <c r="S16" s="101">
-        <v>7.01934074501771</v>
-      </c>
-      <c r="T16" s="89">
+      <c r="S17" s="118">
+        <v>6.60652732898352</v>
+      </c>
+      <c r="T17" s="93">
         <f t="shared" si="6"/>
-        <v>214.838856380534</v>
-      </c>
-      <c r="U16" s="101">
-        <v>75.2281060486258</v>
-      </c>
-      <c r="V16" s="89">
+        <v>202.204</v>
+      </c>
+      <c r="U17" s="118">
+        <v>77.3118304162161</v>
+      </c>
+      <c r="V17" s="93">
         <f t="shared" si="7"/>
-        <v>230248.407339848</v>
-      </c>
-      <c r="W16" s="101">
-        <v>0.514870565217551</v>
-      </c>
-      <c r="X16" s="89">
+        <v>236626</v>
+      </c>
+      <c r="W17" s="118">
+        <v>0.493356029888881</v>
+      </c>
+      <c r="X17" s="93">
         <f t="shared" si="8"/>
-        <v>1575.8488928444</v>
-      </c>
-      <c r="Y16" s="90">
+        <v>1510</v>
+      </c>
+      <c r="Y17" s="133">
         <f t="shared" si="9"/>
         <v>102.32</v>
       </c>
-      <c r="Z16" s="89">
+      <c r="Z17" s="135">
         <f t="shared" si="10"/>
-        <v>7.18218945030213</v>
-      </c>
-      <c r="AA16" s="89">
+        <v>420.848711884285</v>
+      </c>
+      <c r="AA17" s="134">
         <f t="shared" si="11"/>
-        <v>7697.3398108954</v>
-      </c>
-      <c r="AB16" s="89">
+        <v>43061.2402</v>
+      </c>
+      <c r="AB17" s="135">
         <f t="shared" si="12"/>
-        <v>52.6815562330599</v>
-      </c>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="89"/>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="89">
-        <v>10059</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="99">
+        <v>1115.00839913995</v>
+      </c>
+      <c r="AC17" s="134">
+        <f t="shared" si="13"/>
+        <v>114087.6594</v>
+      </c>
+      <c r="AD17" s="135">
+        <f t="shared" si="14"/>
+        <v>49.2452697419859</v>
+      </c>
+      <c r="AE17" s="133">
+        <f t="shared" si="15"/>
+        <v>5038.776</v>
+      </c>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:42">
+      <c r="A18" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="93">
+        <v>10061</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="101">
         <v>666</v>
       </c>
-      <c r="E17" s="103">
+      <c r="E18" s="125">
         <v>99.57</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="119">
         <f t="shared" si="0"/>
         <v>663.1362</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G18" s="125">
         <v>11.6</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="119">
         <f t="shared" si="1"/>
         <v>7725.6</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I18" s="125">
         <v>329.29</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="13"/>
+      <c r="J18" s="119">
+        <f t="shared" si="16"/>
         <v>219307.14</v>
       </c>
-      <c r="K17" s="90">
-        <v>0</v>
-      </c>
-      <c r="L17" s="103">
+      <c r="K18" s="102">
+        <v>0</v>
+      </c>
+      <c r="L18" s="118">
         <v>99.57</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M18" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="103">
+      <c r="N18" s="118">
         <v>329.29</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O18" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="103">
+      <c r="P18" s="118">
         <v>11.6</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q18" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="105">
+      <c r="R18" s="101">
         <v>890</v>
       </c>
-      <c r="S17" s="103">
-        <v>99.57</v>
-      </c>
-      <c r="T17" s="89">
+      <c r="S18" s="125">
+        <v>99.51</v>
+      </c>
+      <c r="T18" s="93">
         <f t="shared" si="6"/>
-        <v>886.173</v>
-      </c>
-      <c r="U17" s="103">
-        <v>329.29</v>
-      </c>
-      <c r="V17" s="89">
+        <v>885.639</v>
+      </c>
+      <c r="U18" s="125">
+        <v>367.65</v>
+      </c>
+      <c r="V18" s="93">
         <f t="shared" si="7"/>
-        <v>293068.1</v>
-      </c>
-      <c r="W17" s="103">
-        <v>11.6</v>
-      </c>
-      <c r="X17" s="89">
+        <v>327208.5</v>
+      </c>
+      <c r="W18" s="125">
+        <v>6.65</v>
+      </c>
+      <c r="X18" s="93">
         <f t="shared" si="8"/>
-        <v>10324</v>
-      </c>
-      <c r="Y17" s="90">
+        <v>5918.5</v>
+      </c>
+      <c r="Y18" s="133">
         <f t="shared" si="9"/>
         <v>-224</v>
       </c>
-      <c r="Z17" s="89">
+      <c r="Z18" s="135">
         <f t="shared" si="10"/>
-        <v>-223.0368</v>
-      </c>
-      <c r="AA17" s="89">
+        <v>99.3316071428572</v>
+      </c>
+      <c r="AA18" s="134">
         <f t="shared" si="11"/>
-        <v>-73760.96</v>
-      </c>
-      <c r="AB17" s="89">
+        <v>-22250.28</v>
+      </c>
+      <c r="AB18" s="135">
         <f t="shared" si="12"/>
-        <v>-2598.4</v>
-      </c>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="89">
-        <v>10061</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="97">
+        <v>481.7025</v>
+      </c>
+      <c r="AC18" s="134">
+        <f t="shared" si="13"/>
+        <v>-107901.36</v>
+      </c>
+      <c r="AD18" s="135">
+        <f t="shared" si="14"/>
+        <v>-8.06741071428571</v>
+      </c>
+      <c r="AE18" s="133">
+        <f t="shared" si="15"/>
+        <v>1807.1</v>
+      </c>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:42">
+      <c r="A19" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="93">
+        <v>10063</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="101">
         <v>283.6</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E19" s="118">
         <v>99.57</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="119">
         <f t="shared" si="0"/>
         <v>282.38052</v>
       </c>
-      <c r="G18" s="101">
+      <c r="G19" s="118">
         <v>11.6</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="119">
         <f t="shared" si="1"/>
         <v>3289.76</v>
       </c>
-      <c r="I18" s="101">
+      <c r="I19" s="118">
         <v>329.29</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="13"/>
+      <c r="J19" s="119">
+        <f t="shared" si="16"/>
         <v>93386.644</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K19" s="102">
         <v>26621.68</v>
       </c>
-      <c r="L18" s="101">
+      <c r="L19" s="118">
         <v>99.57</v>
       </c>
-      <c r="M18" s="89">
+      <c r="M19" s="93">
         <f t="shared" si="3"/>
         <v>26507.206776</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N19" s="118">
         <v>329.29</v>
       </c>
-      <c r="O18" s="89">
+      <c r="O19" s="93">
         <f t="shared" si="4"/>
         <v>8766253.0072</v>
       </c>
-      <c r="P18" s="101">
+      <c r="P19" s="118">
         <v>11.6</v>
       </c>
-      <c r="Q18" s="89">
+      <c r="Q19" s="93">
         <f t="shared" si="5"/>
         <v>308811.488</v>
       </c>
-      <c r="R18" s="105">
+      <c r="R19" s="101">
         <v>822.8</v>
       </c>
-      <c r="S18" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="T18" s="89">
+      <c r="S19" s="118">
+        <v>99.51</v>
+      </c>
+      <c r="T19" s="93">
         <f t="shared" si="6"/>
-        <v>819.26196</v>
-      </c>
-      <c r="U18" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="V18" s="89">
+        <v>818.76828</v>
+      </c>
+      <c r="U19" s="118">
+        <v>367.65</v>
+      </c>
+      <c r="V19" s="93">
         <f t="shared" si="7"/>
-        <v>270939.812</v>
-      </c>
-      <c r="W18" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="X18" s="89">
+        <v>302502.42</v>
+      </c>
+      <c r="W19" s="118">
+        <v>6.65</v>
+      </c>
+      <c r="X19" s="93">
         <f t="shared" si="8"/>
-        <v>9544.48</v>
-      </c>
-      <c r="Y18" s="90">
+        <v>5471.62</v>
+      </c>
+      <c r="Y19" s="133">
         <f t="shared" si="9"/>
         <v>26082.48</v>
       </c>
-      <c r="Z18" s="89">
+      <c r="Z19" s="135">
         <f t="shared" si="10"/>
-        <v>25970.325336</v>
-      </c>
-      <c r="AA18" s="89">
+        <v>99.5718927647984</v>
+      </c>
+      <c r="AA19" s="134">
         <f t="shared" si="11"/>
-        <v>8588699.8392</v>
-      </c>
-      <c r="AB18" s="89">
+        <v>2597081.9016</v>
+      </c>
+      <c r="AB19" s="135">
         <f t="shared" si="12"/>
-        <v>302556.768</v>
-      </c>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="89">
-        <v>10063</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="97">
+        <v>328.079892372198</v>
+      </c>
+      <c r="AC19" s="134">
+        <f t="shared" si="13"/>
+        <v>8557137.2312</v>
+      </c>
+      <c r="AD19" s="135">
+        <f t="shared" si="14"/>
+        <v>11.7561530958713</v>
+      </c>
+      <c r="AE19" s="133">
+        <f t="shared" si="15"/>
+        <v>306629.628</v>
+      </c>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:42">
+      <c r="A20" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="93">
+        <v>10065</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="101">
         <v>20.94</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E20" s="118">
         <v>99.57</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="119">
         <f t="shared" si="0"/>
         <v>20.849958</v>
       </c>
-      <c r="G19" s="101">
+      <c r="G20" s="118">
         <v>11.6</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="119">
         <f t="shared" si="1"/>
         <v>242.904</v>
       </c>
-      <c r="I19" s="101">
+      <c r="I20" s="118">
         <v>329.29</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="13"/>
+      <c r="J20" s="119">
+        <f t="shared" si="16"/>
         <v>6895.3326</v>
       </c>
-      <c r="K19" s="90">
-        <v>0</v>
-      </c>
-      <c r="L19" s="101">
+      <c r="K20" s="102">
+        <v>0</v>
+      </c>
+      <c r="L20" s="118">
         <v>99.57</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M20" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N20" s="118">
         <v>329.29</v>
       </c>
-      <c r="O19" s="89">
+      <c r="O20" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="101">
+      <c r="P20" s="118">
         <v>11.6</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q20" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R19" s="105">
+      <c r="R20" s="101">
         <v>17.96</v>
       </c>
-      <c r="S19" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="T19" s="89">
+      <c r="S20" s="118">
+        <v>99.51</v>
+      </c>
+      <c r="T20" s="93">
         <f t="shared" si="6"/>
-        <v>17.882772</v>
-      </c>
-      <c r="U19" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="V19" s="89">
+        <v>17.871996</v>
+      </c>
+      <c r="U20" s="118">
+        <v>367.65</v>
+      </c>
+      <c r="V20" s="93">
         <f t="shared" si="7"/>
-        <v>5914.0484</v>
-      </c>
-      <c r="W19" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="X19" s="89">
+        <v>6602.994</v>
+      </c>
+      <c r="W20" s="118">
+        <v>6.65</v>
+      </c>
+      <c r="X20" s="93">
         <f t="shared" si="8"/>
-        <v>208.336</v>
-      </c>
-      <c r="Y19" s="90">
+        <v>119.434</v>
+      </c>
+      <c r="Y20" s="133">
         <f t="shared" si="9"/>
         <v>2.98</v>
       </c>
-      <c r="Z19" s="89">
+      <c r="Z20" s="135">
         <f t="shared" si="10"/>
-        <v>2.967186</v>
-      </c>
-      <c r="AA19" s="89">
+        <v>99.931610738255</v>
+      </c>
+      <c r="AA20" s="134">
         <f t="shared" si="11"/>
-        <v>981.2842</v>
-      </c>
-      <c r="AB19" s="89">
+        <v>297.7962</v>
+      </c>
+      <c r="AB20" s="135">
         <f t="shared" si="12"/>
-        <v>34.568</v>
-      </c>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="89">
-        <v>10065</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="97">
+        <v>98.1002013422822</v>
+      </c>
+      <c r="AC20" s="134">
+        <f t="shared" si="13"/>
+        <v>292.338600000001</v>
+      </c>
+      <c r="AD20" s="135">
+        <f t="shared" si="14"/>
+        <v>41.4328859060403</v>
+      </c>
+      <c r="AE20" s="133">
+        <f t="shared" si="15"/>
+        <v>123.47</v>
+      </c>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:42">
+      <c r="A21" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="93">
+        <v>10067</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="101">
         <v>14</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E21" s="118">
         <v>99.57</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="119">
         <f t="shared" si="0"/>
         <v>13.9398</v>
       </c>
-      <c r="G20" s="101">
+      <c r="G21" s="118">
         <v>11.6</v>
       </c>
-      <c r="H20">
+      <c r="H21" s="119">
         <f t="shared" si="1"/>
         <v>162.4</v>
       </c>
-      <c r="I20" s="101">
+      <c r="I21" s="118">
         <v>329.29</v>
       </c>
-      <c r="J20">
+      <c r="J21" s="119">
+        <f t="shared" si="16"/>
+        <v>4610.06</v>
+      </c>
+      <c r="K21" s="102">
+        <v>11.2</v>
+      </c>
+      <c r="L21" s="118">
+        <v>39.84</v>
+      </c>
+      <c r="M21" s="93">
+        <f t="shared" si="3"/>
+        <v>4.46208</v>
+      </c>
+      <c r="N21" s="118">
+        <v>57.6</v>
+      </c>
+      <c r="O21" s="93">
+        <f t="shared" si="4"/>
+        <v>645.12</v>
+      </c>
+      <c r="P21" s="118">
+        <v>1.32</v>
+      </c>
+      <c r="Q21" s="93">
+        <f t="shared" si="5"/>
+        <v>14.784</v>
+      </c>
+      <c r="R21" s="101">
+        <v>25.2</v>
+      </c>
+      <c r="S21" s="118">
+        <v>99.51</v>
+      </c>
+      <c r="T21" s="93">
+        <f t="shared" si="6"/>
+        <v>25.07652</v>
+      </c>
+      <c r="U21" s="118">
+        <v>367.65</v>
+      </c>
+      <c r="V21" s="93">
+        <f t="shared" si="7"/>
+        <v>9264.78</v>
+      </c>
+      <c r="W21" s="118">
+        <v>6.65</v>
+      </c>
+      <c r="X21" s="93">
+        <f t="shared" si="8"/>
+        <v>167.58</v>
+      </c>
+      <c r="Y21" s="133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" s="134">
+        <f t="shared" si="11"/>
+        <v>-667.464</v>
+      </c>
+      <c r="AB21" s="135" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC21" s="134">
         <f t="shared" si="13"/>
-        <v>4610.06</v>
-      </c>
-      <c r="K20" s="90">
-        <v>11.2</v>
-      </c>
-      <c r="L20" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="M20" s="89">
-        <f t="shared" si="3"/>
-        <v>11.15184</v>
-      </c>
-      <c r="N20" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="O20" s="89">
-        <f t="shared" si="4"/>
-        <v>3688.048</v>
-      </c>
-      <c r="P20" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="Q20" s="89">
-        <f t="shared" si="5"/>
-        <v>129.92</v>
-      </c>
-      <c r="R20" s="105">
-        <v>25.2</v>
-      </c>
-      <c r="S20" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="T20" s="89">
-        <f t="shared" si="6"/>
-        <v>25.09164</v>
-      </c>
-      <c r="U20" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="V20" s="89">
-        <f t="shared" si="7"/>
-        <v>8298.108</v>
-      </c>
-      <c r="W20" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="X20" s="89">
-        <f t="shared" si="8"/>
-        <v>292.32</v>
-      </c>
-      <c r="Y20" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="89"/>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="89">
-        <v>10067</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="97">
+        <v>-4009.6</v>
+      </c>
+      <c r="AD21" s="135" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE21" s="133">
+        <f t="shared" si="15"/>
+        <v>9.60399999999998</v>
+      </c>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:42">
+      <c r="A22" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="93">
+        <v>10069</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="101">
         <v>136.8</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E22" s="118">
         <v>39.84</v>
       </c>
-      <c r="F21">
+      <c r="F22" s="119">
         <f t="shared" si="0"/>
         <v>54.50112</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G22" s="118">
         <v>1.32</v>
       </c>
-      <c r="H21">
+      <c r="H22" s="119">
         <f t="shared" si="1"/>
         <v>180.576</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I22" s="118">
         <v>57.6</v>
       </c>
-      <c r="J21">
+      <c r="J22" s="119">
+        <f t="shared" si="16"/>
+        <v>7879.68</v>
+      </c>
+      <c r="K22" s="102">
+        <v>178.2</v>
+      </c>
+      <c r="L22" s="118">
+        <v>56.1</v>
+      </c>
+      <c r="M22" s="93">
+        <f t="shared" si="3"/>
+        <v>99.9702</v>
+      </c>
+      <c r="N22" s="118">
+        <v>72.8</v>
+      </c>
+      <c r="O22" s="93">
+        <f t="shared" si="4"/>
+        <v>12972.96</v>
+      </c>
+      <c r="P22" s="118">
+        <v>0.128571428571429</v>
+      </c>
+      <c r="Q22" s="93">
+        <f t="shared" si="5"/>
+        <v>22.9114285714286</v>
+      </c>
+      <c r="R22" s="101">
+        <v>315</v>
+      </c>
+      <c r="S22" s="118">
+        <v>44.8352380952381</v>
+      </c>
+      <c r="T22" s="93">
+        <f t="shared" si="6"/>
+        <v>141.231</v>
+      </c>
+      <c r="U22" s="118">
+        <v>95.9555555555556</v>
+      </c>
+      <c r="V22" s="93">
+        <f t="shared" si="7"/>
+        <v>30226</v>
+      </c>
+      <c r="W22" s="118">
+        <v>1.81904761904762</v>
+      </c>
+      <c r="X22" s="93">
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+      <c r="Y22" s="133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" s="134">
+        <f t="shared" si="11"/>
+        <v>1324.032</v>
+      </c>
+      <c r="AB22" s="135" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC22" s="134">
         <f t="shared" si="13"/>
-        <v>7879.68</v>
-      </c>
-      <c r="K21" s="90">
-        <v>178.2</v>
-      </c>
-      <c r="L21" s="101">
-        <v>39.84</v>
-      </c>
-      <c r="M21" s="89">
-        <f t="shared" si="3"/>
-        <v>70.99488</v>
-      </c>
-      <c r="N21" s="101">
-        <v>57.6</v>
-      </c>
-      <c r="O21" s="89">
-        <f t="shared" si="4"/>
-        <v>10264.32</v>
-      </c>
-      <c r="P21" s="101">
-        <v>1.32</v>
-      </c>
-      <c r="Q21" s="89">
-        <f t="shared" si="5"/>
-        <v>235.224</v>
-      </c>
-      <c r="R21" s="105">
-        <v>315</v>
-      </c>
-      <c r="S21" s="101">
-        <v>39.84</v>
-      </c>
-      <c r="T21" s="89">
-        <f t="shared" si="6"/>
-        <v>125.496</v>
-      </c>
-      <c r="U21" s="101">
-        <v>57.6</v>
-      </c>
-      <c r="V21" s="89">
-        <f t="shared" si="7"/>
-        <v>18144</v>
-      </c>
-      <c r="W21" s="101">
-        <v>1.32</v>
-      </c>
-      <c r="X21" s="89">
-        <f t="shared" si="8"/>
-        <v>415.8</v>
-      </c>
-      <c r="Y21" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="89">
-        <v>10069</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="97">
+        <v>-9373.36000000002</v>
+      </c>
+      <c r="AD22" s="135" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE22" s="133">
+        <f t="shared" si="15"/>
+        <v>-369.512571428572</v>
+      </c>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:42">
+      <c r="A23" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="93">
+        <v>10071</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="101">
         <v>70</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E23" s="118">
         <v>56.1</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="119">
         <f t="shared" si="0"/>
         <v>39.27</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G23" s="118">
         <v>0.128571428571429</v>
       </c>
-      <c r="H22">
+      <c r="H23" s="119">
         <f t="shared" si="1"/>
         <v>9.00000000000003</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I23" s="118">
         <v>72.8</v>
       </c>
-      <c r="J22">
+      <c r="J23" s="119">
+        <f t="shared" si="16"/>
+        <v>5096</v>
+      </c>
+      <c r="K23" s="102">
+        <v>40.14</v>
+      </c>
+      <c r="L23" s="118"/>
+      <c r="M23" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="118"/>
+      <c r="O23" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="101">
+        <v>0</v>
+      </c>
+      <c r="S23" s="118"/>
+      <c r="T23" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="118"/>
+      <c r="V23" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="118"/>
+      <c r="X23" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="133">
+        <f t="shared" si="9"/>
+        <v>110.14</v>
+      </c>
+      <c r="Z23" s="135">
+        <f t="shared" si="10"/>
+        <v>35.654621390957</v>
+      </c>
+      <c r="AA23" s="134">
+        <f t="shared" si="11"/>
+        <v>3927</v>
+      </c>
+      <c r="AB23" s="135">
+        <f t="shared" si="12"/>
+        <v>46.2683856909388</v>
+      </c>
+      <c r="AC23" s="134">
         <f t="shared" si="13"/>
         <v>5096</v>
       </c>
-      <c r="K22" s="90">
-        <v>40.14</v>
-      </c>
-      <c r="L22" s="101">
-        <v>56.1</v>
-      </c>
-      <c r="M22" s="89">
+      <c r="AD23" s="135">
+        <f t="shared" si="14"/>
+        <v>0.0817141819502454</v>
+      </c>
+      <c r="AE23" s="133">
+        <f t="shared" si="15"/>
+        <v>9.00000000000003</v>
+      </c>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:42">
+      <c r="A24" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="93">
+        <v>10073</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="101">
+        <v>0</v>
+      </c>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="102">
+        <v>6.02</v>
+      </c>
+      <c r="L24" s="118">
+        <v>99.57</v>
+      </c>
+      <c r="M24" s="93">
         <f t="shared" si="3"/>
-        <v>22.51854</v>
-      </c>
-      <c r="N22" s="101">
-        <v>72.8</v>
-      </c>
-      <c r="O22" s="89">
+        <v>5.994114</v>
+      </c>
+      <c r="N24" s="118">
+        <v>329.29</v>
+      </c>
+      <c r="O24" s="93">
         <f t="shared" si="4"/>
-        <v>2922.192</v>
-      </c>
-      <c r="P22" s="101">
-        <v>0.128571428571429</v>
-      </c>
-      <c r="Q22" s="89">
+        <v>1982.3258</v>
+      </c>
+      <c r="P24" s="118">
+        <v>11.6</v>
+      </c>
+      <c r="Q24" s="93">
         <f t="shared" si="5"/>
-        <v>5.16085714285716</v>
-      </c>
-      <c r="R22" s="106">
-        <v>0</v>
-      </c>
-      <c r="S22" s="101">
-        <v>56.1</v>
-      </c>
-      <c r="T22" s="89">
+        <v>69.832</v>
+      </c>
+      <c r="R24" s="101">
+        <v>0</v>
+      </c>
+      <c r="S24" s="118"/>
+      <c r="T24" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U22" s="101">
-        <v>72.8</v>
-      </c>
-      <c r="V22" s="89">
+      <c r="U24" s="118"/>
+      <c r="V24" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="101">
-        <v>0.128571428571429</v>
-      </c>
-      <c r="X22" s="89">
+      <c r="W24" s="118"/>
+      <c r="X24" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="90">
-        <f t="shared" si="9"/>
-        <v>110.14</v>
-      </c>
-      <c r="Z22" s="89">
-        <f t="shared" si="10"/>
-        <v>61.78854</v>
-      </c>
-      <c r="AA22" s="89">
-        <f t="shared" si="11"/>
-        <v>8018.192</v>
-      </c>
-      <c r="AB22" s="89">
-        <f t="shared" si="12"/>
-        <v>14.1608571428572</v>
-      </c>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-    </row>
-    <row r="23" spans="1:39">
-      <c r="A23" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="89">
-        <v>10071</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="97">
-        <v>0</v>
-      </c>
-      <c r="E23" s="101"/>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="101"/>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="101"/>
-      <c r="J23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="90">
-        <v>6.02</v>
-      </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="105">
-        <v>0</v>
-      </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="101"/>
-      <c r="V23" s="89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="101"/>
-      <c r="X23" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="90">
+      <c r="Y24" s="133">
         <f t="shared" si="9"/>
         <v>6.02</v>
       </c>
-      <c r="Z23" s="89">
+      <c r="Z24" s="135">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="89">
+        <v>99.57</v>
+      </c>
+      <c r="AA24" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="89">
+        <v>599.4114</v>
+      </c>
+      <c r="AB24" s="135">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="89">
-        <v>10073</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="95">
+        <v>329.29</v>
+      </c>
+      <c r="AC24" s="134">
+        <f t="shared" si="13"/>
+        <v>1982.3258</v>
+      </c>
+      <c r="AD24" s="135">
+        <f t="shared" si="14"/>
+        <v>11.6</v>
+      </c>
+      <c r="AE24" s="133">
+        <f t="shared" si="15"/>
+        <v>69.832</v>
+      </c>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="113"/>
+      <c r="AO24" s="113"/>
+      <c r="AP24" s="113"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:42">
+      <c r="A25" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="93">
+        <v>10075</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="101">
         <v>53.912</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E25" s="118">
         <v>99.57</v>
       </c>
-      <c r="F24">
+      <c r="F25" s="119">
         <f t="shared" si="0"/>
         <v>53.6801784</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G25" s="118">
         <v>11.6</v>
       </c>
-      <c r="H24">
+      <c r="H25" s="119">
         <f t="shared" si="1"/>
         <v>625.3792</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I25" s="118">
         <v>329.29</v>
       </c>
-      <c r="J24">
+      <c r="J25" s="119">
+        <f t="shared" si="16"/>
+        <v>17752.68248</v>
+      </c>
+      <c r="K25" s="102">
+        <v>3883.32</v>
+      </c>
+      <c r="L25" s="118">
+        <v>100</v>
+      </c>
+      <c r="M25" s="93">
+        <f t="shared" si="3"/>
+        <v>3883.32</v>
+      </c>
+      <c r="N25" s="118"/>
+      <c r="O25" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="101">
+        <v>34.147</v>
+      </c>
+      <c r="S25" s="118">
+        <v>99.51</v>
+      </c>
+      <c r="T25" s="93">
+        <f t="shared" si="6"/>
+        <v>33.9796797</v>
+      </c>
+      <c r="U25" s="118">
+        <v>367.65</v>
+      </c>
+      <c r="V25" s="93">
+        <f t="shared" si="7"/>
+        <v>12554.14455</v>
+      </c>
+      <c r="W25" s="118">
+        <v>6.65</v>
+      </c>
+      <c r="X25" s="93">
+        <f t="shared" si="8"/>
+        <v>227.07755</v>
+      </c>
+      <c r="Y25" s="133">
+        <f t="shared" si="9"/>
+        <v>3903.085</v>
+      </c>
+      <c r="Z25" s="135">
+        <f t="shared" si="10"/>
+        <v>99.9983474277398</v>
+      </c>
+      <c r="AA25" s="134">
+        <f t="shared" si="11"/>
+        <v>390302.04987</v>
+      </c>
+      <c r="AB25" s="135">
+        <f t="shared" si="12"/>
+        <v>1.33190487268404</v>
+      </c>
+      <c r="AC25" s="134">
         <f t="shared" si="13"/>
-        <v>17752.68248</v>
-      </c>
-      <c r="K24" s="90">
-        <v>3883.32</v>
-      </c>
-      <c r="L24" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="M24" s="89">
-        <f t="shared" si="3"/>
-        <v>3866.621724</v>
-      </c>
-      <c r="N24" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="O24" s="89">
-        <f t="shared" si="4"/>
-        <v>1278738.4428</v>
-      </c>
-      <c r="P24" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="Q24" s="89">
-        <f t="shared" si="5"/>
-        <v>45046.512</v>
-      </c>
-      <c r="R24" s="107">
-        <v>34.15</v>
-      </c>
-      <c r="S24" s="101">
-        <v>99.57</v>
-      </c>
-      <c r="T24" s="89">
-        <f t="shared" si="6"/>
-        <v>34.003155</v>
-      </c>
-      <c r="U24" s="101">
-        <v>329.29</v>
-      </c>
-      <c r="V24" s="89">
-        <f t="shared" si="7"/>
-        <v>11245.2535</v>
-      </c>
-      <c r="W24" s="101">
-        <v>11.6</v>
-      </c>
-      <c r="X24" s="89">
-        <f t="shared" si="8"/>
-        <v>396.14</v>
-      </c>
-      <c r="Y24" s="90">
-        <f t="shared" si="9"/>
-        <v>3903.082</v>
-      </c>
-      <c r="Z24" s="89">
-        <f t="shared" si="10"/>
-        <v>3886.2987474</v>
-      </c>
-      <c r="AA24" s="89">
-        <f t="shared" si="11"/>
-        <v>1285245.87178</v>
-      </c>
-      <c r="AB24" s="89">
-        <f t="shared" si="12"/>
-        <v>45275.7512</v>
-      </c>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="A25" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="89">
-        <v>10075</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="95">
+        <v>5198.53793</v>
+      </c>
+      <c r="AD25" s="135">
+        <f t="shared" si="14"/>
+        <v>0.10204790569511</v>
+      </c>
+      <c r="AE25" s="133">
+        <f t="shared" si="15"/>
+        <v>398.30165</v>
+      </c>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:42">
+      <c r="A26" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="93">
+        <v>10077</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="101">
         <v>6.72</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E26" s="118">
         <v>100</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="119">
         <f t="shared" si="0"/>
         <v>6.72</v>
       </c>
-      <c r="G25" s="101"/>
-      <c r="H25">
+      <c r="G26" s="118"/>
+      <c r="H26" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="90">
+      <c r="I26" s="118"/>
+      <c r="J26" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="102">
         <v>17.4</v>
       </c>
-      <c r="L25" s="101">
+      <c r="L26" s="118">
+        <v>99.74</v>
+      </c>
+      <c r="M26" s="93">
+        <f t="shared" si="3"/>
+        <v>17.35476</v>
+      </c>
+      <c r="N26" s="118">
+        <v>2.61</v>
+      </c>
+      <c r="O26" s="93">
+        <f t="shared" si="4"/>
+        <v>45.414</v>
+      </c>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="101">
+        <v>8.5</v>
+      </c>
+      <c r="S26" s="118">
         <v>100</v>
       </c>
-      <c r="M25" s="89">
-        <f t="shared" si="3"/>
-        <v>17.4</v>
-      </c>
-      <c r="N25" s="101"/>
-      <c r="O25" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="107">
-        <v>8.5</v>
-      </c>
-      <c r="S25" s="101">
-        <v>100</v>
-      </c>
-      <c r="T25" s="89">
+      <c r="T26" s="93">
         <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="U25" s="101"/>
-      <c r="V25" s="89">
+      <c r="U26" s="118"/>
+      <c r="V26" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="101"/>
-      <c r="X25" s="89">
+      <c r="W26" s="118"/>
+      <c r="X26" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="90">
+      <c r="Y26" s="133">
         <f t="shared" si="9"/>
         <v>15.62</v>
       </c>
-      <c r="Z25" s="89">
-        <f t="shared" ref="Z25:Z33" si="14">Y25*S25/100</f>
-        <v>15.62</v>
-      </c>
-      <c r="AA25" s="89">
+      <c r="Z26" s="135">
+        <f t="shared" si="10"/>
+        <v>99.710371318822</v>
+      </c>
+      <c r="AA26" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="89">
+        <v>1557.476</v>
+      </c>
+      <c r="AB26" s="135">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="A26" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="89">
-        <v>10077</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="95">
+        <v>2.90742637644046</v>
+      </c>
+      <c r="AC26" s="134">
+        <f t="shared" si="13"/>
+        <v>45.414</v>
+      </c>
+      <c r="AD26" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
+      <c r="AN26" s="113"/>
+      <c r="AO26" s="113"/>
+      <c r="AP26" s="113"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:35">
+      <c r="A27" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="93">
+        <v>10079</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="101">
         <v>5.4</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E27" s="118">
         <v>99.74</v>
       </c>
-      <c r="F26">
+      <c r="F27" s="119">
         <f t="shared" si="0"/>
         <v>5.38596</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26">
+      <c r="G27" s="118"/>
+      <c r="H27" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="101">
+      <c r="I27" s="118">
         <v>2.61</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="13"/>
+      <c r="J27" s="119">
+        <f t="shared" si="16"/>
         <v>14.094</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K27" s="102">
         <v>37.68</v>
       </c>
-      <c r="L26" s="101">
-        <v>99.74</v>
-      </c>
-      <c r="M26" s="89">
+      <c r="L27" s="118"/>
+      <c r="M27" s="93">
         <f t="shared" si="3"/>
-        <v>37.582032</v>
-      </c>
-      <c r="N26" s="101">
-        <v>2.61</v>
-      </c>
-      <c r="O26" s="89">
+        <v>0</v>
+      </c>
+      <c r="N27" s="118"/>
+      <c r="O27" s="93">
         <f t="shared" si="4"/>
-        <v>98.3448</v>
-      </c>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="89">
+        <v>0</v>
+      </c>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="107">
+      <c r="R27" s="101">
         <v>2.28</v>
       </c>
-      <c r="S26" s="101">
-        <v>99.74</v>
-      </c>
-      <c r="T26" s="89">
+      <c r="S27" s="118">
+        <v>99.93</v>
+      </c>
+      <c r="T27" s="93">
         <f t="shared" si="6"/>
-        <v>2.274072</v>
-      </c>
-      <c r="U26" s="101">
-        <v>2.61</v>
-      </c>
-      <c r="V26" s="89">
+        <v>2.278404</v>
+      </c>
+      <c r="U27" s="118">
+        <v>2.47</v>
+      </c>
+      <c r="V27" s="93">
         <f t="shared" si="7"/>
-        <v>5.9508</v>
-      </c>
-      <c r="W26" s="101"/>
-      <c r="X26" s="89">
+        <v>5.6316</v>
+      </c>
+      <c r="W27" s="118"/>
+      <c r="X27" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="90">
+      <c r="Y27" s="133">
         <f t="shared" si="9"/>
         <v>40.8</v>
       </c>
-      <c r="Z26" s="89">
+      <c r="Z27" s="135">
+        <f t="shared" si="10"/>
+        <v>7.61655882352941</v>
+      </c>
+      <c r="AA27" s="134">
+        <f t="shared" si="11"/>
+        <v>310.7556</v>
+      </c>
+      <c r="AB27" s="135">
+        <f t="shared" si="12"/>
+        <v>0.207411764705882</v>
+      </c>
+      <c r="AC27" s="134">
+        <f t="shared" si="13"/>
+        <v>8.4624</v>
+      </c>
+      <c r="AD27" s="135">
         <f t="shared" si="14"/>
-        <v>40.69392</v>
-      </c>
-      <c r="AA26" s="89">
-        <f t="shared" si="11"/>
-        <v>106.488</v>
-      </c>
-      <c r="AB26" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="89">
-        <v>10079</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="101"/>
-      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="119"/>
+      <c r="AG27" s="119"/>
+      <c r="AH27" s="119"/>
+      <c r="AI27" s="119"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:35">
+      <c r="A28" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="93">
+        <v>10081</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="102"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="101"/>
-      <c r="H27">
+      <c r="G28" s="120"/>
+      <c r="H28" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="101"/>
-      <c r="J27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="87">
+      <c r="I28" s="120"/>
+      <c r="J28" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="102">
         <v>0.66</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="89">
+      <c r="L28" s="118"/>
+      <c r="M28" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="101"/>
-      <c r="O27" s="89">
+      <c r="N28" s="118"/>
+      <c r="O28" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="89">
+      <c r="P28" s="118"/>
+      <c r="Q28" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R27" s="107">
-        <v>0</v>
-      </c>
-      <c r="S27" s="101"/>
-      <c r="T27" s="89">
+      <c r="R28" s="102"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U27" s="101"/>
-      <c r="V27" s="89">
+      <c r="U28" s="120"/>
+      <c r="V28" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="101"/>
-      <c r="X27" s="89">
+      <c r="W28" s="120"/>
+      <c r="X28" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="90">
+      <c r="Y28" s="133">
         <f t="shared" si="9"/>
         <v>0.66</v>
       </c>
-      <c r="Z27" s="89">
+      <c r="Z28" s="135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="135">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="89">
+      <c r="AE28" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="119"/>
+      <c r="AG28" s="119"/>
+      <c r="AH28" s="119"/>
+      <c r="AI28" s="119"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:35">
+      <c r="A29" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="93">
+        <v>10083</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="102"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="120"/>
+      <c r="H29" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="120"/>
+      <c r="J29" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="102">
+        <v>148.32</v>
+      </c>
+      <c r="L29" s="124">
+        <v>4.17355012607599</v>
+      </c>
+      <c r="M29" s="93">
+        <f t="shared" si="3"/>
+        <v>6.1902095469959</v>
+      </c>
+      <c r="N29" s="124">
+        <v>349.50004347448</v>
+      </c>
+      <c r="O29" s="93">
+        <f t="shared" si="4"/>
+        <v>51837.8464481348</v>
+      </c>
+      <c r="P29" s="124">
+        <v>1.68680984262238</v>
+      </c>
+      <c r="Q29" s="93">
+        <f t="shared" si="5"/>
+        <v>250.187635857751</v>
+      </c>
+      <c r="R29" s="102"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="120"/>
+      <c r="V29" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="120"/>
+      <c r="X29" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="133">
+        <f t="shared" si="9"/>
+        <v>148.32</v>
+      </c>
+      <c r="Z29" s="135">
+        <f t="shared" si="10"/>
+        <v>4.17355012607599</v>
+      </c>
+      <c r="AA29" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="89">
+        <v>619.020954699591</v>
+      </c>
+      <c r="AB29" s="135">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="89">
-        <v>10081</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="101"/>
-      <c r="F28">
+        <v>349.50004347448</v>
+      </c>
+      <c r="AC29" s="134">
+        <f t="shared" si="13"/>
+        <v>51837.8464481349</v>
+      </c>
+      <c r="AD29" s="135">
+        <f t="shared" si="14"/>
+        <v>1.68680984262238</v>
+      </c>
+      <c r="AE29" s="133">
+        <f t="shared" si="15"/>
+        <v>250.187635857751</v>
+      </c>
+      <c r="AF29" s="119"/>
+      <c r="AG29" s="119"/>
+      <c r="AH29" s="119"/>
+      <c r="AI29" s="119"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:35">
+      <c r="A30" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="93">
+        <v>10085</v>
+      </c>
+      <c r="C30" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="101">
+        <v>57.505</v>
+      </c>
+      <c r="E30" s="124">
+        <v>4.17355012607599</v>
+      </c>
+      <c r="F30" s="119">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="101"/>
-      <c r="H28">
+        <v>2.4</v>
+      </c>
+      <c r="G30" s="124">
+        <v>1.68680984262238</v>
+      </c>
+      <c r="H30" s="119">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="101"/>
-      <c r="J28">
+        <v>97</v>
+      </c>
+      <c r="I30" s="124">
+        <v>349.50004347448</v>
+      </c>
+      <c r="J30" s="119">
+        <f t="shared" si="16"/>
+        <v>20098</v>
+      </c>
+      <c r="K30" s="102">
+        <v>39.63</v>
+      </c>
+      <c r="L30" s="124"/>
+      <c r="M30" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="124"/>
+      <c r="O30" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="101">
+        <v>90.747</v>
+      </c>
+      <c r="S30" s="124">
+        <v>4.8133822605706</v>
+      </c>
+      <c r="T30" s="93">
+        <f t="shared" si="6"/>
+        <v>4.368</v>
+      </c>
+      <c r="U30" s="124">
+        <v>304.483894784401</v>
+      </c>
+      <c r="V30" s="93">
+        <f t="shared" si="7"/>
+        <v>27631</v>
+      </c>
+      <c r="W30" s="124">
+        <v>1.39949530012011</v>
+      </c>
+      <c r="X30" s="93">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="Y30" s="133">
+        <f t="shared" si="9"/>
+        <v>6.38799999999999</v>
+      </c>
+      <c r="Z30" s="135">
+        <f t="shared" si="10"/>
+        <v>-30.8077645585474</v>
+      </c>
+      <c r="AA30" s="134">
+        <f t="shared" si="11"/>
+        <v>-196.8</v>
+      </c>
+      <c r="AB30" s="135">
+        <f t="shared" si="12"/>
+        <v>-1179.24232936758</v>
+      </c>
+      <c r="AC30" s="134">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="87">
-        <v>148.32</v>
-      </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="89">
+        <v>-7533.00000000007</v>
+      </c>
+      <c r="AD30" s="135">
+        <f t="shared" si="14"/>
+        <v>-4.69630557294924</v>
+      </c>
+      <c r="AE30" s="133">
+        <f t="shared" si="15"/>
+        <v>-29.9999999999997</v>
+      </c>
+      <c r="AF30" s="119"/>
+      <c r="AG30" s="119"/>
+      <c r="AH30" s="119"/>
+      <c r="AI30" s="119"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:35">
+      <c r="A31" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="93">
+        <v>10087</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="101">
+        <v>0</v>
+      </c>
+      <c r="E31" s="124"/>
+      <c r="F31" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="124"/>
+      <c r="H31" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="124"/>
+      <c r="J31" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="102">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124">
+        <v>2.2910522556046</v>
+      </c>
+      <c r="M31" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="101"/>
-      <c r="O28" s="89">
+      <c r="N31" s="124">
+        <v>5.83986655846434</v>
+      </c>
+      <c r="O31" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="89">
+      <c r="P31" s="124">
+        <v>0.304094114429356</v>
+      </c>
+      <c r="Q31" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R28" s="107">
-        <v>148.32</v>
-      </c>
-      <c r="S28" s="101"/>
-      <c r="T28" s="89">
+      <c r="R31" s="101">
+        <v>0</v>
+      </c>
+      <c r="S31" s="124"/>
+      <c r="T31" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U28" s="101"/>
-      <c r="V28" s="89">
+      <c r="U31" s="124"/>
+      <c r="V31" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W28" s="101"/>
-      <c r="X28" s="89">
+      <c r="W31" s="124"/>
+      <c r="X31" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="90">
+      <c r="Y31" s="133">
         <f t="shared" si="9"/>
-        <v>-2.8421709430404e-13</v>
-      </c>
-      <c r="Z28" s="89">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="135" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC31" s="134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="135" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="119"/>
+      <c r="AI31" s="119"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:35">
+      <c r="A32" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="93">
+        <v>10089</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="101">
+        <v>1111.498</v>
+      </c>
+      <c r="E32" s="124">
+        <v>2.2910522556046</v>
+      </c>
+      <c r="F32" s="119">
+        <f t="shared" si="0"/>
+        <v>25.465</v>
+      </c>
+      <c r="G32" s="124">
+        <v>0.304094114429356</v>
+      </c>
+      <c r="H32" s="119">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="I32" s="124">
+        <v>5.83986655846434</v>
+      </c>
+      <c r="J32" s="119">
+        <f t="shared" si="16"/>
+        <v>6491</v>
+      </c>
+      <c r="K32" s="102">
+        <v>900.88</v>
+      </c>
+      <c r="L32" s="124">
+        <v>0.0852783861014548</v>
+      </c>
+      <c r="M32" s="93">
+        <f t="shared" si="3"/>
+        <v>0.768255924710786</v>
+      </c>
+      <c r="N32" s="124"/>
+      <c r="O32" s="93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="101">
+        <v>1409.509</v>
+      </c>
+      <c r="S32" s="124">
+        <v>1.92506752351351</v>
+      </c>
+      <c r="T32" s="93">
+        <f t="shared" si="6"/>
+        <v>27.134</v>
+      </c>
+      <c r="U32" s="124">
+        <v>5.04927602448796</v>
+      </c>
+      <c r="V32" s="93">
+        <f t="shared" si="7"/>
+        <v>7116.99999999999</v>
+      </c>
+      <c r="W32" s="124">
+        <v>0.254698622002414</v>
+      </c>
+      <c r="X32" s="93">
+        <f t="shared" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="Y32" s="133">
+        <f t="shared" si="9"/>
+        <v>602.869000000002</v>
+      </c>
+      <c r="Z32" s="135">
+        <f t="shared" si="10"/>
+        <v>-0.149409585712524</v>
+      </c>
+      <c r="AA32" s="134">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="89">
+        <v>-90.074407528924</v>
+      </c>
+      <c r="AB32" s="135">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="89">
-        <v>10083</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="95">
-        <v>71.55</v>
-      </c>
-      <c r="E29" s="102">
-        <v>4.17355012607599</v>
-      </c>
-      <c r="F29">
+        <v>-1.03836820271071</v>
+      </c>
+      <c r="AC32" s="134">
+        <f t="shared" si="13"/>
+        <v>-626.000000000003</v>
+      </c>
+      <c r="AD32" s="135">
+        <f t="shared" si="14"/>
+        <v>-0.0348334381101037</v>
+      </c>
+      <c r="AE32" s="133">
+        <f t="shared" si="15"/>
+        <v>-21.0000000000002</v>
+      </c>
+      <c r="AF32" s="119"/>
+      <c r="AG32" s="119"/>
+      <c r="AH32" s="119"/>
+      <c r="AI32" s="119"/>
+    </row>
+    <row r="33" ht="13.5" spans="1:35">
+      <c r="A33" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="93">
+        <v>10091</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="101">
+        <v>1476.72562222222</v>
+      </c>
+      <c r="E33" s="124">
+        <v>0.0852783861014548</v>
+      </c>
+      <c r="F33" s="119">
         <f t="shared" si="0"/>
-        <v>2.98617511520737</v>
-      </c>
-      <c r="G29" s="102">
-        <v>1.68680984262238</v>
-      </c>
-      <c r="H29">
+        <v>1.25932777777778</v>
+      </c>
+      <c r="G33" s="124"/>
+      <c r="H33" s="119">
         <f t="shared" si="1"/>
-        <v>120.691244239631</v>
-      </c>
-      <c r="I29" s="102">
-        <v>349.50004347448</v>
-      </c>
-      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="124"/>
+      <c r="J33" s="119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="102">
+        <v>1331.05</v>
+      </c>
+      <c r="L33" s="124">
+        <v>0.129344121451298</v>
+      </c>
+      <c r="M33" s="93">
+        <f t="shared" si="3"/>
+        <v>1.7216349285775</v>
+      </c>
+      <c r="N33" s="124">
+        <v>1.3500882750026</v>
+      </c>
+      <c r="O33" s="93">
+        <f t="shared" si="4"/>
+        <v>1797.03499844221</v>
+      </c>
+      <c r="P33" s="124">
+        <v>0.160500004720588</v>
+      </c>
+      <c r="Q33" s="93">
+        <f t="shared" si="5"/>
+        <v>213.633531283339</v>
+      </c>
+      <c r="R33" s="101">
+        <v>1280.57400399849</v>
+      </c>
+      <c r="S33" s="124">
+        <v>0.0847237310009935</v>
+      </c>
+      <c r="T33" s="93">
+        <f t="shared" si="6"/>
+        <v>1.08495007441633</v>
+      </c>
+      <c r="U33" s="124"/>
+      <c r="V33" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="124"/>
+      <c r="X33" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="133">
+        <f t="shared" si="9"/>
+        <v>1527.20161822373</v>
+      </c>
+      <c r="Z33" s="135">
+        <f t="shared" si="10"/>
+        <v>0.124149464570642</v>
+      </c>
+      <c r="AA33" s="134">
+        <f t="shared" si="11"/>
+        <v>189.601263193895</v>
+      </c>
+      <c r="AB33" s="135">
+        <f t="shared" si="12"/>
+        <v>1.17668484435756</v>
+      </c>
+      <c r="AC33" s="134">
         <f t="shared" si="13"/>
-        <v>25006.728110599</v>
-      </c>
-      <c r="K29" s="87">
-        <v>39.63</v>
-      </c>
-      <c r="L29" s="102">
-        <v>4.17355012607599</v>
-      </c>
-      <c r="M29" s="89">
-        <f t="shared" si="3"/>
-        <v>1.65397791496392</v>
-      </c>
-      <c r="N29" s="102">
-        <v>349.50004347448</v>
-      </c>
-      <c r="O29" s="89">
-        <f t="shared" si="4"/>
-        <v>13850.6867228936</v>
-      </c>
-      <c r="P29" s="102">
-        <v>1.68680984262238</v>
-      </c>
-      <c r="Q29" s="89">
-        <f t="shared" si="5"/>
-        <v>66.8482740631249</v>
-      </c>
-      <c r="R29" s="105">
-        <v>111.18</v>
-      </c>
-      <c r="S29" s="102">
-        <v>4.17355012607599</v>
-      </c>
-      <c r="T29" s="89">
-        <f t="shared" si="6"/>
-        <v>4.64015303017129</v>
-      </c>
-      <c r="U29" s="102">
-        <v>349.50004347448</v>
-      </c>
-      <c r="V29" s="89">
-        <f t="shared" si="7"/>
-        <v>38857.4148334927</v>
-      </c>
-      <c r="W29" s="102">
-        <v>1.68680984262238</v>
-      </c>
-      <c r="X29" s="89">
-        <f t="shared" si="8"/>
-        <v>187.539518302756</v>
-      </c>
-      <c r="Y29" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="89">
+        <v>1797.03499844221</v>
+      </c>
+      <c r="AD33" s="135">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="89">
-        <v>10085</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="95">
-        <v>0</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="102"/>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="102"/>
-      <c r="J30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="87">
-        <v>0</v>
-      </c>
-      <c r="L30" s="102"/>
-      <c r="M30" s="89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="102"/>
-      <c r="O30" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="105">
-        <v>0</v>
-      </c>
-      <c r="S30" s="102"/>
-      <c r="T30" s="89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="102"/>
-      <c r="V30" s="89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="102"/>
-      <c r="X30" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="89">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="89">
-        <v>10087</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="95">
-        <v>3202.12</v>
-      </c>
-      <c r="E31" s="102">
-        <v>2.2910522556046</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>73.362242487166</v>
-      </c>
-      <c r="G31" s="102">
-        <v>0.304094114429356</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>973.74584569653</v>
-      </c>
-      <c r="I31" s="102">
-        <v>5.83986655846434</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="13"/>
-        <v>18699.9535041898</v>
-      </c>
-      <c r="K31" s="87">
-        <v>900.88</v>
-      </c>
-      <c r="L31" s="102">
-        <v>2.2910522556046</v>
-      </c>
-      <c r="M31" s="89">
-        <f t="shared" si="3"/>
-        <v>20.6396315602907</v>
-      </c>
-      <c r="N31" s="102">
-        <v>5.83986655846434</v>
-      </c>
-      <c r="O31" s="89">
-        <f t="shared" si="4"/>
-        <v>5261.01898518935</v>
-      </c>
-      <c r="P31" s="102">
-        <v>0.304094114429356</v>
-      </c>
-      <c r="Q31" s="89">
-        <f t="shared" si="5"/>
-        <v>273.952305807118</v>
-      </c>
-      <c r="R31" s="105">
-        <v>4103</v>
-      </c>
-      <c r="S31" s="102">
-        <v>2.2910522556046</v>
-      </c>
-      <c r="T31" s="89">
-        <f t="shared" si="6"/>
-        <v>94.0018740474567</v>
-      </c>
-      <c r="U31" s="102">
-        <v>5.83986655846434</v>
-      </c>
-      <c r="V31" s="89">
-        <f t="shared" si="7"/>
-        <v>23960.9724893792</v>
-      </c>
-      <c r="W31" s="102">
-        <v>0.304094114429356</v>
-      </c>
-      <c r="X31" s="89">
-        <f t="shared" si="8"/>
-        <v>1247.69815150365</v>
-      </c>
-      <c r="Y31" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="89">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="89">
-        <v>10089</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="95">
-        <v>3148.62</v>
-      </c>
-      <c r="E32" s="102">
-        <v>0.0852783861014548</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>2.68509232046763</v>
-      </c>
-      <c r="G32" s="102"/>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="102"/>
-      <c r="J32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="87">
-        <v>1331.05</v>
-      </c>
-      <c r="L32" s="102">
-        <v>0.0852783861014548</v>
-      </c>
-      <c r="M32" s="89">
-        <f t="shared" si="3"/>
-        <v>1.13509795820341</v>
-      </c>
-      <c r="N32" s="102"/>
-      <c r="O32" s="89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="105">
-        <v>2676.23</v>
-      </c>
-      <c r="S32" s="102">
-        <v>0.0852783861014548</v>
-      </c>
-      <c r="T32" s="89">
-        <f t="shared" si="6"/>
-        <v>2.28224575236296</v>
-      </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="102"/>
-      <c r="X32" s="89">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="90">
-        <f t="shared" si="9"/>
-        <v>1803.44</v>
-      </c>
-      <c r="Z32" s="89">
-        <f t="shared" si="14"/>
-        <v>1.53794452630808</v>
-      </c>
-      <c r="AA32" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="89">
-        <v>10091</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="95">
-        <v>294.48</v>
-      </c>
-      <c r="E33" s="102">
+        <v>0.139885610867682</v>
+      </c>
+      <c r="AE33" s="133">
+        <f t="shared" si="15"/>
+        <v>213.633531283339</v>
+      </c>
+      <c r="AF33" s="119"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="119"/>
+      <c r="AI33" s="119"/>
+    </row>
+    <row r="34" ht="13.5" spans="1:35">
+      <c r="A34" s="93"/>
+      <c r="B34" s="93">
+        <v>10093</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="101">
+        <v>105.919</v>
+      </c>
+      <c r="E34" s="124">
         <v>0.129344121451298</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0.380892568849782</v>
-      </c>
-      <c r="G33" s="102">
+      <c r="F34" s="119"/>
+      <c r="G34" s="124">
         <v>0.160500004720588</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>47.2640413901188</v>
-      </c>
-      <c r="I33" s="102">
+      <c r="H34" s="119"/>
+      <c r="I34" s="124">
         <v>1.3500882750026</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="13"/>
-        <v>397.573995222766</v>
-      </c>
-      <c r="K33" s="87">
+      <c r="J34" s="119"/>
+      <c r="K34" s="102">
         <v>58.06</v>
       </c>
-      <c r="L33" s="102">
-        <v>0.129344121451298</v>
-      </c>
-      <c r="M33" s="89">
-        <f t="shared" si="3"/>
-        <v>0.0750971969146236</v>
-      </c>
-      <c r="N33" s="102">
-        <v>1.3500882750026</v>
-      </c>
-      <c r="O33" s="89">
-        <f t="shared" si="4"/>
-        <v>78.386125246651</v>
-      </c>
-      <c r="P33" s="102">
-        <v>0.160500004720588</v>
-      </c>
-      <c r="Q33" s="89">
-        <f t="shared" si="5"/>
-        <v>9.31863027407734</v>
-      </c>
-      <c r="R33" s="105">
-        <v>352.54</v>
-      </c>
-      <c r="S33" s="102">
-        <v>0.129344121451298</v>
-      </c>
-      <c r="T33" s="89">
-        <f t="shared" si="6"/>
-        <v>0.455989765764406</v>
-      </c>
-      <c r="U33" s="102">
-        <v>1.3500882750026</v>
-      </c>
-      <c r="V33" s="89">
-        <f t="shared" si="7"/>
-        <v>475.960120469417</v>
-      </c>
-      <c r="W33" s="102">
-        <v>0.160500004720588</v>
-      </c>
-      <c r="X33" s="89">
-        <f t="shared" si="8"/>
-        <v>56.5826716641961</v>
-      </c>
-      <c r="Y33" s="90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="89">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="89"/>
-      <c r="C34" s="96"/>
-      <c r="R34" s="95"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="101">
+        <v>130.624</v>
+      </c>
+      <c r="S34" s="124">
+        <v>0.133206761391475</v>
+      </c>
+      <c r="T34" s="119"/>
+      <c r="U34" s="124">
+        <v>1.09474522292994</v>
+      </c>
+      <c r="V34" s="119"/>
+      <c r="W34" s="124">
+        <v>0.130144536991671</v>
+      </c>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="119"/>
+      <c r="AG34" s="119"/>
+      <c r="AH34" s="119"/>
+      <c r="AI34" s="119"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="89"/>
-      <c r="C35" s="96"/>
-      <c r="R35" s="95"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="R35" s="130"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="89"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="19"/>
-      <c r="R36" s="95"/>
+      <c r="R36" s="130"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="89"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="19"/>
-      <c r="R37" s="97"/>
+      <c r="R37" s="131"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="89"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="19"/>
-      <c r="R38" s="97"/>
+      <c r="R38" s="131"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="89"/>
-      <c r="C39" s="96"/>
-      <c r="R39" s="97"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="R39" s="131"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="89"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="19"/>
-      <c r="R40" s="97"/>
+      <c r="R40" s="131"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="89"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="19"/>
-      <c r="R41" s="95"/>
+      <c r="R41" s="130"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="89"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="19"/>
-      <c r="R42" s="97"/>
+      <c r="R42" s="131"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="89"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="19"/>
-      <c r="R43" s="97"/>
+      <c r="R43" s="131"/>
     </row>
     <row r="44" spans="2:18">
-      <c r="B44" s="89"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="19"/>
-      <c r="R44" s="97"/>
+      <c r="R44" s="131"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="89"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="19"/>
-      <c r="R45" s="108"/>
+      <c r="R45" s="132"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="89"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="19"/>
-      <c r="R46" s="95"/>
+      <c r="R46" s="130"/>
     </row>
     <row r="47" spans="2:18">
-      <c r="B47" s="89"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="19"/>
-      <c r="R47" s="95"/>
+      <c r="R47" s="130"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="89"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="19"/>
-      <c r="R48" s="97"/>
+      <c r="R48" s="131"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="89"/>
-      <c r="C49" s="96"/>
-      <c r="R49" s="97"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
+      <c r="R49" s="131"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="89"/>
-      <c r="C50" s="96"/>
-      <c r="R50" s="97"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
+      <c r="R50" s="131"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="89"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="19"/>
-      <c r="R51" s="95"/>
+      <c r="R51" s="130"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="89"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="19"/>
-      <c r="R52" s="95"/>
+      <c r="R52" s="130"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="89"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="19"/>
-      <c r="R53" s="95"/>
+      <c r="R53" s="130"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="89"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="19"/>
-      <c r="R54" s="95"/>
+      <c r="R54" s="130"/>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="89"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="19"/>
-      <c r="R55" s="95"/>
+      <c r="R55" s="130"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="89"/>
-      <c r="C56" s="96"/>
-      <c r="R56" s="97"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="114"/>
+      <c r="R56" s="131"/>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="89"/>
-      <c r="C57" s="96"/>
-      <c r="R57" s="97"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="R57" s="131"/>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="89"/>
-      <c r="C58" s="96"/>
-      <c r="R58" s="97"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="R58" s="131"/>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="89"/>
-      <c r="C59" s="100"/>
-      <c r="R59" s="97"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="115"/>
+      <c r="R59" s="131"/>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="89"/>
-      <c r="C60" s="100"/>
-      <c r="R60" s="97"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="115"/>
+      <c r="R60" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5601,7 +6219,7 @@
   <sheetPr/>
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5612,7 +6230,7 @@
   <sheetData>
     <row r="1" ht="25" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5642,10 +6260,10 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5654,7 +6272,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -5663,7 +6281,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="8"/>
       <c r="P2" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -5672,7 +6290,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="8"/>
       <c r="W2" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -5681,136 +6299,136 @@
     <row r="3" spans="1:26">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T3" s="51"/>
       <c r="U3" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V3" s="51"/>
       <c r="W3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="6"/>
       <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W4" s="9"/>
       <c r="X4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5840,7 +6458,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -5870,7 +6488,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -5900,7 +6518,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -5930,7 +6548,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -5960,7 +6578,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -6032,7 +6650,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -6062,7 +6680,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -6092,7 +6710,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
@@ -6122,7 +6740,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
@@ -6152,7 +6770,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -6182,7 +6800,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -6212,7 +6830,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
@@ -6242,7 +6860,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
@@ -6272,7 +6890,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
@@ -6302,7 +6920,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
@@ -6332,7 +6950,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
@@ -6362,7 +6980,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
@@ -6392,7 +7010,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
@@ -6422,7 +7040,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
@@ -6452,7 +7070,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
@@ -6482,7 +7100,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="19" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
@@ -6542,7 +7160,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
@@ -6662,7 +7280,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -6692,7 +7310,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
@@ -6752,7 +7370,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="24" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -6782,7 +7400,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -6812,7 +7430,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
@@ -6842,7 +7460,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -6872,7 +7490,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
@@ -6902,7 +7520,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
@@ -6932,7 +7550,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="24" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -6962,7 +7580,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
@@ -6992,7 +7610,7 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -7055,7 +7673,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -7065,7 +7683,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="53"/>
       <c r="I44" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -7081,7 +7699,7 @@
       <c r="U44" s="82"/>
       <c r="V44" s="82"/>
       <c r="W44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
@@ -7089,7 +7707,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
@@ -7119,7 +7737,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -7185,7 +7803,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -7195,7 +7813,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -7211,7 +7829,7 @@
       <c r="U47" s="34"/>
       <c r="V47" s="34"/>
       <c r="W47" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
@@ -7219,7 +7837,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="31"/>
@@ -7249,7 +7867,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="31"/>
@@ -7279,7 +7897,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
@@ -7351,7 +7969,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="31"/>
@@ -7375,7 +7993,7 @@
       <c r="U51" s="65"/>
       <c r="V51" s="65"/>
       <c r="W51" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -7383,7 +8001,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7413,7 +8031,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7443,7 +8061,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
@@ -7482,7 +8100,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="31"/>
@@ -7492,7 +8110,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="43"/>
       <c r="I55" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -7508,7 +8126,7 @@
       <c r="U55" s="65"/>
       <c r="V55" s="65"/>
       <c r="W55" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -7516,7 +8134,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="42"/>
       <c r="C56" s="31"/>
@@ -7548,7 +8166,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="42"/>
       <c r="C57" s="31"/>
@@ -7580,7 +8198,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="19" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B58" s="42"/>
       <c r="C58" s="31"/>
@@ -7612,7 +8230,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="45"/>
       <c r="C59" s="46"/>
@@ -7678,14 +8296,14 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B60" s="47"/>
       <c r="C60" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" s="56"/>
       <c r="F60" s="57">
@@ -7700,11 +8318,11 @@
       </c>
       <c r="J60" s="72"/>
       <c r="K60" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L60" s="47"/>
       <c r="M60" s="79" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N60" s="80"/>
       <c r="O60" s="79">
@@ -7718,11 +8336,11 @@
       </c>
       <c r="R60" s="66"/>
       <c r="S60" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T60" s="47"/>
       <c r="U60" s="79" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V60" s="80"/>
       <c r="W60" s="79">
@@ -7740,10 +8358,10 @@
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E61" s="56"/>
       <c r="F61" s="57">
@@ -7757,7 +8375,7 @@
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
       <c r="M61" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N61" s="80"/>
       <c r="O61" s="79">
@@ -7770,7 +8388,7 @@
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
       <c r="U61" s="79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="V61" s="80"/>
       <c r="W61" s="79">
@@ -7783,10 +8401,10 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
@@ -7815,7 +8433,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>

--- a/2_metal_balance/data/2-4假数据.xlsx
+++ b/2_metal_balance/data/2-4假数据.xlsx
@@ -167,12 +167,12 @@
     <t>外购冰铜</t>
   </si>
   <si>
+    <t>粗铜（南丹）</t>
+  </si>
+  <si>
     <t>铜渣（南丹）</t>
   </si>
   <si>
-    <t>粗铜（南丹）</t>
-  </si>
-  <si>
     <t>窑渣（南丹）</t>
   </si>
   <si>
@@ -242,22 +242,22 @@
     <t>旋流电积铜</t>
   </si>
   <si>
+    <t>铅滤饼</t>
+  </si>
+  <si>
+    <t>硫化铜渣</t>
+  </si>
+  <si>
+    <t>砷滤饼</t>
+  </si>
+  <si>
+    <t>中和渣</t>
+  </si>
+  <si>
+    <t>污泥渣（应急水处理站）</t>
+  </si>
+  <si>
     <t>废阴极铜</t>
-  </si>
-  <si>
-    <t>铅滤饼</t>
-  </si>
-  <si>
-    <t>硫化铜渣</t>
-  </si>
-  <si>
-    <t>砷滤饼</t>
-  </si>
-  <si>
-    <t>中和渣</t>
-  </si>
-  <si>
-    <t>污泥渣（应急水处理站）</t>
   </si>
   <si>
     <t xml:space="preserve">                                        2020年4月份回收率报表（全厂）                                      </t>
@@ -445,17 +445,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -532,11 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,14 +545,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,17 +571,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,10 +593,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,34 +637,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,27 +661,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -692,34 +696,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -757,7 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +787,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,37 +841,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,13 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,61 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,18 +913,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1085,47 +1085,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1139,7 +1098,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,17 +1118,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,6 +1142,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,123 +1182,103 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,68 +1287,68 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,226 +1385,226 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,143 +1628,137 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2163,14 +2116,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z8" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -2198,13 +2151,13 @@
     <col min="23" max="23" width="26.3636363636364" customWidth="1"/>
     <col min="24" max="24" width="18.5454545454545" customWidth="1"/>
     <col min="25" max="25" width="16.2727272727273" style="92" customWidth="1"/>
-    <col min="26" max="26" width="11.9727272727273" style="92" customWidth="1"/>
+    <col min="26" max="26" width="24.7" style="92" customWidth="1"/>
     <col min="27" max="27" width="15.1818181818182" style="92" customWidth="1"/>
-    <col min="28" max="28" width="13.4727272727273" style="92" customWidth="1"/>
+    <col min="28" max="28" width="20.8545454545455" style="92" customWidth="1"/>
     <col min="29" max="29" width="15.1818181818182" style="92" customWidth="1"/>
-    <col min="30" max="30" width="10.8" style="92" customWidth="1"/>
+    <col min="30" max="30" width="20.4272727272727" style="92" customWidth="1"/>
     <col min="31" max="31" width="15.1818181818182" style="92" customWidth="1"/>
-    <col min="32" max="32" width="12.8181818181818"/>
+    <col min="32" max="32" width="14"/>
     <col min="33" max="34" width="11.8181818181818" customWidth="1"/>
     <col min="35" max="35" width="45.0272727272727" customWidth="1"/>
   </cols>
@@ -2240,7 +2193,7 @@
       <c r="J1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="114" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="93" t="s">
@@ -2264,19 +2217,19 @@
       <c r="R1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="121" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="129" t="s">
+      <c r="U1" s="121" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="129" t="s">
+      <c r="W1" s="121" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="93" t="s">
@@ -2303,3613 +2256,3229 @@
       <c r="AE1" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="119" t="s">
+      <c r="AF1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="119" t="s">
+      <c r="AG1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="119" t="s">
+      <c r="AH1" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="138" t="s">
+      <c r="AI1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-    </row>
-    <row r="2" s="87" customFormat="1" ht="14.25" spans="1:42">
-      <c r="A2" s="96" t="s">
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+    </row>
+    <row r="2" s="87" customFormat="1" ht="13.5" spans="1:42">
+      <c r="A2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="93">
         <v>10001</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="99">
+      <c r="D2" s="97">
         <v>35937.151</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="109">
         <v>22.6041151676158</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="110">
         <f>D2*E2/100</f>
         <v>8123.27499999999</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="109">
         <v>2.19185432924274</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="110">
         <f>D2*G2</f>
         <v>78769.0000000001</v>
       </c>
-      <c r="I2" s="116">
+      <c r="I2" s="109">
         <v>140.355867386371</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="110">
         <f>D2*I2</f>
         <v>5043989.99999999</v>
       </c>
-      <c r="K2" s="127">
+      <c r="K2" s="115">
         <v>98261.76</v>
       </c>
       <c r="L2" s="116">
-        <v>22.6041151676158</v>
-      </c>
-      <c r="M2" s="97">
+        <v>24.2726203608014</v>
+      </c>
+      <c r="M2" s="93">
         <f>K2*L2/100</f>
-        <v>22211.2013961262</v>
+        <v>23850.7039646418</v>
       </c>
       <c r="N2" s="116">
-        <v>140.355867386371</v>
-      </c>
-      <c r="O2" s="97">
+        <v>92.9671083191764</v>
+      </c>
+      <c r="O2" s="93">
         <f>K2*N2</f>
-        <v>13791614.5557114</v>
+        <v>9135111.68555292</v>
       </c>
       <c r="P2" s="116">
-        <v>2.19185432924274</v>
-      </c>
-      <c r="Q2" s="97">
+        <v>1.25527756354161</v>
+      </c>
+      <c r="Q2" s="93">
         <f>K2*P2</f>
-        <v>215375.464055011</v>
-      </c>
-      <c r="R2" s="99">
+        <v>123345.78268211</v>
+      </c>
+      <c r="R2" s="122">
         <v>32284.196</v>
       </c>
-      <c r="S2" s="116">
+      <c r="S2" s="123">
         <v>22.5243831378053</v>
       </c>
-      <c r="T2" s="97">
+      <c r="T2" s="93">
         <f>R2*S2/100</f>
         <v>7271.81600000001</v>
       </c>
-      <c r="U2" s="116">
+      <c r="U2" s="123">
         <v>139.629960120425</v>
       </c>
-      <c r="V2" s="97">
-        <f>R2*U2</f>
+      <c r="V2" s="93">
+        <f t="shared" ref="V2:V10" si="0">R2*U2</f>
         <v>4507840.99999999</v>
       </c>
-      <c r="W2" s="116">
+      <c r="W2" s="123">
         <v>1.28195851617305</v>
       </c>
-      <c r="X2" s="97">
+      <c r="X2" s="93">
         <f>R2*W2</f>
         <v>41386.9999999999</v>
       </c>
-      <c r="Y2" s="134">
+      <c r="Y2" s="133">
         <f>D2+K2-R2</f>
         <v>101914.715</v>
       </c>
-      <c r="Z2" s="135">
-        <f>(AA2/Y2)</f>
-        <v>22.6293724082201</v>
-      </c>
-      <c r="AA2" s="134">
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="133">
         <f>(D2*E2+K2*L2-R2*S2)</f>
-        <v>2306266.03961262</v>
-      </c>
-      <c r="AB2" s="135">
-        <f>(AC2/Y2)</f>
-        <v>140.585817815527</v>
-      </c>
-      <c r="AC2" s="134">
-        <f>(D2*I2+K2*N2-R2*U2)</f>
-        <v>14327763.5557114</v>
-      </c>
-      <c r="AD2" s="135">
-        <f>(AE2/Y2)</f>
-        <v>2.48008802315751</v>
-      </c>
-      <c r="AE2" s="134">
+        <v>2470216.29646418</v>
+      </c>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="133">
+        <f t="shared" ref="AC2:AC13" si="1">(D2*I2+K2*N2-R2*U2)</f>
+        <v>9671260.68555292</v>
+      </c>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="133">
         <f>(D2*G2+K2*P2-R2*W2)</f>
-        <v>252757.464055011</v>
-      </c>
-      <c r="AF2" s="97">
-        <f>D18/((SUM(AA2:AA7)+SUM(F8:F33)-SUM(T8:T33)-(AA10+AA28)))*100</f>
-        <v>0.028931086788265</v>
-      </c>
-      <c r="AG2" s="97">
+        <v>160727.782682111</v>
+      </c>
+      <c r="AF2" s="93">
+        <f>(AA18+AA17)/((SUM(AA2:AA7)+SUM(F8:F33)-SUM(T8:T33)-(AA10+AA28)))*100</f>
+        <v>-0.945090036499276</v>
+      </c>
+      <c r="AG2" s="93">
         <v>95</v>
       </c>
-      <c r="AH2" s="97">
+      <c r="AH2" s="93">
         <v>90</v>
       </c>
-      <c r="AI2" s="97">
-        <f>D18/((SUM(AA2:AA7)+SUM(F8:F33)-SUM(T8:T33)-(AA10+AA28)))*100</f>
-        <v>0.028931086788265</v>
-      </c>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:42">
-      <c r="A3" s="96" t="s">
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="137"/>
+    </row>
+    <row r="3" ht="13.5" spans="1:42">
+      <c r="A3" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="93">
         <v>10002</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="97">
         <v>187.616</v>
       </c>
-      <c r="E3" s="118">
+      <c r="E3" s="109">
         <v>60.3967678662801</v>
       </c>
-      <c r="F3" s="119">
-        <f t="shared" ref="F3:F33" si="0">D3*E3/100</f>
+      <c r="F3" s="110">
+        <f t="shared" ref="F3:F33" si="2">D3*E3/100</f>
         <v>113.314</v>
       </c>
-      <c r="G3" s="118">
+      <c r="G3" s="109">
         <v>0.4583830803343</v>
       </c>
-      <c r="H3" s="119">
-        <f t="shared" ref="H3:H33" si="1">D3*G3</f>
+      <c r="H3" s="110">
+        <f t="shared" ref="H3:H33" si="3">D3*G3</f>
         <v>86</v>
       </c>
-      <c r="I3" s="118">
+      <c r="I3" s="109">
         <v>140.734265734266</v>
       </c>
-      <c r="J3" s="119">
-        <f t="shared" ref="J3:J8" si="2">D3*I3</f>
+      <c r="J3" s="110">
+        <f t="shared" ref="J3:J8" si="4">D3*I3</f>
         <v>26404.0000000001</v>
       </c>
-      <c r="K3" s="102">
-        <v>0</v>
-      </c>
-      <c r="L3" s="118">
+      <c r="K3" s="115">
+        <v>0</v>
+      </c>
+      <c r="L3" s="117"/>
+      <c r="M3" s="93">
+        <f t="shared" ref="M3:M33" si="5">K3*L3/100</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="117"/>
+      <c r="O3" s="93">
+        <f t="shared" ref="O3:O33" si="6">K3*N3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="93">
+        <f t="shared" ref="Q3:Q33" si="7">K3*P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="122">
+        <v>187.616</v>
+      </c>
+      <c r="S3" s="123">
         <v>60.3967678662801</v>
       </c>
-      <c r="M3" s="93">
-        <f t="shared" ref="M3:M33" si="3">K3*L3/100</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="118">
+      <c r="T3" s="93">
+        <f t="shared" ref="T3:T33" si="8">R3*S3/100</f>
+        <v>113.314</v>
+      </c>
+      <c r="U3" s="123">
         <v>140.734265734266</v>
       </c>
-      <c r="O3" s="93">
-        <f t="shared" ref="O3:O33" si="4">K3*N3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="118">
+      <c r="V3" s="93">
+        <f t="shared" si="0"/>
+        <v>26404.0000000001</v>
+      </c>
+      <c r="W3" s="123">
         <v>0.4583830803343</v>
       </c>
-      <c r="Q3" s="93">
-        <f t="shared" ref="Q3:Q33" si="5">K3*P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="101">
-        <v>187.616</v>
-      </c>
-      <c r="S3" s="118">
-        <v>60.3967678662801</v>
-      </c>
-      <c r="T3" s="93">
-        <f t="shared" ref="T3:T33" si="6">R3*S3/100</f>
-        <v>113.314</v>
-      </c>
-      <c r="U3" s="118">
-        <v>140.734265734266</v>
-      </c>
-      <c r="V3" s="93">
-        <f t="shared" ref="V3:V33" si="7">R3*U3</f>
-        <v>26404.0000000001</v>
-      </c>
-      <c r="W3" s="118">
-        <v>0.4583830803343</v>
-      </c>
       <c r="X3" s="93">
-        <f t="shared" ref="X3:X33" si="8">R3*W3</f>
+        <f t="shared" ref="X3:X33" si="9">R3*W3</f>
         <v>86</v>
       </c>
       <c r="Y3" s="133">
-        <f t="shared" ref="Y3:Y33" si="9">D3+K3-R3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="135" t="e">
-        <f t="shared" ref="Z3:Z33" si="10">(AA3/Y3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA3" s="134">
+        <f t="shared" ref="Y3:Y33" si="10">D3+K3-R3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="133">
         <f t="shared" ref="AA3:AA33" si="11">(D3*E3+K3*L3-R3*S3)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="135" t="e">
-        <f t="shared" ref="AB3:AB33" si="12">(AC3/Y3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC3" s="134">
-        <f t="shared" ref="AC3:AC33" si="13">(D3*I3+K3*N3-R3*U3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="135" t="e">
-        <f t="shared" ref="AD3:AD33" si="14">(AE3/Y3)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="134"/>
       <c r="AE3" s="133">
-        <f t="shared" ref="AE3:AE33" si="15">(D3*G3+K3*P3-R3*W3)</f>
+        <f t="shared" ref="AE3:AE33" si="12">(D3*G3+K3*P3-R3*W3)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="93"/>
       <c r="AG3" s="93"/>
       <c r="AH3" s="93"/>
       <c r="AI3" s="93"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:42">
-      <c r="A4" s="96" t="s">
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:42">
+      <c r="A4" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="93">
         <v>10035</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="119">
+      <c r="D4" s="97">
+        <v>4.04</v>
+      </c>
+      <c r="E4" s="109">
+        <v>78.960396039604</v>
+      </c>
+      <c r="F4" s="110">
+        <f t="shared" si="2"/>
+        <v>3.19</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="109">
+        <v>6948.0198019802</v>
+      </c>
+      <c r="J4" s="110">
+        <f t="shared" si="4"/>
+        <v>28070</v>
+      </c>
+      <c r="K4" s="115">
+        <v>0</v>
+      </c>
+      <c r="L4" s="117"/>
+      <c r="M4" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="117"/>
+      <c r="O4" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="124"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="125"/>
+      <c r="V4" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="120"/>
-      <c r="H4" s="119">
+      <c r="W4" s="125"/>
+      <c r="X4" s="93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="133">
+        <f t="shared" si="10"/>
+        <v>4.04</v>
+      </c>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="133">
+        <f t="shared" si="11"/>
+        <v>319</v>
+      </c>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="119">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="102">
-        <v>0</v>
-      </c>
-      <c r="L4" s="118">
-        <v>78.960396039604</v>
-      </c>
-      <c r="M4" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="118">
-        <v>6948.0198019802</v>
-      </c>
-      <c r="O4" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="101">
-        <v>93.15</v>
-      </c>
-      <c r="S4" s="118">
-        <v>64.5260332796565</v>
-      </c>
-      <c r="T4" s="93">
-        <f t="shared" si="6"/>
-        <v>60.1060000000001</v>
-      </c>
-      <c r="U4" s="118">
-        <v>581.29898013956</v>
-      </c>
-      <c r="V4" s="93">
-        <f t="shared" si="7"/>
-        <v>54148</v>
-      </c>
-      <c r="W4" s="118">
-        <v>0.128824476650564</v>
-      </c>
-      <c r="X4" s="93">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="Y4" s="133">
-        <f t="shared" si="9"/>
-        <v>-93.15</v>
-      </c>
-      <c r="Z4" s="135">
-        <f t="shared" si="10"/>
-        <v>64.5260332796565</v>
-      </c>
-      <c r="AA4" s="134">
-        <f t="shared" si="11"/>
-        <v>-6010.6</v>
-      </c>
-      <c r="AB4" s="135">
+        <v>28070</v>
+      </c>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="133">
         <f t="shared" si="12"/>
-        <v>581.29898013956</v>
-      </c>
-      <c r="AC4" s="134">
-        <f t="shared" si="13"/>
-        <v>-54148</v>
-      </c>
-      <c r="AD4" s="135">
-        <f t="shared" si="14"/>
-        <v>0.128824476650564</v>
-      </c>
-      <c r="AE4" s="133">
-        <f t="shared" si="15"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="93"/>
       <c r="AG4" s="93"/>
       <c r="AH4" s="93"/>
       <c r="AI4" s="93"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="113"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:42">
-      <c r="A5" s="96" t="s">
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:42">
+      <c r="A5" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="93">
         <v>10036</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="101">
-        <v>4.04</v>
-      </c>
-      <c r="E5" s="118">
-        <v>78.960396039604</v>
-      </c>
-      <c r="F5" s="119">
+      <c r="D5" s="99"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="112"/>
+      <c r="J5" s="110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="115">
+        <v>125.66</v>
+      </c>
+      <c r="L5" s="116">
+        <v>64.5260332796565</v>
+      </c>
+      <c r="M5" s="93">
+        <f t="shared" si="5"/>
+        <v>81.0834134192164</v>
+      </c>
+      <c r="N5" s="116">
+        <v>581.29898013956</v>
+      </c>
+      <c r="O5" s="93">
+        <f t="shared" si="6"/>
+        <v>73046.0298443371</v>
+      </c>
+      <c r="P5" s="116">
+        <v>0.128824476650564</v>
+      </c>
+      <c r="Q5" s="93">
+        <f t="shared" si="7"/>
+        <v>16.1880837359099</v>
+      </c>
+      <c r="R5" s="122">
+        <v>93.15</v>
+      </c>
+      <c r="S5" s="123">
+        <v>64.5260332796565</v>
+      </c>
+      <c r="T5" s="93">
+        <f t="shared" si="8"/>
+        <v>60.106</v>
+      </c>
+      <c r="U5" s="123">
+        <v>581.29898013956</v>
+      </c>
+      <c r="V5" s="93">
         <f t="shared" si="0"/>
-        <v>3.19</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119">
+        <v>54148</v>
+      </c>
+      <c r="W5" s="123">
+        <v>0.128824476650564</v>
+      </c>
+      <c r="X5" s="93">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Y5" s="133">
+        <f t="shared" si="10"/>
+        <v>32.51</v>
+      </c>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="133">
+        <f t="shared" si="11"/>
+        <v>2097.74134192163</v>
+      </c>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="133">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="118">
-        <v>6948.0198019802</v>
-      </c>
-      <c r="J5" s="119">
-        <f t="shared" si="2"/>
-        <v>28070</v>
-      </c>
-      <c r="K5" s="102">
-        <v>125.66</v>
-      </c>
-      <c r="L5" s="118"/>
-      <c r="M5" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="102"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="120"/>
-      <c r="V5" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="120"/>
-      <c r="X5" s="93">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="133">
-        <f t="shared" si="9"/>
-        <v>129.7</v>
-      </c>
-      <c r="Z5" s="135">
-        <f t="shared" si="10"/>
-        <v>2.45952197378566</v>
-      </c>
-      <c r="AA5" s="134">
-        <f t="shared" si="11"/>
-        <v>319</v>
-      </c>
-      <c r="AB5" s="135">
+        <v>18898.0298443371</v>
+      </c>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="133">
         <f t="shared" si="12"/>
-        <v>216.422513492675</v>
-      </c>
-      <c r="AC5" s="134">
-        <f t="shared" si="13"/>
-        <v>28070</v>
-      </c>
-      <c r="AD5" s="135">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="133">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.18808373590984</v>
       </c>
       <c r="AF5" s="93"/>
       <c r="AG5" s="93"/>
       <c r="AH5" s="93"/>
       <c r="AI5" s="93"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:42">
-      <c r="A6" s="96" t="s">
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+    </row>
+    <row r="6" ht="13.5" spans="1:42">
+      <c r="A6" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="93">
         <v>10037</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="97">
         <v>109.783</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="109">
         <v>0.909976954537588</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="110">
+        <f t="shared" si="2"/>
+        <v>0.999</v>
+      </c>
+      <c r="G6" s="109">
+        <v>0.628512611242178</v>
+      </c>
+      <c r="H6" s="110">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="I6" s="109">
+        <v>60.4009728282157</v>
+      </c>
+      <c r="J6" s="110">
+        <f t="shared" si="4"/>
+        <v>6631</v>
+      </c>
+      <c r="K6" s="115">
+        <v>0</v>
+      </c>
+      <c r="L6" s="117"/>
+      <c r="M6" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="118"/>
+      <c r="O6" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="115"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="126"/>
+      <c r="V6" s="93">
         <f t="shared" si="0"/>
-        <v>0.999</v>
-      </c>
-      <c r="G6" s="118">
-        <v>0.628512611242178</v>
-      </c>
-      <c r="H6" s="119">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="I6" s="118">
-        <v>60.4009728282157</v>
-      </c>
-      <c r="J6" s="119">
-        <f t="shared" si="2"/>
-        <v>6631</v>
-      </c>
-      <c r="K6" s="102">
-        <v>0</v>
-      </c>
-      <c r="L6" s="118">
-        <v>0.909976954537588</v>
-      </c>
-      <c r="M6" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="118">
-        <v>60.4009728282157</v>
-      </c>
-      <c r="O6" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="118">
-        <v>0.628512611242178</v>
-      </c>
-      <c r="Q6" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="102"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="120"/>
-      <c r="V6" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="120"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="126"/>
       <c r="X6" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y6" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>109.783</v>
       </c>
-      <c r="Z6" s="135">
-        <f t="shared" si="10"/>
-        <v>0.909976954537588</v>
-      </c>
-      <c r="AA6" s="134">
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="133">
         <f t="shared" si="11"/>
         <v>99.9</v>
       </c>
-      <c r="AB6" s="135">
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="133">
+        <f t="shared" si="1"/>
+        <v>6631</v>
+      </c>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="133">
         <f t="shared" si="12"/>
-        <v>60.4009728282157</v>
-      </c>
-      <c r="AC6" s="134">
-        <f t="shared" si="13"/>
-        <v>6631</v>
-      </c>
-      <c r="AD6" s="135">
-        <f t="shared" si="14"/>
-        <v>0.628512611242178</v>
-      </c>
-      <c r="AE6" s="133">
-        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="AF6" s="93"/>
       <c r="AG6" s="93"/>
       <c r="AH6" s="93"/>
       <c r="AI6" s="93"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
     </row>
     <row r="7" s="88" customFormat="1" ht="14.25" spans="1:42">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="93">
         <v>10039</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="97">
         <v>39.18</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="109">
         <v>99.02</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="110">
+        <f t="shared" si="2"/>
+        <v>38.796036</v>
+      </c>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="115">
+        <v>3.34</v>
+      </c>
+      <c r="L7" s="116">
+        <v>99.99</v>
+      </c>
+      <c r="M7" s="93">
+        <f t="shared" si="5"/>
+        <v>3.339666</v>
+      </c>
+      <c r="N7" s="118"/>
+      <c r="O7" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="122">
+        <v>20.16</v>
+      </c>
+      <c r="S7" s="123">
+        <v>99.02</v>
+      </c>
+      <c r="T7" s="93">
+        <f t="shared" si="8"/>
+        <v>19.962432</v>
+      </c>
+      <c r="U7" s="123"/>
+      <c r="V7" s="93">
         <f t="shared" si="0"/>
-        <v>38.796036</v>
-      </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122">
+        <v>0</v>
+      </c>
+      <c r="W7" s="123"/>
+      <c r="X7" s="93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="133">
+        <f t="shared" si="10"/>
+        <v>22.36</v>
+      </c>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="133">
+        <f t="shared" si="11"/>
+        <v>2217.327</v>
+      </c>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="128">
-        <v>3.34</v>
-      </c>
-      <c r="L7" s="121">
-        <v>99.02</v>
-      </c>
-      <c r="M7" s="103">
-        <f t="shared" si="3"/>
-        <v>3.307268</v>
-      </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="103">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="105">
-        <v>20.16</v>
-      </c>
-      <c r="S7" s="121">
-        <v>99.02</v>
-      </c>
-      <c r="T7" s="103">
-        <f t="shared" si="6"/>
-        <v>19.962432</v>
-      </c>
-      <c r="U7" s="121"/>
-      <c r="V7" s="103">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="121"/>
-      <c r="X7" s="103">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="136">
-        <f t="shared" si="9"/>
-        <v>22.36</v>
-      </c>
-      <c r="Z7" s="135">
-        <f t="shared" si="10"/>
-        <v>99.02</v>
-      </c>
-      <c r="AA7" s="134">
-        <f t="shared" si="11"/>
-        <v>2214.0872</v>
-      </c>
-      <c r="AB7" s="135">
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="133">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="135">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="136">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="140"/>
-      <c r="AK7" s="140"/>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="140"/>
-      <c r="AO7" s="140"/>
-      <c r="AP7" s="140"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:42">
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="138"/>
+      <c r="AK7" s="138"/>
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:42">
       <c r="A8" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="93">
         <v>10041</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="97">
         <v>528.902</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="109">
         <v>24.2</v>
       </c>
-      <c r="F8" s="119">
-        <f t="shared" si="0"/>
+      <c r="F8" s="110">
+        <f t="shared" si="2"/>
         <v>127.994284</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="109">
         <v>0.2</v>
       </c>
-      <c r="H8" s="119">
-        <f t="shared" si="1"/>
+      <c r="H8" s="110">
+        <f t="shared" si="3"/>
         <v>105.7804</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="109">
         <v>41.2</v>
       </c>
-      <c r="J8" s="119">
-        <f t="shared" si="2"/>
+      <c r="J8" s="110">
+        <f t="shared" si="4"/>
         <v>21790.7624</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="115">
         <v>5022.1</v>
       </c>
-      <c r="L8" s="123">
-        <v>24.2</v>
-      </c>
+      <c r="L8" s="118"/>
       <c r="M8" s="93">
-        <f t="shared" si="3"/>
-        <v>1215.3482</v>
-      </c>
-      <c r="N8" s="123">
-        <v>41.2</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="118"/>
       <c r="O8" s="93">
-        <f t="shared" si="4"/>
-        <v>206910.52</v>
-      </c>
-      <c r="P8" s="123">
-        <v>0.2</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="118"/>
       <c r="Q8" s="93">
-        <f t="shared" si="5"/>
-        <v>1004.42</v>
-      </c>
-      <c r="R8" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="122">
         <v>637.171185</v>
       </c>
       <c r="S8" s="123">
         <v>24.8</v>
       </c>
       <c r="T8" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>158.01845388</v>
       </c>
       <c r="U8" s="123">
         <v>39.88</v>
       </c>
       <c r="V8" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>25410.3868578</v>
       </c>
       <c r="W8" s="123">
         <v>0.32</v>
       </c>
       <c r="X8" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>203.8947792</v>
       </c>
       <c r="Y8" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4913.830815</v>
       </c>
-      <c r="Z8" s="135">
-        <f t="shared" si="10"/>
-        <v>24.1221986418757</v>
-      </c>
-      <c r="AA8" s="134">
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="133">
         <f t="shared" si="11"/>
-        <v>118532.403012</v>
-      </c>
-      <c r="AB8" s="135">
+        <v>-3002.416988</v>
+      </c>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="133">
+        <f t="shared" si="1"/>
+        <v>-3619.6244578</v>
+      </c>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="133">
         <f t="shared" si="12"/>
-        <v>41.3711629878734</v>
-      </c>
-      <c r="AC8" s="134">
-        <f t="shared" si="13"/>
-        <v>203290.8955422</v>
-      </c>
-      <c r="AD8" s="135">
-        <f t="shared" si="14"/>
-        <v>0.184439728375141</v>
-      </c>
-      <c r="AE8" s="133">
-        <f t="shared" si="15"/>
-        <v>906.3056208</v>
+        <v>-98.1143792</v>
       </c>
       <c r="AF8" s="93"/>
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
       <c r="AI8" s="93"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:42">
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:42">
       <c r="A9" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="93">
         <v>10043</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="97">
         <v>376.2</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="113">
         <v>73.62</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="110">
+        <f t="shared" si="2"/>
+        <v>276.95844</v>
+      </c>
+      <c r="G9" s="113">
+        <v>8.97</v>
+      </c>
+      <c r="H9" s="110">
+        <f t="shared" si="3"/>
+        <v>3374.514</v>
+      </c>
+      <c r="I9" s="113">
+        <v>237.5</v>
+      </c>
+      <c r="J9" s="110">
+        <f t="shared" ref="J9:J33" si="13">D9*I9</f>
+        <v>89347.5</v>
+      </c>
+      <c r="K9" s="119">
+        <v>39.6</v>
+      </c>
+      <c r="L9" s="120"/>
+      <c r="M9" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="120"/>
+      <c r="O9" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="122">
+        <v>415.8</v>
+      </c>
+      <c r="S9" s="127">
+        <v>73.99</v>
+      </c>
+      <c r="T9" s="93">
+        <f t="shared" si="8"/>
+        <v>307.65042</v>
+      </c>
+      <c r="U9" s="127">
+        <v>264.9</v>
+      </c>
+      <c r="V9" s="93">
         <f t="shared" si="0"/>
-        <v>276.95844</v>
-      </c>
-      <c r="G9" s="124">
-        <v>8.97</v>
-      </c>
-      <c r="H9" s="119">
+        <v>110145.42</v>
+      </c>
+      <c r="W9" s="127">
+        <v>5.32</v>
+      </c>
+      <c r="X9" s="93">
+        <f t="shared" si="9"/>
+        <v>2212.056</v>
+      </c>
+      <c r="Y9" s="133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="133">
+        <f t="shared" si="11"/>
+        <v>-3069.198</v>
+      </c>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="133">
         <f t="shared" si="1"/>
-        <v>3374.514</v>
-      </c>
-      <c r="I9" s="124">
-        <v>237.5</v>
-      </c>
-      <c r="J9" s="119">
-        <f t="shared" ref="J9:J33" si="16">D9*I9</f>
-        <v>89347.5</v>
-      </c>
-      <c r="K9" s="102">
-        <v>39.6</v>
-      </c>
-      <c r="L9" s="124">
-        <v>73.62</v>
-      </c>
-      <c r="M9" s="93">
-        <f t="shared" si="3"/>
-        <v>29.15352</v>
-      </c>
-      <c r="N9" s="124">
-        <v>237.5</v>
-      </c>
-      <c r="O9" s="93">
-        <f t="shared" si="4"/>
-        <v>9405</v>
-      </c>
-      <c r="P9" s="124">
-        <v>8.97</v>
-      </c>
-      <c r="Q9" s="93">
-        <f t="shared" si="5"/>
-        <v>355.212</v>
-      </c>
-      <c r="R9" s="101">
-        <v>415.8</v>
-      </c>
-      <c r="S9" s="124">
-        <v>73.99</v>
-      </c>
-      <c r="T9" s="93">
-        <f t="shared" si="6"/>
-        <v>307.65042</v>
-      </c>
-      <c r="U9" s="124">
-        <v>264.9</v>
-      </c>
-      <c r="V9" s="93">
-        <f t="shared" si="7"/>
-        <v>110145.42</v>
-      </c>
-      <c r="W9" s="124">
-        <v>5.32</v>
-      </c>
-      <c r="X9" s="93">
-        <f t="shared" si="8"/>
-        <v>2212.056</v>
-      </c>
-      <c r="Y9" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="135" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA9" s="134">
-        <f t="shared" si="11"/>
-        <v>-153.845999999998</v>
-      </c>
-      <c r="AB9" s="135" t="e">
+        <v>-20797.92</v>
+      </c>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="133">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC9" s="134">
-        <f t="shared" si="13"/>
-        <v>-11392.92</v>
-      </c>
-      <c r="AD9" s="135" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE9" s="133">
-        <f t="shared" si="15"/>
-        <v>1517.67</v>
+        <v>1162.458</v>
       </c>
       <c r="AF9" s="93"/>
       <c r="AG9" s="93"/>
       <c r="AH9" s="93"/>
       <c r="AI9" s="93"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:42">
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+    </row>
+    <row r="10" ht="13.5" spans="1:42">
       <c r="A10" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="93">
         <v>10045</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="97">
         <v>215.27</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="113">
         <v>1.89</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="110">
+        <f t="shared" si="2"/>
+        <v>4.068603</v>
+      </c>
+      <c r="G10" s="113">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="110">
+        <f t="shared" si="3"/>
+        <v>12.9162</v>
+      </c>
+      <c r="I10" s="113">
+        <v>5.6</v>
+      </c>
+      <c r="J10" s="110">
+        <f t="shared" si="13"/>
+        <v>1205.512</v>
+      </c>
+      <c r="K10" s="115">
+        <v>0</v>
+      </c>
+      <c r="L10" s="120"/>
+      <c r="M10" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="122">
+        <v>209</v>
+      </c>
+      <c r="S10" s="127">
+        <v>1.89</v>
+      </c>
+      <c r="T10" s="93">
+        <f t="shared" si="8"/>
+        <v>3.9501</v>
+      </c>
+      <c r="U10" s="127">
+        <v>6.1</v>
+      </c>
+      <c r="V10" s="93">
         <f t="shared" si="0"/>
-        <v>4.068603</v>
-      </c>
-      <c r="G10" s="124">
-        <v>0.06</v>
-      </c>
-      <c r="H10" s="119">
-        <f t="shared" si="1"/>
-        <v>12.9162</v>
-      </c>
-      <c r="I10" s="124">
-        <v>5.6</v>
-      </c>
-      <c r="J10" s="119">
-        <f t="shared" si="16"/>
-        <v>1205.512</v>
-      </c>
-      <c r="K10" s="102">
-        <v>0</v>
-      </c>
-      <c r="L10" s="124">
-        <v>1.89</v>
-      </c>
-      <c r="M10" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="124">
-        <v>5.6</v>
-      </c>
-      <c r="O10" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="124">
-        <v>0.06</v>
-      </c>
-      <c r="Q10" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="101">
-        <v>209</v>
-      </c>
-      <c r="S10" s="124">
-        <v>1.89</v>
-      </c>
-      <c r="T10" s="93">
-        <f t="shared" si="6"/>
-        <v>3.9501</v>
-      </c>
-      <c r="U10" s="124">
-        <v>6.1</v>
-      </c>
-      <c r="V10" s="93">
-        <f t="shared" si="7"/>
         <v>1274.9</v>
       </c>
-      <c r="W10" s="124">
+      <c r="W10" s="127">
         <v>0.05</v>
       </c>
       <c r="X10" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.45</v>
       </c>
       <c r="Y10" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.27000000000001</v>
       </c>
-      <c r="Z10" s="135">
-        <f t="shared" si="10"/>
-        <v>1.89</v>
-      </c>
-      <c r="AA10" s="134">
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="133">
         <f t="shared" si="11"/>
         <v>11.8503</v>
       </c>
-      <c r="AB10" s="135">
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="133">
+        <f t="shared" si="1"/>
+        <v>-69.3879999999999</v>
+      </c>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="133">
         <f t="shared" si="12"/>
-        <v>-11.0666666666666</v>
-      </c>
-      <c r="AC10" s="134">
-        <f t="shared" si="13"/>
-        <v>-69.3879999999999</v>
-      </c>
-      <c r="AD10" s="135">
-        <f t="shared" si="14"/>
-        <v>0.393333333333333</v>
-      </c>
-      <c r="AE10" s="133">
-        <f t="shared" si="15"/>
         <v>2.4662</v>
       </c>
       <c r="AF10" s="93"/>
       <c r="AG10" s="93"/>
       <c r="AH10" s="93"/>
       <c r="AI10" s="93"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:42">
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="105"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+    </row>
+    <row r="11" ht="13.5" spans="1:42">
       <c r="A11" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="93">
         <v>10047</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="101">
-        <v>0</v>
-      </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="124"/>
-      <c r="J11" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="124">
-        <v>12.71</v>
-      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="113"/>
+      <c r="H11" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="113"/>
+      <c r="J11" s="110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="115">
+        <v>0</v>
+      </c>
+      <c r="L11" s="120"/>
       <c r="M11" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="124">
-        <v>130.6</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="120"/>
       <c r="O11" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="124">
-        <v>1.15</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="120"/>
       <c r="Q11" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="122">
         <v>148.32</v>
       </c>
-      <c r="S11" s="124">
+      <c r="S11" s="127">
         <v>1.89</v>
       </c>
       <c r="T11" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.803248</v>
       </c>
-      <c r="U11" s="124">
+      <c r="U11" s="127">
         <v>6.1</v>
       </c>
       <c r="V11" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V11:V42" si="14">R11*U11</f>
         <v>904.752</v>
       </c>
-      <c r="W11" s="124">
+      <c r="W11" s="127">
         <v>0.05</v>
       </c>
       <c r="X11" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.416</v>
       </c>
       <c r="Y11" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-148.32</v>
       </c>
-      <c r="Z11" s="135">
-        <f t="shared" si="10"/>
-        <v>1.89</v>
-      </c>
-      <c r="AA11" s="134">
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="133">
         <f t="shared" si="11"/>
         <v>-280.3248</v>
       </c>
-      <c r="AB11" s="135">
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="133">
+        <f t="shared" si="1"/>
+        <v>-904.752</v>
+      </c>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="133">
         <f t="shared" si="12"/>
-        <v>6.1</v>
-      </c>
-      <c r="AC11" s="134">
-        <f t="shared" si="13"/>
-        <v>-904.752</v>
-      </c>
-      <c r="AD11" s="135">
-        <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="AE11" s="133">
-        <f t="shared" si="15"/>
         <v>-7.416</v>
       </c>
       <c r="AF11" s="93"/>
       <c r="AG11" s="93"/>
       <c r="AH11" s="93"/>
       <c r="AI11" s="93"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="113"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="113"/>
-      <c r="AO11" s="113"/>
-      <c r="AP11" s="113"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:42">
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:42">
       <c r="A12" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="93">
         <v>10049</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="100" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="101">
         <v>237</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="113">
         <v>12.71</v>
       </c>
-      <c r="F12" s="119">
-        <f t="shared" si="0"/>
+      <c r="F12" s="110">
+        <f t="shared" si="2"/>
         <v>30.1227</v>
       </c>
-      <c r="G12" s="124">
+      <c r="G12" s="113">
         <v>1.15</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="110">
+        <f t="shared" si="3"/>
+        <v>272.55</v>
+      </c>
+      <c r="I12" s="113">
+        <v>130.6</v>
+      </c>
+      <c r="J12" s="110">
+        <f t="shared" si="13"/>
+        <v>30952.2</v>
+      </c>
+      <c r="K12" s="115">
+        <v>721.29</v>
+      </c>
+      <c r="L12" s="120"/>
+      <c r="M12" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="122">
+        <v>33.3</v>
+      </c>
+      <c r="S12" s="127">
+        <v>11.5</v>
+      </c>
+      <c r="T12" s="93">
+        <f t="shared" si="8"/>
+        <v>3.8295</v>
+      </c>
+      <c r="U12" s="127">
+        <v>118.6</v>
+      </c>
+      <c r="V12" s="93">
+        <f t="shared" si="14"/>
+        <v>3949.38</v>
+      </c>
+      <c r="W12" s="127">
+        <v>0.67</v>
+      </c>
+      <c r="X12" s="93">
+        <f t="shared" si="9"/>
+        <v>22.311</v>
+      </c>
+      <c r="Y12" s="133">
+        <f t="shared" si="10"/>
+        <v>924.99</v>
+      </c>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="133">
+        <f t="shared" si="11"/>
+        <v>2629.32</v>
+      </c>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="133">
         <f t="shared" si="1"/>
-        <v>272.55</v>
-      </c>
-      <c r="I12" s="124">
-        <v>130.6</v>
-      </c>
-      <c r="J12" s="119">
-        <f t="shared" si="16"/>
-        <v>30952.2</v>
-      </c>
-      <c r="K12" s="102">
-        <v>721.29</v>
-      </c>
-      <c r="L12" s="124">
-        <v>99.01</v>
-      </c>
-      <c r="M12" s="93">
-        <f t="shared" si="3"/>
-        <v>714.149229</v>
-      </c>
-      <c r="N12" s="124">
-        <v>315</v>
-      </c>
-      <c r="O12" s="93">
-        <f t="shared" si="4"/>
-        <v>227206.35</v>
-      </c>
-      <c r="P12" s="124">
-        <v>12.02</v>
-      </c>
-      <c r="Q12" s="93">
-        <f t="shared" si="5"/>
-        <v>8669.9058</v>
-      </c>
-      <c r="R12" s="101">
-        <v>33.3</v>
-      </c>
-      <c r="S12" s="124">
-        <v>11.5</v>
-      </c>
-      <c r="T12" s="93">
-        <f t="shared" si="6"/>
-        <v>3.8295</v>
-      </c>
-      <c r="U12" s="124">
-        <v>118.6</v>
-      </c>
-      <c r="V12" s="93">
-        <f t="shared" si="7"/>
-        <v>3949.38</v>
-      </c>
-      <c r="W12" s="124">
-        <v>0.67</v>
-      </c>
-      <c r="X12" s="93">
-        <f t="shared" si="8"/>
-        <v>22.311</v>
-      </c>
-      <c r="Y12" s="133">
-        <f t="shared" si="9"/>
-        <v>924.99</v>
-      </c>
-      <c r="Z12" s="135">
-        <f t="shared" si="10"/>
-        <v>80.0486955534654</v>
-      </c>
-      <c r="AA12" s="134">
-        <f t="shared" si="11"/>
-        <v>74044.2429</v>
-      </c>
-      <c r="AB12" s="135">
+        <v>27002.82</v>
+      </c>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="133">
         <f t="shared" si="12"/>
-        <v>274.823695391301</v>
-      </c>
-      <c r="AC12" s="134">
-        <f t="shared" si="13"/>
-        <v>254209.17</v>
-      </c>
-      <c r="AD12" s="135">
-        <f t="shared" si="14"/>
-        <v>9.64350403788149</v>
-      </c>
-      <c r="AE12" s="133">
-        <f t="shared" si="15"/>
-        <v>8920.1448</v>
+        <v>250.239</v>
       </c>
       <c r="AF12" s="93"/>
       <c r="AG12" s="93"/>
       <c r="AH12" s="93"/>
       <c r="AI12" s="93"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:42">
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:42">
       <c r="A13" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="93">
         <v>10051</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="100" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="101">
         <v>438.54</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="113">
         <v>99.01</v>
       </c>
-      <c r="F13" s="119">
-        <f t="shared" si="0"/>
+      <c r="F13" s="110">
+        <f t="shared" si="2"/>
         <v>434.198454</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="113">
         <v>12.02</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="110">
+        <f t="shared" si="3"/>
+        <v>5271.2508</v>
+      </c>
+      <c r="I13" s="113">
+        <v>315</v>
+      </c>
+      <c r="J13" s="110">
+        <f t="shared" si="13"/>
+        <v>138140.1</v>
+      </c>
+      <c r="K13" s="115">
+        <v>99.41</v>
+      </c>
+      <c r="L13" s="120"/>
+      <c r="M13" s="93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="120"/>
+      <c r="O13" s="93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="122">
+        <v>537.95</v>
+      </c>
+      <c r="S13" s="127">
+        <v>98.95</v>
+      </c>
+      <c r="T13" s="93">
+        <f t="shared" si="8"/>
+        <v>532.301525</v>
+      </c>
+      <c r="U13" s="127">
+        <v>420.4</v>
+      </c>
+      <c r="V13" s="93">
+        <f t="shared" si="14"/>
+        <v>226154.18</v>
+      </c>
+      <c r="W13" s="127">
+        <v>9.12</v>
+      </c>
+      <c r="X13" s="93">
+        <f t="shared" si="9"/>
+        <v>4906.104</v>
+      </c>
+      <c r="Y13" s="133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="133">
+        <f t="shared" si="11"/>
+        <v>-9810.3071</v>
+      </c>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="133">
         <f t="shared" si="1"/>
-        <v>5271.2508</v>
-      </c>
-      <c r="I13" s="124">
-        <v>315</v>
-      </c>
-      <c r="J13" s="119">
-        <f t="shared" si="16"/>
-        <v>138140.1</v>
-      </c>
-      <c r="K13" s="102">
-        <v>99.41</v>
-      </c>
-      <c r="L13" s="124">
-        <v>30.51</v>
-      </c>
-      <c r="M13" s="93">
-        <f t="shared" si="3"/>
-        <v>30.329991</v>
-      </c>
-      <c r="N13" s="124">
-        <v>13.9</v>
-      </c>
-      <c r="O13" s="93">
-        <f t="shared" si="4"/>
-        <v>1381.799</v>
-      </c>
-      <c r="P13" s="124">
-        <v>0.15</v>
-      </c>
-      <c r="Q13" s="93">
-        <f t="shared" si="5"/>
-        <v>14.9115</v>
-      </c>
-      <c r="R13" s="101">
-        <v>537.95</v>
-      </c>
-      <c r="S13" s="124">
-        <v>98.95</v>
-      </c>
-      <c r="T13" s="93">
-        <f t="shared" si="6"/>
-        <v>532.301525</v>
-      </c>
-      <c r="U13" s="124">
-        <v>420.4</v>
-      </c>
-      <c r="V13" s="93">
-        <f t="shared" si="7"/>
-        <v>226154.18</v>
-      </c>
-      <c r="W13" s="124">
-        <v>9.12</v>
-      </c>
-      <c r="X13" s="93">
-        <f t="shared" si="8"/>
-        <v>4906.104</v>
-      </c>
-      <c r="Y13" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="135" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA13" s="134">
-        <f t="shared" si="11"/>
-        <v>-6777.308</v>
-      </c>
-      <c r="AB13" s="135" t="e">
+        <v>-88014.08</v>
+      </c>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="133">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC13" s="134">
-        <f t="shared" si="13"/>
-        <v>-86632.281</v>
-      </c>
-      <c r="AD13" s="135" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="133">
-        <f t="shared" si="15"/>
-        <v>380.0583</v>
+        <v>365.1468</v>
       </c>
       <c r="AF13" s="93"/>
       <c r="AG13" s="93"/>
       <c r="AH13" s="93"/>
       <c r="AI13" s="93"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:42">
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+    </row>
+    <row r="14" ht="13.5" spans="1:42">
       <c r="A14" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="93">
         <v>10053</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="100" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="101">
         <v>161.13</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="113">
         <v>30.51</v>
       </c>
-      <c r="F14" s="119">
-        <f t="shared" si="0"/>
+      <c r="F14" s="110">
+        <f t="shared" si="2"/>
         <v>49.160763</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="113">
         <v>0.15</v>
       </c>
-      <c r="H14" s="119">
-        <f t="shared" si="1"/>
+      <c r="H14" s="110">
+        <f t="shared" si="3"/>
         <v>24.1695</v>
       </c>
-      <c r="I14" s="124">
+      <c r="I14" s="113">
         <v>13.9</v>
       </c>
-      <c r="J14" s="119">
-        <f t="shared" si="16"/>
+      <c r="J14" s="110">
+        <f t="shared" si="13"/>
         <v>2239.707</v>
       </c>
-      <c r="K14" s="102">
-        <v>0</v>
-      </c>
-      <c r="L14" s="124">
-        <v>30.51</v>
-      </c>
+      <c r="K14" s="115">
+        <v>0</v>
+      </c>
+      <c r="L14" s="120"/>
       <c r="M14" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="124">
-        <v>13.9</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="120"/>
       <c r="O14" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="124">
-        <v>0.15</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="120"/>
       <c r="Q14" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="122">
         <v>136.06</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="127">
         <v>32.79</v>
       </c>
       <c r="T14" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44.614074</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="127">
         <v>16.7</v>
       </c>
       <c r="V14" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2272.202</v>
       </c>
-      <c r="W14" s="124">
+      <c r="W14" s="127">
         <v>0.05</v>
       </c>
       <c r="X14" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.803</v>
       </c>
       <c r="Y14" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.07</v>
       </c>
-      <c r="Z14" s="135">
-        <f t="shared" si="10"/>
-        <v>18.1359752692461</v>
-      </c>
-      <c r="AA14" s="134">
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="133">
         <f t="shared" si="11"/>
         <v>454.6689</v>
       </c>
-      <c r="AB14" s="135">
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="133">
+        <f>(D14*I14+K14*N14-R14*U14)</f>
+        <v>-32.4949999999999</v>
+      </c>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="133">
         <f t="shared" si="12"/>
-        <v>-1.29617072197846</v>
-      </c>
-      <c r="AC14" s="134">
-        <f t="shared" si="13"/>
-        <v>-32.4949999999999</v>
-      </c>
-      <c r="AD14" s="135">
-        <f t="shared" si="14"/>
-        <v>0.692720382927802</v>
-      </c>
-      <c r="AE14" s="133">
-        <f t="shared" si="15"/>
         <v>17.3665</v>
       </c>
       <c r="AF14" s="93"/>
       <c r="AG14" s="93"/>
       <c r="AH14" s="93"/>
       <c r="AI14" s="93"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:42">
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+    </row>
+    <row r="15" ht="13.5" spans="1:42">
       <c r="A15" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="93">
         <v>10055</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="100" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="101">
         <v>312.5</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="113">
         <v>30.51</v>
       </c>
-      <c r="F15" s="119">
-        <f t="shared" si="0"/>
+      <c r="F15" s="110">
+        <f t="shared" si="2"/>
         <v>95.34375</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="113">
         <v>0.15</v>
       </c>
-      <c r="H15" s="119">
-        <f t="shared" si="1"/>
+      <c r="H15" s="110">
+        <f t="shared" si="3"/>
         <v>46.875</v>
       </c>
-      <c r="I15" s="124">
+      <c r="I15" s="113">
         <v>13.9</v>
       </c>
-      <c r="J15" s="119">
-        <f t="shared" si="16"/>
+      <c r="J15" s="110">
+        <f t="shared" si="13"/>
         <v>4343.75</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="115">
         <v>3399.43</v>
       </c>
-      <c r="L15" s="124">
-        <v>12.71</v>
-      </c>
+      <c r="L15" s="120"/>
       <c r="M15" s="93">
-        <f t="shared" si="3"/>
-        <v>432.067553</v>
-      </c>
-      <c r="N15" s="124">
-        <v>130.6</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="120"/>
       <c r="O15" s="93">
-        <f t="shared" si="4"/>
-        <v>443965.558</v>
-      </c>
-      <c r="P15" s="124">
-        <v>1.15</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="120"/>
       <c r="Q15" s="93">
-        <f t="shared" si="5"/>
-        <v>3909.3445</v>
-      </c>
-      <c r="R15" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="122">
         <v>53.6</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="127">
         <v>32.79</v>
       </c>
       <c r="T15" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.57544</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="127">
         <v>16.7</v>
       </c>
       <c r="V15" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>895.12</v>
       </c>
-      <c r="W15" s="124">
+      <c r="W15" s="127">
         <v>0.05</v>
       </c>
       <c r="X15" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.68</v>
       </c>
       <c r="Y15" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3658.33</v>
       </c>
-      <c r="Z15" s="135">
-        <f t="shared" si="10"/>
-        <v>13.936300525103</v>
-      </c>
-      <c r="AA15" s="134">
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="133">
         <f t="shared" si="11"/>
-        <v>50983.5863</v>
-      </c>
-      <c r="AB15" s="135">
+        <v>7776.831</v>
+      </c>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="133">
+        <f t="shared" ref="AC15:AC33" si="15">(D15*I15+K15*N15-R15*U15)</f>
+        <v>3448.63</v>
+      </c>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="133">
         <f t="shared" si="12"/>
-        <v>122.300117266622</v>
-      </c>
-      <c r="AC15" s="134">
-        <f t="shared" si="13"/>
-        <v>447414.188</v>
-      </c>
-      <c r="AD15" s="135">
-        <f t="shared" si="14"/>
-        <v>1.08069515325299</v>
-      </c>
-      <c r="AE15" s="133">
-        <f t="shared" si="15"/>
-        <v>3953.5395</v>
+        <v>44.195</v>
       </c>
       <c r="AF15" s="93"/>
       <c r="AG15" s="93"/>
       <c r="AH15" s="93"/>
       <c r="AI15" s="93"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:42">
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:42">
       <c r="A16" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="93">
         <v>10057</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="100" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="101">
         <v>63</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="113">
         <v>12.71</v>
       </c>
-      <c r="F16" s="119">
-        <f t="shared" si="0"/>
+      <c r="F16" s="110">
+        <f t="shared" si="2"/>
         <v>8.0073</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G16" s="113">
         <v>1.15</v>
       </c>
-      <c r="H16" s="119">
-        <f t="shared" si="1"/>
+      <c r="H16" s="110">
+        <f t="shared" si="3"/>
         <v>72.45</v>
       </c>
-      <c r="I16" s="124">
+      <c r="I16" s="113">
         <v>130.6</v>
       </c>
-      <c r="J16" s="119">
-        <f t="shared" si="16"/>
+      <c r="J16" s="110">
+        <f t="shared" si="13"/>
         <v>8227.8</v>
       </c>
-      <c r="K16" s="102">
+      <c r="K16" s="115">
         <v>335.66</v>
       </c>
-      <c r="L16" s="118">
-        <v>7.01934074501771</v>
-      </c>
+      <c r="L16" s="118"/>
       <c r="M16" s="93">
-        <f t="shared" si="3"/>
-        <v>23.5611191447264</v>
-      </c>
-      <c r="N16" s="118">
-        <v>75.2281060486258</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="118"/>
       <c r="O16" s="93">
-        <f t="shared" si="4"/>
-        <v>25251.0660762817</v>
-      </c>
-      <c r="P16" s="118">
-        <v>0.514870565217551</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="118"/>
       <c r="Q16" s="93">
-        <f t="shared" si="5"/>
-        <v>172.821453920923</v>
-      </c>
-      <c r="R16" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="122">
         <v>11.7</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="127">
         <v>11.5</v>
       </c>
       <c r="T16" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3455</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="127">
         <v>118.6</v>
       </c>
       <c r="V16" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1387.62</v>
       </c>
-      <c r="W16" s="124">
+      <c r="W16" s="127">
         <v>0.67</v>
       </c>
       <c r="X16" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.839</v>
       </c>
       <c r="Y16" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>386.96</v>
       </c>
-      <c r="Z16" s="135">
-        <f t="shared" si="10"/>
-        <v>7.81034710169693</v>
-      </c>
-      <c r="AA16" s="134">
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="133">
         <f t="shared" si="11"/>
-        <v>3022.29191447264</v>
-      </c>
-      <c r="AB16" s="135">
+        <v>666.18</v>
+      </c>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="133">
+        <f t="shared" si="15"/>
+        <v>6840.18</v>
+      </c>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="133">
         <f t="shared" si="12"/>
-        <v>82.9316882269013</v>
-      </c>
-      <c r="AC16" s="134">
-        <f t="shared" si="13"/>
-        <v>32091.2460762817</v>
-      </c>
-      <c r="AD16" s="135">
-        <f t="shared" si="14"/>
-        <v>0.613583972299264</v>
-      </c>
-      <c r="AE16" s="133">
-        <f t="shared" si="15"/>
-        <v>237.432453920923</v>
+        <v>64.611</v>
       </c>
       <c r="AF16" s="93"/>
       <c r="AG16" s="93"/>
       <c r="AH16" s="93"/>
       <c r="AI16" s="93"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:42">
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="105"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+    </row>
+    <row r="17" ht="13.5" spans="1:42">
       <c r="A17" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="93">
         <v>10059</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="100" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="101">
         <v>2719.13</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="109">
         <v>7.01934074501771</v>
       </c>
-      <c r="F17" s="119">
-        <f t="shared" si="0"/>
+      <c r="F17" s="110">
+        <f t="shared" si="2"/>
         <v>190.865</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="109">
         <v>0.514870565217551</v>
       </c>
-      <c r="H17" s="119">
-        <f t="shared" si="1"/>
+      <c r="H17" s="110">
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="109">
         <v>75.2281060486258</v>
       </c>
-      <c r="J17" s="119">
-        <f t="shared" si="16"/>
+      <c r="J17" s="110">
+        <f t="shared" si="13"/>
         <v>204555</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K17" s="115">
         <v>443.86</v>
       </c>
-      <c r="L17" s="125">
-        <v>99.57</v>
-      </c>
+      <c r="L17" s="118"/>
       <c r="M17" s="93">
-        <f t="shared" si="3"/>
-        <v>441.951402</v>
-      </c>
-      <c r="N17" s="125">
-        <v>329.29</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="118"/>
       <c r="O17" s="93">
-        <f t="shared" si="4"/>
-        <v>146158.6594</v>
-      </c>
-      <c r="P17" s="125">
-        <v>11.6</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="118"/>
       <c r="Q17" s="93">
-        <f t="shared" si="5"/>
-        <v>5148.776</v>
-      </c>
-      <c r="R17" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="122">
         <v>3060.67</v>
       </c>
-      <c r="S17" s="118">
+      <c r="S17" s="123">
         <v>6.60652732898352</v>
       </c>
       <c r="T17" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>202.204</v>
       </c>
-      <c r="U17" s="118">
+      <c r="U17" s="123">
         <v>77.3118304162161</v>
       </c>
       <c r="V17" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>236626</v>
       </c>
-      <c r="W17" s="118">
+      <c r="W17" s="123">
         <v>0.493356029888881</v>
       </c>
       <c r="X17" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1510</v>
       </c>
       <c r="Y17" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.32</v>
       </c>
-      <c r="Z17" s="135">
-        <f t="shared" si="10"/>
-        <v>420.848711884285</v>
-      </c>
-      <c r="AA17" s="134">
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="133">
         <f t="shared" si="11"/>
-        <v>43061.2402</v>
-      </c>
-      <c r="AB17" s="135">
+        <v>-1133.89999999998</v>
+      </c>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="133">
+        <f t="shared" si="15"/>
+        <v>-32071.0000000002</v>
+      </c>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="133">
         <f t="shared" si="12"/>
-        <v>1115.00839913995</v>
-      </c>
-      <c r="AC17" s="134">
-        <f t="shared" si="13"/>
-        <v>114087.6594</v>
-      </c>
-      <c r="AD17" s="135">
-        <f t="shared" si="14"/>
-        <v>49.2452697419859</v>
-      </c>
-      <c r="AE17" s="133">
-        <f t="shared" si="15"/>
-        <v>5038.776</v>
+        <v>-110.000000000002</v>
       </c>
       <c r="AF17" s="93"/>
       <c r="AG17" s="93"/>
       <c r="AH17" s="93"/>
       <c r="AI17" s="93"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:42">
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="105"/>
+      <c r="AM17" s="105"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:42">
       <c r="A18" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="93">
         <v>10061</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="97">
         <v>666</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="109">
         <v>99.57</v>
       </c>
-      <c r="F18" s="119">
-        <f t="shared" si="0"/>
+      <c r="F18" s="110">
+        <f t="shared" si="2"/>
         <v>663.1362</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="109">
         <v>11.6</v>
       </c>
-      <c r="H18" s="119">
-        <f t="shared" si="1"/>
+      <c r="H18" s="110">
+        <f t="shared" si="3"/>
         <v>7725.6</v>
       </c>
-      <c r="I18" s="125">
+      <c r="I18" s="109">
         <v>329.29</v>
       </c>
-      <c r="J18" s="119">
-        <f t="shared" si="16"/>
+      <c r="J18" s="110">
+        <f t="shared" si="13"/>
         <v>219307.14</v>
       </c>
-      <c r="K18" s="102">
-        <v>0</v>
-      </c>
-      <c r="L18" s="118">
-        <v>99.57</v>
-      </c>
+      <c r="K18" s="115">
+        <v>0</v>
+      </c>
+      <c r="L18" s="118"/>
       <c r="M18" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="118">
-        <v>329.29</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="118"/>
       <c r="O18" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="118">
-        <v>11.6</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="118"/>
       <c r="Q18" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="122">
         <v>890</v>
       </c>
-      <c r="S18" s="125">
+      <c r="S18" s="123">
         <v>99.51</v>
       </c>
       <c r="T18" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>885.639</v>
       </c>
-      <c r="U18" s="125">
+      <c r="U18" s="123">
         <v>367.65</v>
       </c>
       <c r="V18" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>327208.5</v>
       </c>
-      <c r="W18" s="125">
+      <c r="W18" s="123">
         <v>6.65</v>
       </c>
       <c r="X18" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5918.5</v>
       </c>
       <c r="Y18" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-224</v>
       </c>
-      <c r="Z18" s="135">
-        <f t="shared" si="10"/>
-        <v>99.3316071428572</v>
-      </c>
-      <c r="AA18" s="134">
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="133">
         <f t="shared" si="11"/>
         <v>-22250.28</v>
       </c>
-      <c r="AB18" s="135">
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="133">
+        <f t="shared" si="15"/>
+        <v>-107901.36</v>
+      </c>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="133">
         <f t="shared" si="12"/>
-        <v>481.7025</v>
-      </c>
-      <c r="AC18" s="134">
-        <f t="shared" si="13"/>
-        <v>-107901.36</v>
-      </c>
-      <c r="AD18" s="135">
-        <f t="shared" si="14"/>
-        <v>-8.06741071428571</v>
-      </c>
-      <c r="AE18" s="133">
-        <f t="shared" si="15"/>
         <v>1807.1</v>
       </c>
       <c r="AF18" s="93"/>
       <c r="AG18" s="93"/>
       <c r="AH18" s="93"/>
       <c r="AI18" s="93"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:42">
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+    </row>
+    <row r="19" ht="13.5" spans="1:42">
       <c r="A19" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="93">
         <v>10063</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="102">
         <v>283.6</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="109">
         <v>99.57</v>
       </c>
-      <c r="F19" s="119">
-        <f t="shared" si="0"/>
+      <c r="F19" s="110">
+        <f t="shared" si="2"/>
         <v>282.38052</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="109">
         <v>11.6</v>
       </c>
-      <c r="H19" s="119">
-        <f t="shared" si="1"/>
+      <c r="H19" s="110">
+        <f t="shared" si="3"/>
         <v>3289.76</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="109">
         <v>329.29</v>
       </c>
-      <c r="J19" s="119">
-        <f t="shared" si="16"/>
+      <c r="J19" s="110">
+        <f t="shared" si="13"/>
         <v>93386.644</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="115">
         <v>26621.68</v>
       </c>
-      <c r="L19" s="118">
-        <v>99.57</v>
-      </c>
+      <c r="L19" s="118"/>
       <c r="M19" s="93">
-        <f t="shared" si="3"/>
-        <v>26507.206776</v>
-      </c>
-      <c r="N19" s="118">
-        <v>329.29</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="118"/>
       <c r="O19" s="93">
-        <f t="shared" si="4"/>
-        <v>8766253.0072</v>
-      </c>
-      <c r="P19" s="118">
-        <v>11.6</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="118"/>
       <c r="Q19" s="93">
-        <f t="shared" si="5"/>
-        <v>308811.488</v>
-      </c>
-      <c r="R19" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="122">
         <v>822.8</v>
       </c>
-      <c r="S19" s="118">
+      <c r="S19" s="123">
         <v>99.51</v>
       </c>
       <c r="T19" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>818.76828</v>
       </c>
-      <c r="U19" s="118">
+      <c r="U19" s="123">
         <v>367.65</v>
       </c>
       <c r="V19" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>302502.42</v>
       </c>
-      <c r="W19" s="118">
+      <c r="W19" s="123">
         <v>6.65</v>
       </c>
       <c r="X19" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5471.62</v>
       </c>
       <c r="Y19" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26082.48</v>
       </c>
-      <c r="Z19" s="135">
-        <f t="shared" si="10"/>
-        <v>99.5718927647984</v>
-      </c>
-      <c r="AA19" s="134">
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="133">
         <f t="shared" si="11"/>
-        <v>2597081.9016</v>
-      </c>
-      <c r="AB19" s="135">
+        <v>-53638.776</v>
+      </c>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="133">
+        <f t="shared" si="15"/>
+        <v>-209115.776</v>
+      </c>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="133">
         <f t="shared" si="12"/>
-        <v>328.079892372198</v>
-      </c>
-      <c r="AC19" s="134">
-        <f t="shared" si="13"/>
-        <v>8557137.2312</v>
-      </c>
-      <c r="AD19" s="135">
-        <f t="shared" si="14"/>
-        <v>11.7561530958713</v>
-      </c>
-      <c r="AE19" s="133">
-        <f t="shared" si="15"/>
-        <v>306629.628</v>
+        <v>-2181.86</v>
       </c>
       <c r="AF19" s="93"/>
       <c r="AG19" s="93"/>
       <c r="AH19" s="93"/>
       <c r="AI19" s="93"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:42">
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+    </row>
+    <row r="20" ht="13.5" spans="1:42">
       <c r="A20" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="93">
         <v>10065</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="101">
         <v>20.94</v>
       </c>
-      <c r="E20" s="118">
+      <c r="E20" s="109">
         <v>99.57</v>
       </c>
-      <c r="F20" s="119">
-        <f t="shared" si="0"/>
+      <c r="F20" s="110">
+        <f t="shared" si="2"/>
         <v>20.849958</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="109">
         <v>11.6</v>
       </c>
-      <c r="H20" s="119">
-        <f t="shared" si="1"/>
+      <c r="H20" s="110">
+        <f t="shared" si="3"/>
         <v>242.904</v>
       </c>
-      <c r="I20" s="118">
+      <c r="I20" s="109">
         <v>329.29</v>
       </c>
-      <c r="J20" s="119">
-        <f t="shared" si="16"/>
+      <c r="J20" s="110">
+        <f t="shared" si="13"/>
         <v>6895.3326</v>
       </c>
-      <c r="K20" s="102">
-        <v>0</v>
-      </c>
-      <c r="L20" s="118">
-        <v>99.57</v>
-      </c>
+      <c r="K20" s="115">
+        <v>0</v>
+      </c>
+      <c r="L20" s="118"/>
       <c r="M20" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="118">
-        <v>329.29</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="118"/>
       <c r="O20" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="118">
-        <v>11.6</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="118"/>
       <c r="Q20" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="122">
         <v>17.96</v>
       </c>
-      <c r="S20" s="118">
+      <c r="S20" s="123">
         <v>99.51</v>
       </c>
       <c r="T20" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.871996</v>
       </c>
-      <c r="U20" s="118">
+      <c r="U20" s="123">
         <v>367.65</v>
       </c>
       <c r="V20" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6602.994</v>
       </c>
-      <c r="W20" s="118">
+      <c r="W20" s="123">
         <v>6.65</v>
       </c>
       <c r="X20" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>119.434</v>
       </c>
       <c r="Y20" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.98</v>
       </c>
-      <c r="Z20" s="135">
-        <f t="shared" si="10"/>
-        <v>99.931610738255</v>
-      </c>
-      <c r="AA20" s="134">
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="133">
         <f t="shared" si="11"/>
         <v>297.7962</v>
       </c>
-      <c r="AB20" s="135">
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="133">
+        <f t="shared" si="15"/>
+        <v>292.338600000001</v>
+      </c>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="133">
         <f t="shared" si="12"/>
-        <v>98.1002013422822</v>
-      </c>
-      <c r="AC20" s="134">
-        <f t="shared" si="13"/>
-        <v>292.338600000001</v>
-      </c>
-      <c r="AD20" s="135">
-        <f t="shared" si="14"/>
-        <v>41.4328859060403</v>
-      </c>
-      <c r="AE20" s="133">
-        <f t="shared" si="15"/>
         <v>123.47</v>
       </c>
       <c r="AF20" s="93"/>
       <c r="AG20" s="93"/>
       <c r="AH20" s="93"/>
       <c r="AI20" s="93"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:42">
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
+      <c r="AM20" s="105"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:42">
       <c r="A21" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="93">
         <v>10067</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="100" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="101">
         <v>14</v>
       </c>
-      <c r="E21" s="118">
+      <c r="E21" s="109">
         <v>99.57</v>
       </c>
-      <c r="F21" s="119">
-        <f t="shared" si="0"/>
+      <c r="F21" s="110">
+        <f t="shared" si="2"/>
         <v>13.9398</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="109">
         <v>11.6</v>
       </c>
-      <c r="H21" s="119">
-        <f t="shared" si="1"/>
+      <c r="H21" s="110">
+        <f t="shared" si="3"/>
         <v>162.4</v>
       </c>
-      <c r="I21" s="118">
+      <c r="I21" s="109">
         <v>329.29</v>
       </c>
-      <c r="J21" s="119">
-        <f t="shared" si="16"/>
+      <c r="J21" s="110">
+        <f t="shared" si="13"/>
         <v>4610.06</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="115">
         <v>11.2</v>
       </c>
-      <c r="L21" s="118">
-        <v>39.84</v>
-      </c>
+      <c r="L21" s="118"/>
       <c r="M21" s="93">
-        <f t="shared" si="3"/>
-        <v>4.46208</v>
-      </c>
-      <c r="N21" s="118">
-        <v>57.6</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="118"/>
       <c r="O21" s="93">
-        <f t="shared" si="4"/>
-        <v>645.12</v>
-      </c>
-      <c r="P21" s="118">
-        <v>1.32</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="118"/>
       <c r="Q21" s="93">
-        <f t="shared" si="5"/>
-        <v>14.784</v>
-      </c>
-      <c r="R21" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="122">
         <v>25.2</v>
       </c>
-      <c r="S21" s="118">
+      <c r="S21" s="123">
         <v>99.51</v>
       </c>
       <c r="T21" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25.07652</v>
       </c>
-      <c r="U21" s="118">
+      <c r="U21" s="123">
         <v>367.65</v>
       </c>
       <c r="V21" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9264.78</v>
       </c>
-      <c r="W21" s="118">
+      <c r="W21" s="123">
         <v>6.65</v>
       </c>
       <c r="X21" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.58</v>
       </c>
       <c r="Y21" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="135" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA21" s="134">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="133">
         <f t="shared" si="11"/>
-        <v>-667.464</v>
-      </c>
-      <c r="AB21" s="135" t="e">
+        <v>-1113.672</v>
+      </c>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="133">
+        <f t="shared" si="15"/>
+        <v>-4654.72</v>
+      </c>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="133">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC21" s="134">
-        <f t="shared" si="13"/>
-        <v>-4009.6</v>
-      </c>
-      <c r="AD21" s="135" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE21" s="133">
-        <f t="shared" si="15"/>
-        <v>9.60399999999998</v>
+        <v>-5.18000000000001</v>
       </c>
       <c r="AF21" s="93"/>
       <c r="AG21" s="93"/>
       <c r="AH21" s="93"/>
       <c r="AI21" s="93"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:42">
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+    </row>
+    <row r="22" ht="13.5" spans="1:42">
       <c r="A22" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="93">
         <v>10069</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="100" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="101">
         <v>136.8</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22" s="109">
         <v>39.84</v>
       </c>
-      <c r="F22" s="119">
-        <f t="shared" si="0"/>
+      <c r="F22" s="110">
+        <f t="shared" si="2"/>
         <v>54.50112</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="109">
         <v>1.32</v>
       </c>
-      <c r="H22" s="119">
-        <f t="shared" si="1"/>
+      <c r="H22" s="110">
+        <f t="shared" si="3"/>
         <v>180.576</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="109">
         <v>57.6</v>
       </c>
-      <c r="J22" s="119">
-        <f t="shared" si="16"/>
+      <c r="J22" s="110">
+        <f t="shared" si="13"/>
         <v>7879.68</v>
       </c>
-      <c r="K22" s="102">
+      <c r="K22" s="115">
         <v>178.2</v>
       </c>
-      <c r="L22" s="118">
-        <v>56.1</v>
-      </c>
+      <c r="L22" s="118"/>
       <c r="M22" s="93">
-        <f t="shared" si="3"/>
-        <v>99.9702</v>
-      </c>
-      <c r="N22" s="118">
-        <v>72.8</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="118"/>
       <c r="O22" s="93">
-        <f t="shared" si="4"/>
-        <v>12972.96</v>
-      </c>
-      <c r="P22" s="118">
-        <v>0.128571428571429</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="118"/>
       <c r="Q22" s="93">
-        <f t="shared" si="5"/>
-        <v>22.9114285714286</v>
-      </c>
-      <c r="R22" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="122">
         <v>315</v>
       </c>
-      <c r="S22" s="118">
+      <c r="S22" s="123">
         <v>44.8352380952381</v>
       </c>
       <c r="T22" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>141.231</v>
       </c>
-      <c r="U22" s="118">
+      <c r="U22" s="123">
         <v>95.9555555555556</v>
       </c>
       <c r="V22" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>30226</v>
       </c>
-      <c r="W22" s="118">
+      <c r="W22" s="123">
         <v>1.81904761904762</v>
       </c>
       <c r="X22" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>573</v>
       </c>
       <c r="Y22" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="135" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA22" s="134">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="133">
         <f t="shared" si="11"/>
-        <v>1324.032</v>
-      </c>
-      <c r="AB22" s="135" t="e">
+        <v>-8672.988</v>
+      </c>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="133">
+        <f t="shared" si="15"/>
+        <v>-22346.32</v>
+      </c>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="133">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC22" s="134">
-        <f t="shared" si="13"/>
-        <v>-9373.36000000002</v>
-      </c>
-      <c r="AD22" s="135" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE22" s="133">
-        <f t="shared" si="15"/>
-        <v>-369.512571428572</v>
+        <v>-392.424</v>
       </c>
       <c r="AF22" s="93"/>
       <c r="AG22" s="93"/>
       <c r="AH22" s="93"/>
       <c r="AI22" s="93"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:42">
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="105"/>
+      <c r="AM22" s="105"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:42">
       <c r="A23" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="93">
         <v>10071</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="100" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="101">
         <v>70</v>
       </c>
-      <c r="E23" s="118">
+      <c r="E23" s="109">
         <v>56.1</v>
       </c>
-      <c r="F23" s="119">
-        <f t="shared" si="0"/>
+      <c r="F23" s="110">
+        <f t="shared" si="2"/>
         <v>39.27</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="109">
         <v>0.128571428571429</v>
       </c>
-      <c r="H23" s="119">
-        <f t="shared" si="1"/>
+      <c r="H23" s="110">
+        <f t="shared" si="3"/>
         <v>9.00000000000003</v>
       </c>
-      <c r="I23" s="118">
+      <c r="I23" s="109">
         <v>72.8</v>
       </c>
-      <c r="J23" s="119">
-        <f t="shared" si="16"/>
+      <c r="J23" s="110">
+        <f t="shared" si="13"/>
         <v>5096</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="115">
         <v>40.14</v>
       </c>
       <c r="L23" s="118"/>
       <c r="M23" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N23" s="118"/>
       <c r="O23" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="118"/>
       <c r="Q23" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="101">
-        <v>0</v>
-      </c>
-      <c r="S23" s="118"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="122">
+        <v>0</v>
+      </c>
+      <c r="S23" s="123"/>
       <c r="T23" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="118"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="123"/>
       <c r="V23" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="118"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="123"/>
       <c r="X23" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y23" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>110.14</v>
       </c>
-      <c r="Z23" s="135">
-        <f t="shared" si="10"/>
-        <v>35.654621390957</v>
-      </c>
-      <c r="AA23" s="134">
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="133">
         <f t="shared" si="11"/>
         <v>3927</v>
       </c>
-      <c r="AB23" s="135">
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="133">
+        <f t="shared" si="15"/>
+        <v>5096</v>
+      </c>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="133">
         <f t="shared" si="12"/>
-        <v>46.2683856909388</v>
-      </c>
-      <c r="AC23" s="134">
-        <f t="shared" si="13"/>
-        <v>5096</v>
-      </c>
-      <c r="AD23" s="135">
-        <f t="shared" si="14"/>
-        <v>0.0817141819502454</v>
-      </c>
-      <c r="AE23" s="133">
-        <f t="shared" si="15"/>
         <v>9.00000000000003</v>
       </c>
       <c r="AF23" s="93"/>
       <c r="AG23" s="93"/>
       <c r="AH23" s="93"/>
       <c r="AI23" s="93"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:42">
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="105"/>
+      <c r="AM23" s="105"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+    </row>
+    <row r="24" ht="13.5" spans="1:42">
       <c r="A24" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="93">
         <v>10073</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="101">
-        <v>0</v>
-      </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="102">
+      <c r="D24" s="102">
+        <v>0</v>
+      </c>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="115">
         <v>6.02</v>
       </c>
-      <c r="L24" s="118">
-        <v>99.57</v>
-      </c>
+      <c r="L24" s="118"/>
       <c r="M24" s="93">
-        <f t="shared" si="3"/>
-        <v>5.994114</v>
-      </c>
-      <c r="N24" s="118">
-        <v>329.29</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="118"/>
       <c r="O24" s="93">
-        <f t="shared" si="4"/>
-        <v>1982.3258</v>
-      </c>
-      <c r="P24" s="118">
-        <v>11.6</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="118"/>
       <c r="Q24" s="93">
-        <f t="shared" si="5"/>
-        <v>69.832</v>
-      </c>
-      <c r="R24" s="101">
-        <v>0</v>
-      </c>
-      <c r="S24" s="118"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="122">
+        <v>0</v>
+      </c>
+      <c r="S24" s="123"/>
       <c r="T24" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="118"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="123"/>
       <c r="V24" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="118"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="123"/>
       <c r="X24" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y24" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.02</v>
       </c>
-      <c r="Z24" s="135">
-        <f t="shared" si="10"/>
-        <v>99.57</v>
-      </c>
-      <c r="AA24" s="134">
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="133">
         <f t="shared" si="11"/>
-        <v>599.4114</v>
-      </c>
-      <c r="AB24" s="135">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="133">
         <f t="shared" si="12"/>
-        <v>329.29</v>
-      </c>
-      <c r="AC24" s="134">
-        <f t="shared" si="13"/>
-        <v>1982.3258</v>
-      </c>
-      <c r="AD24" s="135">
-        <f t="shared" si="14"/>
-        <v>11.6</v>
-      </c>
-      <c r="AE24" s="133">
-        <f t="shared" si="15"/>
-        <v>69.832</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="93"/>
       <c r="AG24" s="93"/>
       <c r="AH24" s="93"/>
       <c r="AI24" s="93"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:42">
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="105"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+    </row>
+    <row r="25" ht="13.5" spans="1:42">
       <c r="A25" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="93">
         <v>10075</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="100" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="101">
         <v>53.912</v>
       </c>
-      <c r="E25" s="118">
+      <c r="E25" s="109">
         <v>99.57</v>
       </c>
-      <c r="F25" s="119">
-        <f t="shared" si="0"/>
+      <c r="F25" s="110">
+        <f t="shared" si="2"/>
         <v>53.6801784</v>
       </c>
-      <c r="G25" s="118">
+      <c r="G25" s="109">
         <v>11.6</v>
       </c>
-      <c r="H25" s="119">
-        <f t="shared" si="1"/>
+      <c r="H25" s="110">
+        <f t="shared" si="3"/>
         <v>625.3792</v>
       </c>
-      <c r="I25" s="118">
+      <c r="I25" s="109">
         <v>329.29</v>
       </c>
-      <c r="J25" s="119">
-        <f t="shared" si="16"/>
+      <c r="J25" s="110">
+        <f t="shared" si="13"/>
         <v>17752.68248</v>
       </c>
-      <c r="K25" s="102">
+      <c r="K25" s="115">
         <v>3883.32</v>
       </c>
-      <c r="L25" s="118">
-        <v>100</v>
-      </c>
+      <c r="L25" s="118"/>
       <c r="M25" s="93">
-        <f t="shared" si="3"/>
-        <v>3883.32</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="N25" s="118"/>
       <c r="O25" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="118"/>
       <c r="Q25" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="122">
         <v>34.147</v>
       </c>
-      <c r="S25" s="118">
+      <c r="S25" s="123">
         <v>99.51</v>
       </c>
       <c r="T25" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33.9796797</v>
       </c>
-      <c r="U25" s="118">
+      <c r="U25" s="123">
         <v>367.65</v>
       </c>
       <c r="V25" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12554.14455</v>
       </c>
-      <c r="W25" s="118">
+      <c r="W25" s="123">
         <v>6.65</v>
       </c>
       <c r="X25" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>227.07755</v>
       </c>
       <c r="Y25" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3903.085</v>
       </c>
-      <c r="Z25" s="135">
-        <f t="shared" si="10"/>
-        <v>99.9983474277398</v>
-      </c>
-      <c r="AA25" s="134">
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="133">
         <f t="shared" si="11"/>
-        <v>390302.04987</v>
-      </c>
-      <c r="AB25" s="135">
+        <v>1970.04987</v>
+      </c>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="133">
+        <f t="shared" si="15"/>
+        <v>5198.53793</v>
+      </c>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="133">
         <f t="shared" si="12"/>
-        <v>1.33190487268404</v>
-      </c>
-      <c r="AC25" s="134">
-        <f t="shared" si="13"/>
-        <v>5198.53793</v>
-      </c>
-      <c r="AD25" s="135">
-        <f t="shared" si="14"/>
-        <v>0.10204790569511</v>
-      </c>
-      <c r="AE25" s="133">
-        <f t="shared" si="15"/>
         <v>398.30165</v>
       </c>
       <c r="AF25" s="93"/>
       <c r="AG25" s="93"/>
       <c r="AH25" s="93"/>
       <c r="AI25" s="93"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="113"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:42">
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+    </row>
+    <row r="26" ht="13.5" spans="1:42">
       <c r="A26" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="93">
         <v>10077</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="101">
         <v>6.72</v>
       </c>
-      <c r="E26" s="118">
+      <c r="E26" s="109">
         <v>100</v>
       </c>
-      <c r="F26" s="119">
-        <f t="shared" si="0"/>
+      <c r="F26" s="110">
+        <f t="shared" si="2"/>
         <v>6.72</v>
       </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="102">
+      <c r="G26" s="109"/>
+      <c r="H26" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="115">
         <v>17.4</v>
       </c>
-      <c r="L26" s="118">
-        <v>99.74</v>
-      </c>
+      <c r="L26" s="118"/>
       <c r="M26" s="93">
-        <f t="shared" si="3"/>
-        <v>17.35476</v>
-      </c>
-      <c r="N26" s="118">
-        <v>2.61</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="118"/>
       <c r="O26" s="93">
-        <f t="shared" si="4"/>
-        <v>45.414</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P26" s="118"/>
       <c r="Q26" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="122">
         <v>8.5</v>
       </c>
-      <c r="S26" s="118">
+      <c r="S26" s="123">
         <v>100</v>
       </c>
       <c r="T26" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
-      <c r="U26" s="118"/>
+      <c r="U26" s="123"/>
       <c r="V26" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="118"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="123"/>
       <c r="X26" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y26" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.62</v>
       </c>
-      <c r="Z26" s="135">
-        <f t="shared" si="10"/>
-        <v>99.710371318822</v>
-      </c>
-      <c r="AA26" s="134">
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="133">
         <f t="shared" si="11"/>
-        <v>1557.476</v>
-      </c>
-      <c r="AB26" s="135">
+        <v>-178</v>
+      </c>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="133">
         <f t="shared" si="12"/>
-        <v>2.90742637644046</v>
-      </c>
-      <c r="AC26" s="134">
-        <f t="shared" si="13"/>
-        <v>45.414</v>
-      </c>
-      <c r="AD26" s="135">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="133">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF26" s="93"/>
       <c r="AG26" s="93"/>
       <c r="AH26" s="93"/>
       <c r="AI26" s="93"/>
-      <c r="AJ26" s="113"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="113"/>
-      <c r="AN26" s="113"/>
-      <c r="AO26" s="113"/>
-      <c r="AP26" s="113"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:35">
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+    </row>
+    <row r="27" ht="13.5" spans="1:35">
       <c r="A27" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="93">
         <v>10079</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="100" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="101">
         <v>5.4</v>
       </c>
-      <c r="E27" s="118">
+      <c r="E27" s="109">
         <v>99.74</v>
       </c>
-      <c r="F27" s="119">
-        <f t="shared" si="0"/>
+      <c r="F27" s="110">
+        <f t="shared" si="2"/>
         <v>5.38596</v>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="118">
+      <c r="G27" s="109"/>
+      <c r="H27" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="109">
         <v>2.61</v>
       </c>
-      <c r="J27" s="119">
-        <f t="shared" si="16"/>
+      <c r="J27" s="110">
+        <f t="shared" si="13"/>
         <v>14.094</v>
       </c>
-      <c r="K27" s="102">
+      <c r="K27" s="115">
         <v>37.68</v>
       </c>
       <c r="L27" s="118"/>
       <c r="M27" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N27" s="118"/>
       <c r="O27" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P27" s="118"/>
       <c r="Q27" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="122">
         <v>2.28</v>
       </c>
-      <c r="S27" s="118">
+      <c r="S27" s="123">
         <v>99.93</v>
       </c>
       <c r="T27" s="93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.278404</v>
       </c>
-      <c r="U27" s="118">
+      <c r="U27" s="123">
         <v>2.47</v>
       </c>
       <c r="V27" s="93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.6316</v>
       </c>
-      <c r="W27" s="118"/>
+      <c r="W27" s="123"/>
       <c r="X27" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y27" s="133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.8</v>
       </c>
-      <c r="Z27" s="135">
-        <f t="shared" si="10"/>
-        <v>7.61655882352941</v>
-      </c>
-      <c r="AA27" s="134">
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="133">
         <f t="shared" si="11"/>
         <v>310.7556</v>
       </c>
-      <c r="AB27" s="135">
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="133">
+        <f t="shared" si="15"/>
+        <v>8.4624</v>
+      </c>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="133">
         <f t="shared" si="12"/>
-        <v>0.207411764705882</v>
-      </c>
-      <c r="AC27" s="134">
-        <f t="shared" si="13"/>
-        <v>8.4624</v>
-      </c>
-      <c r="AD27" s="135">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="133">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="119"/>
-      <c r="AG27" s="119"/>
-      <c r="AH27" s="119"/>
-      <c r="AI27" s="119"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+    </row>
+    <row r="28" ht="13.5" spans="1:35">
       <c r="A28" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="93">
         <v>10081</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="102">
-        <v>0.66</v>
+      <c r="D28" s="101">
+        <v>57.505</v>
+      </c>
+      <c r="E28" s="113">
+        <v>4.17355012607599</v>
+      </c>
+      <c r="F28" s="110">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="G28" s="113">
+        <v>1.68680984262238</v>
+      </c>
+      <c r="H28" s="110">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="I28" s="113">
+        <v>349.50004347448</v>
+      </c>
+      <c r="J28" s="110">
+        <f t="shared" si="13"/>
+        <v>20098</v>
+      </c>
+      <c r="K28" s="115">
+        <v>39.63</v>
       </c>
       <c r="L28" s="118"/>
       <c r="M28" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N28" s="118"/>
       <c r="O28" s="93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P28" s="118"/>
       <c r="Q28" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="102"/>
-      <c r="S28" s="120"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="122">
+        <v>90.747</v>
+      </c>
+      <c r="S28" s="127">
+        <v>4.8133822605706</v>
+      </c>
       <c r="T28" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="120"/>
+        <f t="shared" si="8"/>
+        <v>4.368</v>
+      </c>
+      <c r="U28" s="127">
+        <v>304.483894784401</v>
+      </c>
       <c r="V28" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="120"/>
+        <f t="shared" si="14"/>
+        <v>27631</v>
+      </c>
+      <c r="W28" s="127">
+        <v>1.39949530012011</v>
+      </c>
       <c r="X28" s="93">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>127</v>
       </c>
       <c r="Y28" s="133">
-        <f t="shared" si="9"/>
-        <v>0.66</v>
-      </c>
-      <c r="Z28" s="135">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="134">
+        <v>6.38800000000001</v>
+      </c>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="133">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="135">
+        <v>-196.8</v>
+      </c>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="133">
+        <f t="shared" si="15"/>
+        <v>-7533.00000000007</v>
+      </c>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="133">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="135">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="133">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="119"/>
-      <c r="AG28" s="119"/>
-      <c r="AH28" s="119"/>
-      <c r="AI28" s="119"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:35">
+        <v>-29.9999999999997</v>
+      </c>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+    </row>
+    <row r="29" ht="13.5" spans="1:35">
       <c r="A29" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="93">
         <v>10083</v>
       </c>
-      <c r="C29" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="120"/>
-      <c r="J29" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="102">
-        <v>148.32</v>
-      </c>
-      <c r="L29" s="124">
-        <v>4.17355012607599</v>
-      </c>
+      <c r="C29" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="102">
+        <v>0</v>
+      </c>
+      <c r="E29" s="113"/>
+      <c r="F29" s="110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="113"/>
+      <c r="H29" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="113"/>
+      <c r="J29" s="110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="115">
+        <v>0</v>
+      </c>
+      <c r="L29" s="120"/>
       <c r="M29" s="93">
-        <f t="shared" si="3"/>
-        <v>6.1902095469959</v>
-      </c>
-      <c r="N29" s="124">
-        <v>349.50004347448</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="120"/>
       <c r="O29" s="93">
-        <f t="shared" si="4"/>
-        <v>51837.8464481348</v>
-      </c>
-      <c r="P29" s="124">
-        <v>1.68680984262238</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="120"/>
       <c r="Q29" s="93">
-        <f t="shared" si="5"/>
-        <v>250.187635857751</v>
-      </c>
-      <c r="R29" s="102"/>
-      <c r="S29" s="120"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="122">
+        <v>0</v>
+      </c>
+      <c r="S29" s="127"/>
       <c r="T29" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="120"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="127"/>
       <c r="V29" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="120"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="127"/>
       <c r="X29" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y29" s="133">
-        <f t="shared" si="9"/>
-        <v>148.32</v>
-      </c>
-      <c r="Z29" s="135">
         <f t="shared" si="10"/>
-        <v>4.17355012607599</v>
-      </c>
-      <c r="AA29" s="134">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="133">
         <f t="shared" si="11"/>
-        <v>619.020954699591</v>
-      </c>
-      <c r="AB29" s="135">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="133">
         <f t="shared" si="12"/>
-        <v>349.50004347448</v>
-      </c>
-      <c r="AC29" s="134">
-        <f t="shared" si="13"/>
-        <v>51837.8464481349</v>
-      </c>
-      <c r="AD29" s="135">
-        <f t="shared" si="14"/>
-        <v>1.68680984262238</v>
-      </c>
-      <c r="AE29" s="133">
-        <f t="shared" si="15"/>
-        <v>250.187635857751</v>
-      </c>
-      <c r="AF29" s="119"/>
-      <c r="AG29" s="119"/>
-      <c r="AH29" s="119"/>
-      <c r="AI29" s="119"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="110"/>
+    </row>
+    <row r="30" ht="13.5" spans="1:35">
       <c r="A30" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="93">
         <v>10085</v>
       </c>
-      <c r="C30" s="108" t="s">
-        <v>64</v>
+      <c r="C30" s="100" t="s">
+        <v>65</v>
       </c>
       <c r="D30" s="101">
-        <v>57.505</v>
-      </c>
-      <c r="E30" s="124">
-        <v>4.17355012607599</v>
-      </c>
-      <c r="F30" s="119">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="G30" s="124">
-        <v>1.68680984262238</v>
-      </c>
-      <c r="H30" s="119">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="I30" s="124">
-        <v>349.50004347448</v>
-      </c>
-      <c r="J30" s="119">
-        <f t="shared" si="16"/>
-        <v>20098</v>
-      </c>
-      <c r="K30" s="102">
-        <v>39.63</v>
-      </c>
-      <c r="L30" s="124"/>
+        <v>1111.498</v>
+      </c>
+      <c r="E30" s="113">
+        <v>2.2910522556046</v>
+      </c>
+      <c r="F30" s="110">
+        <f t="shared" si="2"/>
+        <v>25.465</v>
+      </c>
+      <c r="G30" s="113">
+        <v>0.304094114429356</v>
+      </c>
+      <c r="H30" s="110">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="I30" s="113">
+        <v>5.83986655846434</v>
+      </c>
+      <c r="J30" s="110">
+        <f t="shared" si="13"/>
+        <v>6491</v>
+      </c>
+      <c r="K30" s="115">
+        <v>900.88</v>
+      </c>
+      <c r="L30" s="120"/>
       <c r="M30" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="124"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="120"/>
       <c r="O30" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="124"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="120"/>
       <c r="Q30" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="101">
-        <v>90.747</v>
-      </c>
-      <c r="S30" s="124">
-        <v>4.8133822605706</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="122">
+        <v>1409.509</v>
+      </c>
+      <c r="S30" s="127">
+        <v>1.92506752351351</v>
       </c>
       <c r="T30" s="93">
-        <f t="shared" si="6"/>
-        <v>4.368</v>
-      </c>
-      <c r="U30" s="124">
-        <v>304.483894784401</v>
+        <f t="shared" si="8"/>
+        <v>27.134</v>
+      </c>
+      <c r="U30" s="127">
+        <v>5.04927602448796</v>
       </c>
       <c r="V30" s="93">
-        <f t="shared" si="7"/>
-        <v>27631</v>
-      </c>
-      <c r="W30" s="124">
-        <v>1.39949530012011</v>
+        <f t="shared" si="14"/>
+        <v>7117</v>
+      </c>
+      <c r="W30" s="127">
+        <v>0.254698622002414</v>
       </c>
       <c r="X30" s="93">
-        <f t="shared" si="8"/>
-        <v>127</v>
+        <f t="shared" si="9"/>
+        <v>359.000000000001</v>
       </c>
       <c r="Y30" s="133">
-        <f t="shared" si="9"/>
-        <v>6.38799999999999</v>
-      </c>
-      <c r="Z30" s="135">
         <f t="shared" si="10"/>
-        <v>-30.8077645585474</v>
-      </c>
-      <c r="AA30" s="134">
+        <v>602.869</v>
+      </c>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="133">
         <f t="shared" si="11"/>
-        <v>-196.8</v>
-      </c>
-      <c r="AB30" s="135">
+        <v>-166.900000000002</v>
+      </c>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="133">
+        <f t="shared" si="15"/>
+        <v>-626.000000000003</v>
+      </c>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="133">
         <f t="shared" si="12"/>
-        <v>-1179.24232936758</v>
-      </c>
-      <c r="AC30" s="134">
-        <f t="shared" si="13"/>
-        <v>-7533.00000000007</v>
-      </c>
-      <c r="AD30" s="135">
-        <f t="shared" si="14"/>
-        <v>-4.69630557294924</v>
-      </c>
-      <c r="AE30" s="133">
-        <f t="shared" si="15"/>
-        <v>-29.9999999999997</v>
-      </c>
-      <c r="AF30" s="119"/>
-      <c r="AG30" s="119"/>
-      <c r="AH30" s="119"/>
-      <c r="AI30" s="119"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:35">
+        <v>-21.0000000000002</v>
+      </c>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="110"/>
+    </row>
+    <row r="31" ht="13.5" spans="1:35">
       <c r="A31" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="93">
         <v>10087</v>
       </c>
-      <c r="C31" s="108" t="s">
-        <v>65</v>
+      <c r="C31" s="100" t="s">
+        <v>66</v>
       </c>
       <c r="D31" s="101">
-        <v>0</v>
-      </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="124"/>
-      <c r="H31" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="124"/>
-      <c r="J31" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="102">
-        <v>0</v>
-      </c>
-      <c r="L31" s="124">
-        <v>2.2910522556046</v>
-      </c>
+        <v>1476.72562222222</v>
+      </c>
+      <c r="E31" s="113">
+        <v>0.0852783861014548</v>
+      </c>
+      <c r="F31" s="110">
+        <f t="shared" si="2"/>
+        <v>1.25932777777778</v>
+      </c>
+      <c r="G31" s="113"/>
+      <c r="H31" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="115">
+        <v>1331.05</v>
+      </c>
+      <c r="L31" s="120"/>
       <c r="M31" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="124">
-        <v>5.83986655846434</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="120"/>
       <c r="O31" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="124">
-        <v>0.304094114429356</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="120"/>
       <c r="Q31" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="101">
-        <v>0</v>
-      </c>
-      <c r="S31" s="124"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="122">
+        <v>1280.57400399849</v>
+      </c>
+      <c r="S31" s="127">
+        <v>0.0847237310009935</v>
+      </c>
       <c r="T31" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="124"/>
+        <f t="shared" si="8"/>
+        <v>1.08495007441633</v>
+      </c>
+      <c r="U31" s="127"/>
       <c r="V31" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="124"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="127"/>
       <c r="X31" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y31" s="133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="135" t="e">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="134">
+        <v>1527.20161822373</v>
+      </c>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="133">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="135" t="e">
+        <v>17.4377703361443</v>
+      </c>
+      <c r="AB31" s="134"/>
+      <c r="AC31" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="133">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC31" s="134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="135" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE31" s="133">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="119"/>
-      <c r="AH31" s="119"/>
-      <c r="AI31" s="119"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="110"/>
+    </row>
+    <row r="32" ht="25" spans="1:35">
       <c r="A32" s="93" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="93">
         <v>10089</v>
       </c>
-      <c r="C32" s="108" t="s">
-        <v>66</v>
+      <c r="C32" s="100" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="101">
-        <v>1111.498</v>
-      </c>
-      <c r="E32" s="124">
-        <v>2.2910522556046</v>
-      </c>
-      <c r="F32" s="119">
-        <f t="shared" si="0"/>
-        <v>25.465</v>
-      </c>
-      <c r="G32" s="124">
-        <v>0.304094114429356</v>
-      </c>
-      <c r="H32" s="119">
-        <f t="shared" si="1"/>
-        <v>338</v>
-      </c>
-      <c r="I32" s="124">
-        <v>5.83986655846434</v>
-      </c>
-      <c r="J32" s="119">
-        <f t="shared" si="16"/>
-        <v>6491</v>
-      </c>
-      <c r="K32" s="102">
-        <v>900.88</v>
-      </c>
-      <c r="L32" s="124">
-        <v>0.0852783861014548</v>
-      </c>
+        <v>105.919</v>
+      </c>
+      <c r="E32" s="113">
+        <v>0.129344121451298</v>
+      </c>
+      <c r="F32" s="110">
+        <f t="shared" si="2"/>
+        <v>0.137</v>
+      </c>
+      <c r="G32" s="113">
+        <v>0.160500004720588</v>
+      </c>
+      <c r="H32" s="110">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I32" s="113">
+        <v>1.3500882750026</v>
+      </c>
+      <c r="J32" s="110">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+      <c r="K32" s="115">
+        <v>58.06</v>
+      </c>
+      <c r="L32" s="120"/>
       <c r="M32" s="93">
-        <f t="shared" si="3"/>
-        <v>0.768255924710786</v>
-      </c>
-      <c r="N32" s="124"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="120"/>
       <c r="O32" s="93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="124"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="120"/>
       <c r="Q32" s="93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="101">
-        <v>1409.509</v>
-      </c>
-      <c r="S32" s="124">
-        <v>1.92506752351351</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="122">
+        <v>130.624</v>
+      </c>
+      <c r="S32" s="127">
+        <v>0.133206761391475</v>
       </c>
       <c r="T32" s="93">
-        <f t="shared" si="6"/>
-        <v>27.134</v>
-      </c>
-      <c r="U32" s="124">
-        <v>5.04927602448796</v>
+        <f t="shared" si="8"/>
+        <v>0.174</v>
+      </c>
+      <c r="U32" s="127">
+        <v>1.09474522292994</v>
       </c>
       <c r="V32" s="93">
-        <f t="shared" si="7"/>
-        <v>7116.99999999999</v>
-      </c>
-      <c r="W32" s="124">
-        <v>0.254698622002414</v>
+        <f t="shared" si="14"/>
+        <v>143</v>
+      </c>
+      <c r="W32" s="127">
+        <v>0.130144536991671</v>
       </c>
       <c r="X32" s="93">
-        <f t="shared" si="8"/>
-        <v>359</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
       <c r="Y32" s="133">
-        <f t="shared" si="9"/>
-        <v>602.869000000002</v>
-      </c>
-      <c r="Z32" s="135">
         <f t="shared" si="10"/>
-        <v>-0.149409585712524</v>
-      </c>
-      <c r="AA32" s="134">
+        <v>33.355</v>
+      </c>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="133">
         <f t="shared" si="11"/>
-        <v>-90.074407528924</v>
-      </c>
-      <c r="AB32" s="135">
+        <v>-3.7</v>
+      </c>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="133">
         <f t="shared" si="12"/>
-        <v>-1.03836820271071</v>
-      </c>
-      <c r="AC32" s="134">
-        <f t="shared" si="13"/>
-        <v>-626.000000000003</v>
-      </c>
-      <c r="AD32" s="135">
-        <f t="shared" si="14"/>
-        <v>-0.0348334381101037</v>
-      </c>
-      <c r="AE32" s="133">
-        <f t="shared" si="15"/>
-        <v>-21.0000000000002</v>
-      </c>
-      <c r="AF32" s="119"/>
-      <c r="AG32" s="119"/>
-      <c r="AH32" s="119"/>
-      <c r="AI32" s="119"/>
+        <v>-7.105427357601e-14</v>
+      </c>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="110"/>
     </row>
     <row r="33" ht="13.5" spans="1:35">
       <c r="A33" s="93" t="s">
@@ -5918,294 +5487,1396 @@
       <c r="B33" s="93">
         <v>10091</v>
       </c>
-      <c r="C33" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="101">
-        <v>1476.72562222222</v>
-      </c>
-      <c r="E33" s="124">
-        <v>0.0852783861014548</v>
-      </c>
-      <c r="F33" s="119">
-        <f t="shared" si="0"/>
-        <v>1.25932777777778</v>
-      </c>
-      <c r="G33" s="124"/>
-      <c r="H33" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="124"/>
-      <c r="J33" s="119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="102">
-        <v>1331.05</v>
-      </c>
-      <c r="L33" s="124">
-        <v>0.129344121451298</v>
-      </c>
+      <c r="C33" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="104"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="110">
+        <f t="shared" ref="F33:F61" si="16">D33*E33/100</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="111"/>
+      <c r="H33" s="110">
+        <f t="shared" ref="H33:H56" si="17">D33*G33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="111"/>
+      <c r="J33" s="110">
+        <f t="shared" ref="J33:J56" si="18">D33*I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="115">
+        <v>0.66</v>
+      </c>
+      <c r="L33" s="120"/>
       <c r="M33" s="93">
-        <f t="shared" si="3"/>
-        <v>1.7216349285775</v>
-      </c>
-      <c r="N33" s="124">
-        <v>1.3500882750026</v>
-      </c>
+        <f t="shared" ref="M33:M61" si="19">K33*L33/100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="120"/>
       <c r="O33" s="93">
-        <f t="shared" si="4"/>
-        <v>1797.03499844221</v>
-      </c>
-      <c r="P33" s="124">
-        <v>0.160500004720588</v>
-      </c>
+        <f t="shared" ref="O33:O67" si="20">K33*N33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="120"/>
       <c r="Q33" s="93">
-        <f t="shared" si="5"/>
-        <v>213.633531283339</v>
-      </c>
-      <c r="R33" s="101">
-        <v>1280.57400399849</v>
-      </c>
-      <c r="S33" s="124">
-        <v>0.0847237310009935</v>
-      </c>
+        <f t="shared" ref="Q33:Q58" si="21">K33*P33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="128"/>
+      <c r="S33" s="120"/>
       <c r="T33" s="93">
-        <f t="shared" si="6"/>
-        <v>1.08495007441633</v>
-      </c>
-      <c r="U33" s="124"/>
+        <f t="shared" ref="T33:T69" si="22">R33*S33/100</f>
+        <v>0</v>
+      </c>
       <c r="V33" s="93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="124"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="120"/>
       <c r="X33" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="X33:X74" si="23">R33*W33</f>
         <v>0</v>
       </c>
       <c r="Y33" s="133">
-        <f t="shared" si="9"/>
-        <v>1527.20161822373</v>
-      </c>
-      <c r="Z33" s="135">
         <f t="shared" si="10"/>
-        <v>0.124149464570642</v>
-      </c>
-      <c r="AA33" s="134">
+        <v>0.66</v>
+      </c>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="133">
         <f t="shared" si="11"/>
-        <v>189.601263193895</v>
-      </c>
-      <c r="AB33" s="135">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="134"/>
+      <c r="AC33" s="133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="133">
         <f t="shared" si="12"/>
-        <v>1.17668484435756</v>
-      </c>
-      <c r="AC33" s="134">
-        <f t="shared" si="13"/>
-        <v>1797.03499844221</v>
-      </c>
-      <c r="AD33" s="135">
-        <f t="shared" si="14"/>
-        <v>0.139885610867682</v>
-      </c>
-      <c r="AE33" s="133">
-        <f t="shared" si="15"/>
-        <v>213.633531283339</v>
-      </c>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="110"/>
     </row>
     <row r="34" ht="13.5" spans="1:35">
-      <c r="A34" s="93"/>
+      <c r="A34" s="93" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" s="93">
         <v>10093</v>
       </c>
-      <c r="C34" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="101">
-        <v>105.919</v>
-      </c>
-      <c r="E34" s="124">
-        <v>0.129344121451298</v>
-      </c>
-      <c r="F34" s="119"/>
-      <c r="G34" s="124">
-        <v>0.160500004720588</v>
-      </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="124">
-        <v>1.3500882750026</v>
-      </c>
-      <c r="J34" s="119"/>
-      <c r="K34" s="102">
-        <v>58.06</v>
-      </c>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="101">
-        <v>130.624</v>
-      </c>
-      <c r="S34" s="124">
-        <v>0.133206761391475</v>
-      </c>
-      <c r="T34" s="119"/>
-      <c r="U34" s="124">
-        <v>1.09474522292994</v>
-      </c>
-      <c r="V34" s="119"/>
-      <c r="W34" s="124">
-        <v>0.130144536991671</v>
-      </c>
-      <c r="X34" s="119"/>
-      <c r="Y34" s="137"/>
-      <c r="Z34" s="137"/>
-      <c r="AA34" s="137"/>
-      <c r="AB34" s="137"/>
-      <c r="AC34" s="137"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="137"/>
-      <c r="AF34" s="119"/>
-      <c r="AG34" s="119"/>
-      <c r="AH34" s="119"/>
-      <c r="AI34" s="119"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="R35" s="130"/>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="113"/>
+      <c r="C34" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="104"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="111"/>
+      <c r="H34" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="111"/>
+      <c r="J34" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="115">
+        <v>148.32</v>
+      </c>
+      <c r="L34" s="110"/>
+      <c r="M34" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="110"/>
+      <c r="O34" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="128"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="120"/>
+      <c r="X34" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="135"/>
+      <c r="Z34" s="135"/>
+      <c r="AA34" s="135"/>
+      <c r="AB34" s="135"/>
+      <c r="AC34" s="135"/>
+      <c r="AD34" s="135"/>
+      <c r="AE34" s="135"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="110"/>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="F35" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="129"/>
+      <c r="T35" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="105"/>
       <c r="C36" s="19"/>
+      <c r="F36" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R36" s="130"/>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="113"/>
+      <c r="T36" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" s="105"/>
       <c r="C37" s="19"/>
+      <c r="F37" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R37" s="131"/>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="113"/>
+      <c r="T37" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" s="105"/>
       <c r="C38" s="19"/>
+      <c r="F38" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R38" s="131"/>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
+      <c r="T38" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" s="105"/>
+      <c r="C39" s="107"/>
+      <c r="F39" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R39" s="131"/>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40" s="113"/>
+      <c r="T39" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="105"/>
       <c r="C40" s="19"/>
+      <c r="F40" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R40" s="131"/>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="113"/>
+      <c r="T40" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="B41" s="105"/>
       <c r="C41" s="19"/>
+      <c r="F41" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R41" s="130"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42" s="113"/>
+      <c r="T41" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="105"/>
       <c r="C42" s="19"/>
+      <c r="F42" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R42" s="131"/>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="113"/>
+      <c r="T42" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="B43" s="105"/>
       <c r="C43" s="19"/>
+      <c r="F43" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R43" s="131"/>
-    </row>
-    <row r="44" spans="2:18">
-      <c r="B44" s="113"/>
+      <c r="T43" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="93">
+        <f t="shared" ref="V43:V75" si="24">R43*U43</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="B44" s="105"/>
       <c r="C44" s="19"/>
+      <c r="F44" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R44" s="131"/>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="B45" s="113"/>
+      <c r="T44" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" s="105"/>
       <c r="C45" s="19"/>
+      <c r="F45" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R45" s="132"/>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="113"/>
+      <c r="T45" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24">
+      <c r="B46" s="105"/>
       <c r="C46" s="19"/>
+      <c r="F46" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R46" s="130"/>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47" s="113"/>
+      <c r="T46" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" s="105"/>
       <c r="C47" s="19"/>
+      <c r="F47" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R47" s="130"/>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="B48" s="113"/>
+      <c r="T47" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="105"/>
       <c r="C48" s="19"/>
+      <c r="F48" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R48" s="131"/>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
+      <c r="T48" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24">
+      <c r="B49" s="105"/>
+      <c r="C49" s="107"/>
+      <c r="F49" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R49" s="131"/>
-    </row>
-    <row r="50" spans="2:18">
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
+      <c r="T49" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24">
+      <c r="B50" s="105"/>
+      <c r="C50" s="107"/>
+      <c r="F50" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R50" s="131"/>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" s="113"/>
+      <c r="T50" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24">
+      <c r="B51" s="105"/>
       <c r="C51" s="19"/>
+      <c r="F51" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R51" s="130"/>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52" s="113"/>
+      <c r="T51" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24">
+      <c r="B52" s="105"/>
       <c r="C52" s="19"/>
+      <c r="F52" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R52" s="130"/>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53" s="113"/>
+      <c r="T52" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24">
+      <c r="B53" s="105"/>
       <c r="C53" s="19"/>
+      <c r="F53" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R53" s="130"/>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="113"/>
+      <c r="T53" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24">
+      <c r="B54" s="105"/>
       <c r="C54" s="19"/>
+      <c r="F54" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R54" s="130"/>
-    </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="113"/>
+      <c r="T54" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="B55" s="105"/>
       <c r="C55" s="19"/>
+      <c r="F55" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R55" s="130"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
+      <c r="T55" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="105"/>
+      <c r="C56" s="107"/>
+      <c r="F56" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R56" s="131"/>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="113"/>
-      <c r="C57" s="114"/>
+      <c r="T56" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="B57" s="105"/>
+      <c r="C57" s="107"/>
+      <c r="F57" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R57" s="131"/>
-    </row>
-    <row r="58" spans="2:18">
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
+      <c r="T57" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="B58" s="105"/>
+      <c r="C58" s="107"/>
+      <c r="F58" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="93">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="R58" s="131"/>
-    </row>
-    <row r="59" spans="2:18">
-      <c r="B59" s="113"/>
-      <c r="C59" s="115"/>
+      <c r="T58" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="B59" s="105"/>
+      <c r="C59" s="108"/>
+      <c r="F59" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="R59" s="131"/>
-    </row>
-    <row r="60" spans="2:18">
-      <c r="B60" s="113"/>
-      <c r="C60" s="115"/>
+      <c r="T59" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="B60" s="105"/>
+      <c r="C60" s="108"/>
+      <c r="F60" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="R60" s="131"/>
+      <c r="T60" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:24">
+      <c r="F61" s="110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="15:24">
+      <c r="O62" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="15:24">
+      <c r="O63" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="15:24">
+      <c r="O64" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="15:24">
+      <c r="O65" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="15:24">
+      <c r="O66" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="15:24">
+      <c r="O67" s="93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="20:24">
+      <c r="T68" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="20:24">
+      <c r="T69" s="93">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="22:24">
+      <c r="V70" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="22:24">
+      <c r="V71" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="22:24">
+      <c r="V72" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="22:24">
+      <c r="V73" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="22:24">
+      <c r="V74" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="22:22">
+      <c r="V75" s="93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6518,7 +7189,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -7070,7 +7741,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
@@ -7100,7 +7771,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
@@ -7550,7 +8221,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -8031,7 +8702,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -8198,7 +8869,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="42"/>
       <c r="C58" s="31"/>

--- a/2_metal_balance/data/2-4假数据.xlsx
+++ b/2_metal_balance/data/2-4假数据.xlsx
@@ -445,17 +445,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -577,8 +577,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -593,19 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -613,9 +612,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,24 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,20 +665,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,19 +688,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,7 +757,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,25 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,121 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,7 +1098,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,23 +1120,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1144,11 +1146,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,16 +1168,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1187,158 +1187,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1348,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,16 +1385,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,28 +1424,28 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,22 +1454,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,22 +1478,22 @@
     <xf numFmtId="182" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1508,102 +1508,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,101 +1664,80 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1769,10 +1748,10 @@
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 21" xfId="1"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
-    <cellStyle name="常规 19" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 19" xfId="2"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="3"/>
+    <cellStyle name="常规 21" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -2116,14 +2095,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="$A35:$XFD137 F26:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -2193,7 +2172,7 @@
       <c r="J1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="110" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="93" t="s">
@@ -2217,64 +2196,64 @@
       <c r="R1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="117" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="117" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="121" t="s">
+      <c r="W1" s="117" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="133" t="s">
+      <c r="Y1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="133" t="s">
+      <c r="Z1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="133" t="s">
+      <c r="AA1" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="133" t="s">
+      <c r="AB1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="133" t="s">
+      <c r="AC1" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="133" t="s">
+      <c r="AD1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="133" t="s">
+      <c r="AE1" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="110" t="s">
+      <c r="AF1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="110" t="s">
+      <c r="AG1" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="110" t="s">
+      <c r="AH1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="136" t="s">
+      <c r="AI1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
     </row>
     <row r="2" s="87" customFormat="1" ht="13.5" spans="1:42">
       <c r="A2" s="93" t="s">
@@ -2289,91 +2268,91 @@
       <c r="D2" s="97">
         <v>35937.151</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="105">
         <v>22.6041151676158</v>
       </c>
-      <c r="F2" s="110">
+      <c r="F2" s="106">
         <f>D2*E2/100</f>
         <v>8123.27499999999</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="105">
         <v>2.19185432924274</v>
       </c>
-      <c r="H2" s="110">
+      <c r="H2" s="106">
         <f>D2*G2</f>
         <v>78769.0000000001</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="105">
         <v>140.355867386371</v>
       </c>
-      <c r="J2" s="110">
+      <c r="J2" s="106">
         <f>D2*I2</f>
         <v>5043989.99999999</v>
       </c>
-      <c r="K2" s="115">
+      <c r="K2" s="111">
         <v>98261.76</v>
       </c>
-      <c r="L2" s="116">
+      <c r="L2" s="112">
         <v>24.2726203608014</v>
       </c>
       <c r="M2" s="93">
         <f>K2*L2/100</f>
         <v>23850.7039646418</v>
       </c>
-      <c r="N2" s="116">
+      <c r="N2" s="112">
         <v>92.9671083191764</v>
       </c>
       <c r="O2" s="93">
         <f>K2*N2</f>
         <v>9135111.68555292</v>
       </c>
-      <c r="P2" s="116">
+      <c r="P2" s="112">
         <v>1.25527756354161</v>
       </c>
       <c r="Q2" s="93">
         <f>K2*P2</f>
         <v>123345.78268211</v>
       </c>
-      <c r="R2" s="122">
+      <c r="R2" s="118">
         <v>32284.196</v>
       </c>
-      <c r="S2" s="123">
+      <c r="S2" s="119">
         <v>22.5243831378053</v>
       </c>
       <c r="T2" s="93">
         <f>R2*S2/100</f>
         <v>7271.81600000001</v>
       </c>
-      <c r="U2" s="123">
+      <c r="U2" s="119">
         <v>139.629960120425</v>
       </c>
       <c r="V2" s="93">
         <f t="shared" ref="V2:V10" si="0">R2*U2</f>
         <v>4507840.99999999</v>
       </c>
-      <c r="W2" s="123">
+      <c r="W2" s="119">
         <v>1.28195851617305</v>
       </c>
       <c r="X2" s="93">
         <f>R2*W2</f>
         <v>41386.9999999999</v>
       </c>
-      <c r="Y2" s="133">
+      <c r="Y2" s="125">
         <f>D2+K2-R2</f>
         <v>101914.715</v>
       </c>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="133">
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="125">
         <f>(D2*E2+K2*L2-R2*S2)</f>
         <v>2470216.29646418</v>
       </c>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="133">
-        <f t="shared" ref="AC2:AC13" si="1">(D2*I2+K2*N2-R2*U2)</f>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="125">
+        <f t="shared" ref="AC2:AC14" si="1">(D2*I2+K2*N2-R2*U2)</f>
         <v>9671260.68555292</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="133">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="125">
         <f>(D2*G2+K2*P2-R2*W2)</f>
         <v>160727.782682111</v>
       </c>
@@ -2388,13 +2367,13 @@
         <v>90</v>
       </c>
       <c r="AI2" s="93"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="137"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
     </row>
     <row r="3" ht="13.5" spans="1:42">
       <c r="A3" s="93" t="s">
@@ -2409,85 +2388,85 @@
       <c r="D3" s="97">
         <v>187.616</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="105">
         <v>60.3967678662801</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="106">
         <f t="shared" ref="F3:F33" si="2">D3*E3/100</f>
         <v>113.314</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="105">
         <v>0.4583830803343</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="106">
         <f t="shared" ref="H3:H33" si="3">D3*G3</f>
         <v>86</v>
       </c>
-      <c r="I3" s="109">
+      <c r="I3" s="105">
         <v>140.734265734266</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="106">
         <f t="shared" ref="J3:J8" si="4">D3*I3</f>
         <v>26404.0000000001</v>
       </c>
-      <c r="K3" s="115">
-        <v>0</v>
-      </c>
-      <c r="L3" s="117"/>
+      <c r="K3" s="111">
+        <v>0</v>
+      </c>
+      <c r="L3" s="113"/>
       <c r="M3" s="93">
         <f t="shared" ref="M3:M33" si="5">K3*L3/100</f>
         <v>0</v>
       </c>
-      <c r="N3" s="117"/>
+      <c r="N3" s="113"/>
       <c r="O3" s="93">
         <f t="shared" ref="O3:O33" si="6">K3*N3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="117"/>
+      <c r="P3" s="113"/>
       <c r="Q3" s="93">
         <f t="shared" ref="Q3:Q33" si="7">K3*P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="122">
+      <c r="R3" s="118">
         <v>187.616</v>
       </c>
-      <c r="S3" s="123">
+      <c r="S3" s="119">
         <v>60.3967678662801</v>
       </c>
       <c r="T3" s="93">
         <f t="shared" ref="T3:T33" si="8">R3*S3/100</f>
         <v>113.314</v>
       </c>
-      <c r="U3" s="123">
+      <c r="U3" s="119">
         <v>140.734265734266</v>
       </c>
       <c r="V3" s="93">
         <f t="shared" si="0"/>
         <v>26404.0000000001</v>
       </c>
-      <c r="W3" s="123">
+      <c r="W3" s="119">
         <v>0.4583830803343</v>
       </c>
       <c r="X3" s="93">
         <f t="shared" ref="X3:X33" si="9">R3*W3</f>
         <v>86</v>
       </c>
-      <c r="Y3" s="133">
+      <c r="Y3" s="125">
         <f t="shared" ref="Y3:Y33" si="10">D3+K3-R3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="133">
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="125">
         <f t="shared" ref="AA3:AA33" si="11">(D3*E3+K3*L3-R3*S3)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="133">
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="133">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="125">
         <f t="shared" ref="AE3:AE33" si="12">(D3*G3+K3*P3-R3*W3)</f>
         <v>0</v>
       </c>
@@ -2495,13 +2474,13 @@
       <c r="AG3" s="93"/>
       <c r="AH3" s="93"/>
       <c r="AI3" s="93"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
     </row>
     <row r="4" ht="13.5" spans="1:42">
       <c r="A4" s="93" t="s">
@@ -2516,75 +2495,75 @@
       <c r="D4" s="97">
         <v>4.04</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="105">
         <v>78.960396039604</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F4" s="106">
         <f t="shared" si="2"/>
         <v>3.19</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="110">
+      <c r="G4" s="107"/>
+      <c r="H4" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I4" s="109">
+      <c r="I4" s="105">
         <v>6948.0198019802</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J4" s="106">
         <f t="shared" si="4"/>
         <v>28070</v>
       </c>
-      <c r="K4" s="115">
-        <v>0</v>
-      </c>
-      <c r="L4" s="117"/>
+      <c r="K4" s="111">
+        <v>0</v>
+      </c>
+      <c r="L4" s="113"/>
       <c r="M4" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N4" s="117"/>
+      <c r="N4" s="113"/>
       <c r="O4" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P4" s="117"/>
+      <c r="P4" s="113"/>
       <c r="Q4" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="125"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="121"/>
       <c r="T4" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U4" s="125"/>
+      <c r="U4" s="121"/>
       <c r="V4" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="125"/>
+      <c r="W4" s="121"/>
       <c r="X4" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="133">
+      <c r="Y4" s="125">
         <f t="shared" si="10"/>
         <v>4.04</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="133">
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="125">
         <f t="shared" si="11"/>
         <v>319</v>
       </c>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="133">
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="125">
         <f t="shared" si="1"/>
         <v>28070</v>
       </c>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="133">
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -2592,13 +2571,13 @@
       <c r="AG4" s="93"/>
       <c r="AH4" s="93"/>
       <c r="AI4" s="93"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
     </row>
     <row r="5" ht="13.5" spans="1:42">
       <c r="A5" s="93" t="s">
@@ -2611,85 +2590,85 @@
         <v>39</v>
       </c>
       <c r="D5" s="99"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="110">
+      <c r="E5" s="108"/>
+      <c r="F5" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110">
+      <c r="G5" s="105"/>
+      <c r="H5" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="110">
+      <c r="I5" s="108"/>
+      <c r="J5" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="115">
+      <c r="K5" s="111">
         <v>125.66</v>
       </c>
-      <c r="L5" s="116">
+      <c r="L5" s="112">
         <v>64.5260332796565</v>
       </c>
       <c r="M5" s="93">
         <f t="shared" si="5"/>
         <v>81.0834134192164</v>
       </c>
-      <c r="N5" s="116">
+      <c r="N5" s="112">
         <v>581.29898013956</v>
       </c>
       <c r="O5" s="93">
         <f t="shared" si="6"/>
         <v>73046.0298443371</v>
       </c>
-      <c r="P5" s="116">
+      <c r="P5" s="112">
         <v>0.128824476650564</v>
       </c>
       <c r="Q5" s="93">
         <f t="shared" si="7"/>
         <v>16.1880837359099</v>
       </c>
-      <c r="R5" s="122">
+      <c r="R5" s="118">
         <v>93.15</v>
       </c>
-      <c r="S5" s="123">
+      <c r="S5" s="119">
         <v>64.5260332796565</v>
       </c>
       <c r="T5" s="93">
         <f t="shared" si="8"/>
         <v>60.106</v>
       </c>
-      <c r="U5" s="123">
+      <c r="U5" s="119">
         <v>581.29898013956</v>
       </c>
       <c r="V5" s="93">
         <f t="shared" si="0"/>
         <v>54148</v>
       </c>
-      <c r="W5" s="123">
+      <c r="W5" s="119">
         <v>0.128824476650564</v>
       </c>
       <c r="X5" s="93">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="Y5" s="133">
+      <c r="Y5" s="125">
         <f t="shared" si="10"/>
         <v>32.51</v>
       </c>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="133">
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="125">
         <f t="shared" si="11"/>
         <v>2097.74134192163</v>
       </c>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="133">
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="125">
         <f t="shared" si="1"/>
         <v>18898.0298443371</v>
       </c>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="133">
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="125">
         <f t="shared" si="12"/>
         <v>4.18808373590984</v>
       </c>
@@ -2697,13 +2676,13 @@
       <c r="AG5" s="93"/>
       <c r="AH5" s="93"/>
       <c r="AI5" s="93"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
     </row>
     <row r="6" ht="13.5" spans="1:42">
       <c r="A6" s="93" t="s">
@@ -2718,77 +2697,77 @@
       <c r="D6" s="97">
         <v>109.783</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="105">
         <v>0.909976954537588</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="106">
         <f t="shared" si="2"/>
         <v>0.999</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="105">
         <v>0.628512611242178</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="106">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="I6" s="109">
+      <c r="I6" s="105">
         <v>60.4009728282157</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="106">
         <f t="shared" si="4"/>
         <v>6631</v>
       </c>
-      <c r="K6" s="115">
-        <v>0</v>
-      </c>
-      <c r="L6" s="117"/>
+      <c r="K6" s="111">
+        <v>0</v>
+      </c>
+      <c r="L6" s="113"/>
       <c r="M6" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="118"/>
+      <c r="N6" s="114"/>
       <c r="O6" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="118"/>
+      <c r="P6" s="114"/>
       <c r="Q6" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R6" s="115"/>
-      <c r="S6" s="126"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U6" s="126"/>
+      <c r="U6" s="122"/>
       <c r="V6" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="126"/>
+      <c r="W6" s="122"/>
       <c r="X6" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="133">
+      <c r="Y6" s="125">
         <f t="shared" si="10"/>
         <v>109.783</v>
       </c>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="133">
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="125">
         <f t="shared" si="11"/>
         <v>99.9</v>
       </c>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="133">
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="125">
         <f t="shared" si="1"/>
         <v>6631</v>
       </c>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="133">
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="125">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
@@ -2796,13 +2775,13 @@
       <c r="AG6" s="93"/>
       <c r="AH6" s="93"/>
       <c r="AI6" s="93"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
     </row>
     <row r="7" s="88" customFormat="1" ht="14.25" spans="1:42">
       <c r="A7" s="93" t="s">
@@ -2817,93 +2796,93 @@
       <c r="D7" s="97">
         <v>39.18</v>
       </c>
-      <c r="E7" s="109">
+      <c r="E7" s="105">
         <v>99.02</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="106">
         <f t="shared" si="2"/>
         <v>38.796036</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="G7" s="105"/>
+      <c r="H7" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110">
+      <c r="I7" s="105"/>
+      <c r="J7" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="111">
         <v>3.34</v>
       </c>
-      <c r="L7" s="116">
+      <c r="L7" s="112">
         <v>99.99</v>
       </c>
       <c r="M7" s="93">
         <f t="shared" si="5"/>
         <v>3.339666</v>
       </c>
-      <c r="N7" s="118"/>
+      <c r="N7" s="114"/>
       <c r="O7" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="118"/>
+      <c r="P7" s="114"/>
       <c r="Q7" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R7" s="122">
+      <c r="R7" s="118">
         <v>20.16</v>
       </c>
-      <c r="S7" s="123">
+      <c r="S7" s="119">
         <v>99.02</v>
       </c>
       <c r="T7" s="93">
         <f t="shared" si="8"/>
         <v>19.962432</v>
       </c>
-      <c r="U7" s="123"/>
+      <c r="U7" s="119"/>
       <c r="V7" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="123"/>
+      <c r="W7" s="119"/>
       <c r="X7" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="133">
+      <c r="Y7" s="125">
         <f t="shared" si="10"/>
         <v>22.36</v>
       </c>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="133">
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="125">
         <f t="shared" si="11"/>
         <v>2217.327</v>
       </c>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="133">
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="133">
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="110"/>
+      <c r="AF7" s="106"/>
       <c r="AG7" s="93"/>
       <c r="AH7" s="93"/>
       <c r="AI7" s="93"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="138"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
     </row>
     <row r="8" ht="13.5" spans="1:42">
       <c r="A8" s="93" t="s">
@@ -2918,85 +2897,85 @@
       <c r="D8" s="97">
         <v>528.902</v>
       </c>
-      <c r="E8" s="109">
+      <c r="E8" s="105">
         <v>24.2</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="106">
         <f t="shared" si="2"/>
         <v>127.994284</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="105">
         <v>0.2</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="106">
         <f t="shared" si="3"/>
         <v>105.7804</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="105">
         <v>41.2</v>
       </c>
-      <c r="J8" s="110">
+      <c r="J8" s="106">
         <f t="shared" si="4"/>
         <v>21790.7624</v>
       </c>
-      <c r="K8" s="115">
+      <c r="K8" s="111">
         <v>5022.1</v>
       </c>
-      <c r="L8" s="118"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="118"/>
+      <c r="N8" s="114"/>
       <c r="O8" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="118"/>
+      <c r="P8" s="114"/>
       <c r="Q8" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R8" s="122">
+      <c r="R8" s="118">
         <v>637.171185</v>
       </c>
-      <c r="S8" s="123">
+      <c r="S8" s="119">
         <v>24.8</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="8"/>
         <v>158.01845388</v>
       </c>
-      <c r="U8" s="123">
+      <c r="U8" s="119">
         <v>39.88</v>
       </c>
       <c r="V8" s="93">
         <f t="shared" si="0"/>
         <v>25410.3868578</v>
       </c>
-      <c r="W8" s="123">
+      <c r="W8" s="119">
         <v>0.32</v>
       </c>
       <c r="X8" s="93">
         <f t="shared" si="9"/>
         <v>203.8947792</v>
       </c>
-      <c r="Y8" s="133">
+      <c r="Y8" s="125">
         <f t="shared" si="10"/>
         <v>4913.830815</v>
       </c>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="133">
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="125">
         <f t="shared" si="11"/>
         <v>-3002.416988</v>
       </c>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="133">
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="125">
         <f t="shared" si="1"/>
         <v>-3619.6244578</v>
       </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="133">
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="125">
         <f t="shared" si="12"/>
         <v>-98.1143792</v>
       </c>
@@ -3004,13 +2983,13 @@
       <c r="AG8" s="93"/>
       <c r="AH8" s="93"/>
       <c r="AI8" s="93"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
+      <c r="AJ8" s="129"/>
+      <c r="AK8" s="129"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="129"/>
+      <c r="AN8" s="129"/>
+      <c r="AO8" s="129"/>
+      <c r="AP8" s="129"/>
     </row>
     <row r="9" ht="13.5" spans="1:42">
       <c r="A9" s="93" t="s">
@@ -3025,85 +3004,85 @@
       <c r="D9" s="97">
         <v>376.2</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="109">
         <v>73.62</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="106">
         <f t="shared" si="2"/>
         <v>276.95844</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="109">
         <v>8.97</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="106">
         <f t="shared" si="3"/>
         <v>3374.514</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="109">
         <v>237.5</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="106">
         <f t="shared" ref="J9:J33" si="13">D9*I9</f>
         <v>89347.5</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="115">
         <v>39.6</v>
       </c>
-      <c r="L9" s="120"/>
+      <c r="L9" s="116"/>
       <c r="M9" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="120"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="120"/>
+      <c r="P9" s="116"/>
       <c r="Q9" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R9" s="122">
+      <c r="R9" s="118">
         <v>415.8</v>
       </c>
-      <c r="S9" s="127">
+      <c r="S9" s="123">
         <v>73.99</v>
       </c>
       <c r="T9" s="93">
         <f t="shared" si="8"/>
         <v>307.65042</v>
       </c>
-      <c r="U9" s="127">
+      <c r="U9" s="123">
         <v>264.9</v>
       </c>
       <c r="V9" s="93">
         <f t="shared" si="0"/>
         <v>110145.42</v>
       </c>
-      <c r="W9" s="127">
+      <c r="W9" s="123">
         <v>5.32</v>
       </c>
       <c r="X9" s="93">
         <f t="shared" si="9"/>
         <v>2212.056</v>
       </c>
-      <c r="Y9" s="133">
+      <c r="Y9" s="125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="133">
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="125">
         <f t="shared" si="11"/>
         <v>-3069.198</v>
       </c>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="133">
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="125">
         <f t="shared" si="1"/>
         <v>-20797.92</v>
       </c>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="133">
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="125">
         <f t="shared" si="12"/>
         <v>1162.458</v>
       </c>
@@ -3111,13 +3090,13 @@
       <c r="AG9" s="93"/>
       <c r="AH9" s="93"/>
       <c r="AI9" s="93"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="105"/>
-      <c r="AO9" s="105"/>
-      <c r="AP9" s="105"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="129"/>
+      <c r="AO9" s="129"/>
+      <c r="AP9" s="129"/>
     </row>
     <row r="10" ht="13.5" spans="1:42">
       <c r="A10" s="93" t="s">
@@ -3132,85 +3111,85 @@
       <c r="D10" s="97">
         <v>215.27</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="109">
         <v>1.89</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="106">
         <f t="shared" si="2"/>
         <v>4.068603</v>
       </c>
-      <c r="G10" s="113">
+      <c r="G10" s="109">
         <v>0.06</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="106">
         <f t="shared" si="3"/>
         <v>12.9162</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="109">
         <v>5.6</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="106">
         <f t="shared" si="13"/>
         <v>1205.512</v>
       </c>
-      <c r="K10" s="115">
-        <v>0</v>
-      </c>
-      <c r="L10" s="120"/>
+      <c r="K10" s="111">
+        <v>0</v>
+      </c>
+      <c r="L10" s="116"/>
       <c r="M10" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="120"/>
+      <c r="N10" s="116"/>
       <c r="O10" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P10" s="120"/>
+      <c r="P10" s="116"/>
       <c r="Q10" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10" s="122">
+      <c r="R10" s="118">
         <v>209</v>
       </c>
-      <c r="S10" s="127">
+      <c r="S10" s="123">
         <v>1.89</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="8"/>
         <v>3.9501</v>
       </c>
-      <c r="U10" s="127">
+      <c r="U10" s="123">
         <v>6.1</v>
       </c>
       <c r="V10" s="93">
         <f t="shared" si="0"/>
         <v>1274.9</v>
       </c>
-      <c r="W10" s="127">
+      <c r="W10" s="123">
         <v>0.05</v>
       </c>
       <c r="X10" s="93">
         <f t="shared" si="9"/>
         <v>10.45</v>
       </c>
-      <c r="Y10" s="133">
+      <c r="Y10" s="125">
         <f t="shared" si="10"/>
         <v>6.27000000000001</v>
       </c>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="133">
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="125">
         <f t="shared" si="11"/>
         <v>11.8503</v>
       </c>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="133">
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="125">
         <f t="shared" si="1"/>
         <v>-69.3879999999999</v>
       </c>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="133">
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="125">
         <f t="shared" si="12"/>
         <v>2.4662</v>
       </c>
@@ -3218,13 +3197,13 @@
       <c r="AG10" s="93"/>
       <c r="AH10" s="93"/>
       <c r="AI10" s="93"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="105"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
     </row>
     <row r="11" ht="13.5" spans="1:42">
       <c r="A11" s="93" t="s">
@@ -3237,79 +3216,79 @@
         <v>46</v>
       </c>
       <c r="D11" s="97"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="110">
+      <c r="E11" s="109"/>
+      <c r="F11" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="110">
+      <c r="G11" s="109"/>
+      <c r="H11" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="110">
+      <c r="I11" s="109"/>
+      <c r="J11" s="106">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K11" s="115">
-        <v>0</v>
-      </c>
-      <c r="L11" s="120"/>
+      <c r="K11" s="111">
+        <v>0</v>
+      </c>
+      <c r="L11" s="116"/>
       <c r="M11" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="120"/>
+      <c r="N11" s="116"/>
       <c r="O11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="120"/>
+      <c r="P11" s="116"/>
       <c r="Q11" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R11" s="122">
+      <c r="R11" s="118">
         <v>148.32</v>
       </c>
-      <c r="S11" s="127">
+      <c r="S11" s="123">
         <v>1.89</v>
       </c>
       <c r="T11" s="93">
         <f t="shared" si="8"/>
         <v>2.803248</v>
       </c>
-      <c r="U11" s="127">
+      <c r="U11" s="123">
         <v>6.1</v>
       </c>
       <c r="V11" s="93">
         <f t="shared" ref="V11:V42" si="14">R11*U11</f>
         <v>904.752</v>
       </c>
-      <c r="W11" s="127">
+      <c r="W11" s="123">
         <v>0.05</v>
       </c>
       <c r="X11" s="93">
         <f t="shared" si="9"/>
         <v>7.416</v>
       </c>
-      <c r="Y11" s="133">
+      <c r="Y11" s="125">
         <f t="shared" si="10"/>
         <v>-148.32</v>
       </c>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="133">
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="125">
         <f t="shared" si="11"/>
         <v>-280.3248</v>
       </c>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="133">
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="125">
         <f t="shared" si="1"/>
         <v>-904.752</v>
       </c>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="133">
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="125">
         <f t="shared" si="12"/>
         <v>-7.416</v>
       </c>
@@ -3317,13 +3296,13 @@
       <c r="AG11" s="93"/>
       <c r="AH11" s="93"/>
       <c r="AI11" s="93"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="129"/>
     </row>
     <row r="12" ht="13.5" spans="1:42">
       <c r="A12" s="93" t="s">
@@ -3338,85 +3317,85 @@
       <c r="D12" s="101">
         <v>237</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="109">
         <v>12.71</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="106">
         <f t="shared" si="2"/>
         <v>30.1227</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="109">
         <v>1.15</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="106">
         <f t="shared" si="3"/>
         <v>272.55</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="109">
         <v>130.6</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="106">
         <f t="shared" si="13"/>
         <v>30952.2</v>
       </c>
-      <c r="K12" s="115">
+      <c r="K12" s="111">
         <v>721.29</v>
       </c>
-      <c r="L12" s="120"/>
+      <c r="L12" s="116"/>
       <c r="M12" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="120"/>
+      <c r="N12" s="116"/>
       <c r="O12" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P12" s="120"/>
+      <c r="P12" s="116"/>
       <c r="Q12" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R12" s="122">
+      <c r="R12" s="118">
         <v>33.3</v>
       </c>
-      <c r="S12" s="127">
+      <c r="S12" s="123">
         <v>11.5</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="8"/>
         <v>3.8295</v>
       </c>
-      <c r="U12" s="127">
+      <c r="U12" s="123">
         <v>118.6</v>
       </c>
       <c r="V12" s="93">
         <f t="shared" si="14"/>
         <v>3949.38</v>
       </c>
-      <c r="W12" s="127">
+      <c r="W12" s="123">
         <v>0.67</v>
       </c>
       <c r="X12" s="93">
         <f t="shared" si="9"/>
         <v>22.311</v>
       </c>
-      <c r="Y12" s="133">
+      <c r="Y12" s="125">
         <f t="shared" si="10"/>
         <v>924.99</v>
       </c>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="133">
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="125">
         <f t="shared" si="11"/>
         <v>2629.32</v>
       </c>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="133">
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="125">
         <f t="shared" si="1"/>
         <v>27002.82</v>
       </c>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="133">
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="125">
         <f t="shared" si="12"/>
         <v>250.239</v>
       </c>
@@ -3424,13 +3403,13 @@
       <c r="AG12" s="93"/>
       <c r="AH12" s="93"/>
       <c r="AI12" s="93"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="105"/>
+      <c r="AJ12" s="129"/>
+      <c r="AK12" s="129"/>
+      <c r="AL12" s="129"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="129"/>
     </row>
     <row r="13" ht="13.5" spans="1:42">
       <c r="A13" s="93" t="s">
@@ -3445,85 +3424,85 @@
       <c r="D13" s="101">
         <v>438.54</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="109">
         <v>99.01</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="106">
         <f t="shared" si="2"/>
         <v>434.198454</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="109">
         <v>12.02</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H13" s="106">
         <f t="shared" si="3"/>
         <v>5271.2508</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="109">
         <v>315</v>
       </c>
-      <c r="J13" s="110">
+      <c r="J13" s="106">
         <f t="shared" si="13"/>
         <v>138140.1</v>
       </c>
-      <c r="K13" s="115">
+      <c r="K13" s="111">
         <v>99.41</v>
       </c>
-      <c r="L13" s="120"/>
+      <c r="L13" s="116"/>
       <c r="M13" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N13" s="120"/>
+      <c r="N13" s="116"/>
       <c r="O13" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="120"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R13" s="122">
+      <c r="R13" s="118">
         <v>537.95</v>
       </c>
-      <c r="S13" s="127">
+      <c r="S13" s="123">
         <v>98.95</v>
       </c>
       <c r="T13" s="93">
         <f t="shared" si="8"/>
         <v>532.301525</v>
       </c>
-      <c r="U13" s="127">
+      <c r="U13" s="123">
         <v>420.4</v>
       </c>
       <c r="V13" s="93">
         <f t="shared" si="14"/>
         <v>226154.18</v>
       </c>
-      <c r="W13" s="127">
+      <c r="W13" s="123">
         <v>9.12</v>
       </c>
       <c r="X13" s="93">
         <f t="shared" si="9"/>
         <v>4906.104</v>
       </c>
-      <c r="Y13" s="133">
+      <c r="Y13" s="125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="133">
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="125">
         <f t="shared" si="11"/>
         <v>-9810.3071</v>
       </c>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="133">
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="125">
         <f t="shared" si="1"/>
         <v>-88014.08</v>
       </c>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="133">
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="125">
         <f t="shared" si="12"/>
         <v>365.1468</v>
       </c>
@@ -3531,13 +3510,13 @@
       <c r="AG13" s="93"/>
       <c r="AH13" s="93"/>
       <c r="AI13" s="93"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="105"/>
+      <c r="AJ13" s="129"/>
+      <c r="AK13" s="129"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129"/>
     </row>
     <row r="14" ht="13.5" spans="1:42">
       <c r="A14" s="93" t="s">
@@ -3552,85 +3531,85 @@
       <c r="D14" s="101">
         <v>161.13</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="109">
         <v>30.51</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="106">
         <f t="shared" si="2"/>
         <v>49.160763</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="109">
         <v>0.15</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="106">
         <f t="shared" si="3"/>
         <v>24.1695</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="109">
         <v>13.9</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="106">
         <f t="shared" si="13"/>
         <v>2239.707</v>
       </c>
-      <c r="K14" s="115">
-        <v>0</v>
-      </c>
-      <c r="L14" s="120"/>
+      <c r="K14" s="111">
+        <v>0</v>
+      </c>
+      <c r="L14" s="116"/>
       <c r="M14" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N14" s="120"/>
+      <c r="N14" s="116"/>
       <c r="O14" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="120"/>
+      <c r="P14" s="116"/>
       <c r="Q14" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R14" s="122">
+      <c r="R14" s="118">
         <v>136.06</v>
       </c>
-      <c r="S14" s="127">
+      <c r="S14" s="123">
         <v>32.79</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="8"/>
         <v>44.614074</v>
       </c>
-      <c r="U14" s="127">
+      <c r="U14" s="123">
         <v>16.7</v>
       </c>
       <c r="V14" s="93">
         <f t="shared" si="14"/>
         <v>2272.202</v>
       </c>
-      <c r="W14" s="127">
+      <c r="W14" s="123">
         <v>0.05</v>
       </c>
       <c r="X14" s="93">
         <f t="shared" si="9"/>
         <v>6.803</v>
       </c>
-      <c r="Y14" s="133">
+      <c r="Y14" s="125">
         <f t="shared" si="10"/>
         <v>25.07</v>
       </c>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="133">
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="125">
         <f t="shared" si="11"/>
         <v>454.6689</v>
       </c>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="133">
-        <f>(D14*I14+K14*N14-R14*U14)</f>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="125">
+        <f t="shared" si="1"/>
         <v>-32.4949999999999</v>
       </c>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="133">
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="125">
         <f t="shared" si="12"/>
         <v>17.3665</v>
       </c>
@@ -3638,13 +3617,13 @@
       <c r="AG14" s="93"/>
       <c r="AH14" s="93"/>
       <c r="AI14" s="93"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
+      <c r="AJ14" s="129"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="129"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="129"/>
     </row>
     <row r="15" ht="13.5" spans="1:42">
       <c r="A15" s="93" t="s">
@@ -3659,85 +3638,85 @@
       <c r="D15" s="101">
         <v>312.5</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="109">
         <v>30.51</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="106">
         <f t="shared" si="2"/>
         <v>95.34375</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="109">
         <v>0.15</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="106">
         <f t="shared" si="3"/>
         <v>46.875</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="109">
         <v>13.9</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="106">
         <f t="shared" si="13"/>
         <v>4343.75</v>
       </c>
-      <c r="K15" s="115">
+      <c r="K15" s="111">
         <v>3399.43</v>
       </c>
-      <c r="L15" s="120"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N15" s="120"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="120"/>
+      <c r="P15" s="116"/>
       <c r="Q15" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R15" s="122">
+      <c r="R15" s="118">
         <v>53.6</v>
       </c>
-      <c r="S15" s="127">
+      <c r="S15" s="123">
         <v>32.79</v>
       </c>
       <c r="T15" s="93">
         <f t="shared" si="8"/>
         <v>17.57544</v>
       </c>
-      <c r="U15" s="127">
+      <c r="U15" s="123">
         <v>16.7</v>
       </c>
       <c r="V15" s="93">
         <f t="shared" si="14"/>
         <v>895.12</v>
       </c>
-      <c r="W15" s="127">
+      <c r="W15" s="123">
         <v>0.05</v>
       </c>
       <c r="X15" s="93">
         <f t="shared" si="9"/>
         <v>2.68</v>
       </c>
-      <c r="Y15" s="133">
+      <c r="Y15" s="125">
         <f t="shared" si="10"/>
         <v>3658.33</v>
       </c>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="133">
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="125">
         <f t="shared" si="11"/>
         <v>7776.831</v>
       </c>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="133">
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="125">
         <f t="shared" ref="AC15:AC33" si="15">(D15*I15+K15*N15-R15*U15)</f>
         <v>3448.63</v>
       </c>
-      <c r="AD15" s="134"/>
-      <c r="AE15" s="133">
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="125">
         <f t="shared" si="12"/>
         <v>44.195</v>
       </c>
@@ -3745,13 +3724,13 @@
       <c r="AG15" s="93"/>
       <c r="AH15" s="93"/>
       <c r="AI15" s="93"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="129"/>
+      <c r="AL15" s="129"/>
+      <c r="AM15" s="129"/>
+      <c r="AN15" s="129"/>
+      <c r="AO15" s="129"/>
+      <c r="AP15" s="129"/>
     </row>
     <row r="16" ht="13.5" spans="1:42">
       <c r="A16" s="93" t="s">
@@ -3766,85 +3745,85 @@
       <c r="D16" s="101">
         <v>63</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="109">
         <v>12.71</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="106">
         <f t="shared" si="2"/>
         <v>8.0073</v>
       </c>
-      <c r="G16" s="113">
+      <c r="G16" s="109">
         <v>1.15</v>
       </c>
-      <c r="H16" s="110">
+      <c r="H16" s="106">
         <f t="shared" si="3"/>
         <v>72.45</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="109">
         <v>130.6</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="106">
         <f t="shared" si="13"/>
         <v>8227.8</v>
       </c>
-      <c r="K16" s="115">
+      <c r="K16" s="111">
         <v>335.66</v>
       </c>
-      <c r="L16" s="118"/>
+      <c r="L16" s="114"/>
       <c r="M16" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="118"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="118"/>
+      <c r="P16" s="114"/>
       <c r="Q16" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R16" s="122">
+      <c r="R16" s="118">
         <v>11.7</v>
       </c>
-      <c r="S16" s="127">
+      <c r="S16" s="123">
         <v>11.5</v>
       </c>
       <c r="T16" s="93">
         <f t="shared" si="8"/>
         <v>1.3455</v>
       </c>
-      <c r="U16" s="127">
+      <c r="U16" s="123">
         <v>118.6</v>
       </c>
       <c r="V16" s="93">
         <f t="shared" si="14"/>
         <v>1387.62</v>
       </c>
-      <c r="W16" s="127">
+      <c r="W16" s="123">
         <v>0.67</v>
       </c>
       <c r="X16" s="93">
         <f t="shared" si="9"/>
         <v>7.839</v>
       </c>
-      <c r="Y16" s="133">
+      <c r="Y16" s="125">
         <f t="shared" si="10"/>
         <v>386.96</v>
       </c>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="133">
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="125">
         <f t="shared" si="11"/>
         <v>666.18</v>
       </c>
-      <c r="AB16" s="134"/>
-      <c r="AC16" s="133">
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="125">
         <f t="shared" si="15"/>
         <v>6840.18</v>
       </c>
-      <c r="AD16" s="134"/>
-      <c r="AE16" s="133">
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="125">
         <f t="shared" si="12"/>
         <v>64.611</v>
       </c>
@@ -3852,13 +3831,13 @@
       <c r="AG16" s="93"/>
       <c r="AH16" s="93"/>
       <c r="AI16" s="93"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
-      <c r="AM16" s="105"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="105"/>
-      <c r="AP16" s="105"/>
+      <c r="AJ16" s="129"/>
+      <c r="AK16" s="129"/>
+      <c r="AL16" s="129"/>
+      <c r="AM16" s="129"/>
+      <c r="AN16" s="129"/>
+      <c r="AO16" s="129"/>
+      <c r="AP16" s="129"/>
     </row>
     <row r="17" ht="13.5" spans="1:42">
       <c r="A17" s="93" t="s">
@@ -3873,85 +3852,85 @@
       <c r="D17" s="101">
         <v>2719.13</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="105">
         <v>7.01934074501771</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="106">
         <f t="shared" si="2"/>
         <v>190.865</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="105">
         <v>0.514870565217551</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="106">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I17" s="105">
         <v>75.2281060486258</v>
       </c>
-      <c r="J17" s="110">
+      <c r="J17" s="106">
         <f t="shared" si="13"/>
         <v>204555</v>
       </c>
-      <c r="K17" s="115">
+      <c r="K17" s="111">
         <v>443.86</v>
       </c>
-      <c r="L17" s="118"/>
+      <c r="L17" s="114"/>
       <c r="M17" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="118"/>
+      <c r="N17" s="114"/>
       <c r="O17" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="118"/>
+      <c r="P17" s="114"/>
       <c r="Q17" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R17" s="122">
+      <c r="R17" s="118">
         <v>3060.67</v>
       </c>
-      <c r="S17" s="123">
+      <c r="S17" s="119">
         <v>6.60652732898352</v>
       </c>
       <c r="T17" s="93">
         <f t="shared" si="8"/>
         <v>202.204</v>
       </c>
-      <c r="U17" s="123">
+      <c r="U17" s="119">
         <v>77.3118304162161</v>
       </c>
       <c r="V17" s="93">
         <f t="shared" si="14"/>
         <v>236626</v>
       </c>
-      <c r="W17" s="123">
+      <c r="W17" s="119">
         <v>0.493356029888881</v>
       </c>
       <c r="X17" s="93">
         <f t="shared" si="9"/>
         <v>1510</v>
       </c>
-      <c r="Y17" s="133">
+      <c r="Y17" s="125">
         <f t="shared" si="10"/>
         <v>102.32</v>
       </c>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="133">
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="125">
         <f t="shared" si="11"/>
         <v>-1133.89999999998</v>
       </c>
-      <c r="AB17" s="134"/>
-      <c r="AC17" s="133">
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="125">
         <f t="shared" si="15"/>
         <v>-32071.0000000002</v>
       </c>
-      <c r="AD17" s="134"/>
-      <c r="AE17" s="133">
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="125">
         <f t="shared" si="12"/>
         <v>-110.000000000002</v>
       </c>
@@ -3959,13 +3938,13 @@
       <c r="AG17" s="93"/>
       <c r="AH17" s="93"/>
       <c r="AI17" s="93"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="105"/>
-      <c r="AP17" s="105"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="129"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="129"/>
     </row>
     <row r="18" ht="13.5" spans="1:42">
       <c r="A18" s="93" t="s">
@@ -3980,85 +3959,85 @@
       <c r="D18" s="97">
         <v>666</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="105">
         <v>99.57</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="106">
         <f t="shared" si="2"/>
         <v>663.1362</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="105">
         <v>11.6</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="106">
         <f t="shared" si="3"/>
         <v>7725.6</v>
       </c>
-      <c r="I18" s="109">
+      <c r="I18" s="105">
         <v>329.29</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="106">
         <f t="shared" si="13"/>
         <v>219307.14</v>
       </c>
-      <c r="K18" s="115">
-        <v>0</v>
-      </c>
-      <c r="L18" s="118"/>
+      <c r="K18" s="111">
+        <v>0</v>
+      </c>
+      <c r="L18" s="114"/>
       <c r="M18" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="118"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="118"/>
+      <c r="P18" s="114"/>
       <c r="Q18" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R18" s="122">
+      <c r="R18" s="118">
         <v>890</v>
       </c>
-      <c r="S18" s="123">
+      <c r="S18" s="119">
         <v>99.51</v>
       </c>
       <c r="T18" s="93">
         <f t="shared" si="8"/>
         <v>885.639</v>
       </c>
-      <c r="U18" s="123">
+      <c r="U18" s="119">
         <v>367.65</v>
       </c>
       <c r="V18" s="93">
         <f t="shared" si="14"/>
         <v>327208.5</v>
       </c>
-      <c r="W18" s="123">
+      <c r="W18" s="119">
         <v>6.65</v>
       </c>
       <c r="X18" s="93">
         <f t="shared" si="9"/>
         <v>5918.5</v>
       </c>
-      <c r="Y18" s="133">
+      <c r="Y18" s="125">
         <f t="shared" si="10"/>
         <v>-224</v>
       </c>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="133">
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="125">
         <f t="shared" si="11"/>
         <v>-22250.28</v>
       </c>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="133">
+      <c r="AB18" s="126"/>
+      <c r="AC18" s="125">
         <f t="shared" si="15"/>
         <v>-107901.36</v>
       </c>
-      <c r="AD18" s="134"/>
-      <c r="AE18" s="133">
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="125">
         <f t="shared" si="12"/>
         <v>1807.1</v>
       </c>
@@ -4066,13 +4045,13 @@
       <c r="AG18" s="93"/>
       <c r="AH18" s="93"/>
       <c r="AI18" s="93"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="105"/>
-      <c r="AM18" s="105"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="105"/>
-      <c r="AP18" s="105"/>
+      <c r="AJ18" s="129"/>
+      <c r="AK18" s="129"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="129"/>
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="129"/>
     </row>
     <row r="19" ht="13.5" spans="1:42">
       <c r="A19" s="93" t="s">
@@ -4087,85 +4066,85 @@
       <c r="D19" s="102">
         <v>283.6</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="105">
         <v>99.57</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="106">
         <f t="shared" si="2"/>
         <v>282.38052</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="105">
         <v>11.6</v>
       </c>
-      <c r="H19" s="110">
+      <c r="H19" s="106">
         <f t="shared" si="3"/>
         <v>3289.76</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="105">
         <v>329.29</v>
       </c>
-      <c r="J19" s="110">
+      <c r="J19" s="106">
         <f t="shared" si="13"/>
         <v>93386.644</v>
       </c>
-      <c r="K19" s="115">
+      <c r="K19" s="111">
         <v>26621.68</v>
       </c>
-      <c r="L19" s="118"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="118"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="118"/>
+      <c r="P19" s="114"/>
       <c r="Q19" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R19" s="122">
+      <c r="R19" s="118">
         <v>822.8</v>
       </c>
-      <c r="S19" s="123">
+      <c r="S19" s="119">
         <v>99.51</v>
       </c>
       <c r="T19" s="93">
         <f t="shared" si="8"/>
         <v>818.76828</v>
       </c>
-      <c r="U19" s="123">
+      <c r="U19" s="119">
         <v>367.65</v>
       </c>
       <c r="V19" s="93">
         <f t="shared" si="14"/>
         <v>302502.42</v>
       </c>
-      <c r="W19" s="123">
+      <c r="W19" s="119">
         <v>6.65</v>
       </c>
       <c r="X19" s="93">
         <f t="shared" si="9"/>
         <v>5471.62</v>
       </c>
-      <c r="Y19" s="133">
+      <c r="Y19" s="125">
         <f t="shared" si="10"/>
         <v>26082.48</v>
       </c>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="133">
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="125">
         <f t="shared" si="11"/>
         <v>-53638.776</v>
       </c>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="133">
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="125">
         <f t="shared" si="15"/>
         <v>-209115.776</v>
       </c>
-      <c r="AD19" s="134"/>
-      <c r="AE19" s="133">
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="125">
         <f t="shared" si="12"/>
         <v>-2181.86</v>
       </c>
@@ -4173,13 +4152,13 @@
       <c r="AG19" s="93"/>
       <c r="AH19" s="93"/>
       <c r="AI19" s="93"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="105"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="105"/>
-      <c r="AP19" s="105"/>
+      <c r="AJ19" s="129"/>
+      <c r="AK19" s="129"/>
+      <c r="AL19" s="129"/>
+      <c r="AM19" s="129"/>
+      <c r="AN19" s="129"/>
+      <c r="AO19" s="129"/>
+      <c r="AP19" s="129"/>
     </row>
     <row r="20" ht="13.5" spans="1:42">
       <c r="A20" s="93" t="s">
@@ -4194,85 +4173,85 @@
       <c r="D20" s="101">
         <v>20.94</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="105">
         <v>99.57</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="106">
         <f t="shared" si="2"/>
         <v>20.849958</v>
       </c>
-      <c r="G20" s="109">
+      <c r="G20" s="105">
         <v>11.6</v>
       </c>
-      <c r="H20" s="110">
+      <c r="H20" s="106">
         <f t="shared" si="3"/>
         <v>242.904</v>
       </c>
-      <c r="I20" s="109">
+      <c r="I20" s="105">
         <v>329.29</v>
       </c>
-      <c r="J20" s="110">
+      <c r="J20" s="106">
         <f t="shared" si="13"/>
         <v>6895.3326</v>
       </c>
-      <c r="K20" s="115">
-        <v>0</v>
-      </c>
-      <c r="L20" s="118"/>
+      <c r="K20" s="111">
+        <v>0</v>
+      </c>
+      <c r="L20" s="114"/>
       <c r="M20" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N20" s="118"/>
+      <c r="N20" s="114"/>
       <c r="O20" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="118"/>
+      <c r="P20" s="114"/>
       <c r="Q20" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="122">
+      <c r="R20" s="118">
         <v>17.96</v>
       </c>
-      <c r="S20" s="123">
+      <c r="S20" s="119">
         <v>99.51</v>
       </c>
       <c r="T20" s="93">
         <f t="shared" si="8"/>
         <v>17.871996</v>
       </c>
-      <c r="U20" s="123">
+      <c r="U20" s="119">
         <v>367.65</v>
       </c>
       <c r="V20" s="93">
         <f t="shared" si="14"/>
         <v>6602.994</v>
       </c>
-      <c r="W20" s="123">
+      <c r="W20" s="119">
         <v>6.65</v>
       </c>
       <c r="X20" s="93">
         <f t="shared" si="9"/>
         <v>119.434</v>
       </c>
-      <c r="Y20" s="133">
+      <c r="Y20" s="125">
         <f t="shared" si="10"/>
         <v>2.98</v>
       </c>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="133">
+      <c r="Z20" s="126"/>
+      <c r="AA20" s="125">
         <f t="shared" si="11"/>
         <v>297.7962</v>
       </c>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="133">
+      <c r="AB20" s="126"/>
+      <c r="AC20" s="125">
         <f t="shared" si="15"/>
         <v>292.338600000001</v>
       </c>
-      <c r="AD20" s="134"/>
-      <c r="AE20" s="133">
+      <c r="AD20" s="126"/>
+      <c r="AE20" s="125">
         <f t="shared" si="12"/>
         <v>123.47</v>
       </c>
@@ -4280,13 +4259,13 @@
       <c r="AG20" s="93"/>
       <c r="AH20" s="93"/>
       <c r="AI20" s="93"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="105"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
+      <c r="AJ20" s="129"/>
+      <c r="AK20" s="129"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
+      <c r="AP20" s="129"/>
     </row>
     <row r="21" ht="13.5" spans="1:42">
       <c r="A21" s="93" t="s">
@@ -4301,85 +4280,85 @@
       <c r="D21" s="101">
         <v>14</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="105">
         <v>99.57</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="106">
         <f t="shared" si="2"/>
         <v>13.9398</v>
       </c>
-      <c r="G21" s="109">
+      <c r="G21" s="105">
         <v>11.6</v>
       </c>
-      <c r="H21" s="110">
+      <c r="H21" s="106">
         <f t="shared" si="3"/>
         <v>162.4</v>
       </c>
-      <c r="I21" s="109">
+      <c r="I21" s="105">
         <v>329.29</v>
       </c>
-      <c r="J21" s="110">
+      <c r="J21" s="106">
         <f t="shared" si="13"/>
         <v>4610.06</v>
       </c>
-      <c r="K21" s="115">
+      <c r="K21" s="111">
         <v>11.2</v>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="114"/>
       <c r="M21" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="118"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="118"/>
+      <c r="P21" s="114"/>
       <c r="Q21" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R21" s="122">
+      <c r="R21" s="118">
         <v>25.2</v>
       </c>
-      <c r="S21" s="123">
+      <c r="S21" s="119">
         <v>99.51</v>
       </c>
       <c r="T21" s="93">
         <f t="shared" si="8"/>
         <v>25.07652</v>
       </c>
-      <c r="U21" s="123">
+      <c r="U21" s="119">
         <v>367.65</v>
       </c>
       <c r="V21" s="93">
         <f t="shared" si="14"/>
         <v>9264.78</v>
       </c>
-      <c r="W21" s="123">
+      <c r="W21" s="119">
         <v>6.65</v>
       </c>
       <c r="X21" s="93">
         <f t="shared" si="9"/>
         <v>167.58</v>
       </c>
-      <c r="Y21" s="133">
+      <c r="Y21" s="125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="133">
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="125">
         <f t="shared" si="11"/>
         <v>-1113.672</v>
       </c>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="133">
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="125">
         <f t="shared" si="15"/>
         <v>-4654.72</v>
       </c>
-      <c r="AD21" s="134"/>
-      <c r="AE21" s="133">
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="125">
         <f t="shared" si="12"/>
         <v>-5.18000000000001</v>
       </c>
@@ -4387,13 +4366,13 @@
       <c r="AG21" s="93"/>
       <c r="AH21" s="93"/>
       <c r="AI21" s="93"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
-      <c r="AM21" s="105"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="105"/>
+      <c r="AJ21" s="129"/>
+      <c r="AK21" s="129"/>
+      <c r="AL21" s="129"/>
+      <c r="AM21" s="129"/>
+      <c r="AN21" s="129"/>
+      <c r="AO21" s="129"/>
+      <c r="AP21" s="129"/>
     </row>
     <row r="22" ht="13.5" spans="1:42">
       <c r="A22" s="93" t="s">
@@ -4408,85 +4387,85 @@
       <c r="D22" s="101">
         <v>136.8</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="105">
         <v>39.84</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="106">
         <f t="shared" si="2"/>
         <v>54.50112</v>
       </c>
-      <c r="G22" s="109">
+      <c r="G22" s="105">
         <v>1.32</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="106">
         <f t="shared" si="3"/>
         <v>180.576</v>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="105">
         <v>57.6</v>
       </c>
-      <c r="J22" s="110">
+      <c r="J22" s="106">
         <f t="shared" si="13"/>
         <v>7879.68</v>
       </c>
-      <c r="K22" s="115">
+      <c r="K22" s="111">
         <v>178.2</v>
       </c>
-      <c r="L22" s="118"/>
+      <c r="L22" s="114"/>
       <c r="M22" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N22" s="118"/>
+      <c r="N22" s="114"/>
       <c r="O22" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="118"/>
+      <c r="P22" s="114"/>
       <c r="Q22" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R22" s="122">
+      <c r="R22" s="118">
         <v>315</v>
       </c>
-      <c r="S22" s="123">
+      <c r="S22" s="119">
         <v>44.8352380952381</v>
       </c>
       <c r="T22" s="93">
         <f t="shared" si="8"/>
         <v>141.231</v>
       </c>
-      <c r="U22" s="123">
+      <c r="U22" s="119">
         <v>95.9555555555556</v>
       </c>
       <c r="V22" s="93">
         <f t="shared" si="14"/>
         <v>30226</v>
       </c>
-      <c r="W22" s="123">
+      <c r="W22" s="119">
         <v>1.81904761904762</v>
       </c>
       <c r="X22" s="93">
         <f t="shared" si="9"/>
         <v>573</v>
       </c>
-      <c r="Y22" s="133">
+      <c r="Y22" s="125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="133">
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="125">
         <f t="shared" si="11"/>
         <v>-8672.988</v>
       </c>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="133">
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="125">
         <f t="shared" si="15"/>
         <v>-22346.32</v>
       </c>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="133">
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="125">
         <f t="shared" si="12"/>
         <v>-392.424</v>
       </c>
@@ -4494,13 +4473,13 @@
       <c r="AG22" s="93"/>
       <c r="AH22" s="93"/>
       <c r="AI22" s="93"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="105"/>
-      <c r="AM22" s="105"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="105"/>
-      <c r="AP22" s="105"/>
+      <c r="AJ22" s="129"/>
+      <c r="AK22" s="129"/>
+      <c r="AL22" s="129"/>
+      <c r="AM22" s="129"/>
+      <c r="AN22" s="129"/>
+      <c r="AO22" s="129"/>
+      <c r="AP22" s="129"/>
     </row>
     <row r="23" ht="13.5" spans="1:42">
       <c r="A23" s="93" t="s">
@@ -4515,79 +4494,79 @@
       <c r="D23" s="101">
         <v>70</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="105">
         <v>56.1</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="106">
         <f t="shared" si="2"/>
         <v>39.27</v>
       </c>
-      <c r="G23" s="109">
+      <c r="G23" s="105">
         <v>0.128571428571429</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="106">
         <f t="shared" si="3"/>
         <v>9.00000000000003</v>
       </c>
-      <c r="I23" s="109">
+      <c r="I23" s="105">
         <v>72.8</v>
       </c>
-      <c r="J23" s="110">
+      <c r="J23" s="106">
         <f t="shared" si="13"/>
         <v>5096</v>
       </c>
-      <c r="K23" s="115">
+      <c r="K23" s="111">
         <v>40.14</v>
       </c>
-      <c r="L23" s="118"/>
+      <c r="L23" s="114"/>
       <c r="M23" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="118"/>
+      <c r="N23" s="114"/>
       <c r="O23" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="118"/>
+      <c r="P23" s="114"/>
       <c r="Q23" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R23" s="122">
-        <v>0</v>
-      </c>
-      <c r="S23" s="123"/>
+      <c r="R23" s="118">
+        <v>0</v>
+      </c>
+      <c r="S23" s="119"/>
       <c r="T23" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U23" s="123"/>
+      <c r="U23" s="119"/>
       <c r="V23" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W23" s="123"/>
+      <c r="W23" s="119"/>
       <c r="X23" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="133">
+      <c r="Y23" s="125">
         <f t="shared" si="10"/>
         <v>110.14</v>
       </c>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="133">
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="125">
         <f t="shared" si="11"/>
         <v>3927</v>
       </c>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="133">
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="125">
         <f t="shared" si="15"/>
         <v>5096</v>
       </c>
-      <c r="AD23" s="134"/>
-      <c r="AE23" s="133">
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="125">
         <f t="shared" si="12"/>
         <v>9.00000000000003</v>
       </c>
@@ -4595,13 +4574,13 @@
       <c r="AG23" s="93"/>
       <c r="AH23" s="93"/>
       <c r="AI23" s="93"/>
-      <c r="AJ23" s="105"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="105"/>
-      <c r="AM23" s="105"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
+      <c r="AJ23" s="129"/>
+      <c r="AK23" s="129"/>
+      <c r="AL23" s="129"/>
+      <c r="AM23" s="129"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
     </row>
     <row r="24" ht="13.5" spans="1:42">
       <c r="A24" s="93" t="s">
@@ -4616,73 +4595,73 @@
       <c r="D24" s="102">
         <v>0</v>
       </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110">
+      <c r="E24" s="105"/>
+      <c r="F24" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="G24" s="105"/>
+      <c r="H24" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110">
+      <c r="I24" s="105"/>
+      <c r="J24" s="106">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K24" s="115">
+      <c r="K24" s="111">
         <v>6.02</v>
       </c>
-      <c r="L24" s="118"/>
+      <c r="L24" s="114"/>
       <c r="M24" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="118"/>
+      <c r="N24" s="114"/>
       <c r="O24" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="118"/>
+      <c r="P24" s="114"/>
       <c r="Q24" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R24" s="122">
-        <v>0</v>
-      </c>
-      <c r="S24" s="123"/>
+      <c r="R24" s="118">
+        <v>0</v>
+      </c>
+      <c r="S24" s="119"/>
       <c r="T24" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U24" s="123"/>
+      <c r="U24" s="119"/>
       <c r="V24" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W24" s="123"/>
+      <c r="W24" s="119"/>
       <c r="X24" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="133">
+      <c r="Y24" s="125">
         <f t="shared" si="10"/>
         <v>6.02</v>
       </c>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="133">
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="125">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="133">
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="133">
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -4690,13 +4669,13 @@
       <c r="AG24" s="93"/>
       <c r="AH24" s="93"/>
       <c r="AI24" s="93"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="105"/>
-      <c r="AM24" s="105"/>
-      <c r="AN24" s="105"/>
-      <c r="AO24" s="105"/>
-      <c r="AP24" s="105"/>
+      <c r="AJ24" s="129"/>
+      <c r="AK24" s="129"/>
+      <c r="AL24" s="129"/>
+      <c r="AM24" s="129"/>
+      <c r="AN24" s="129"/>
+      <c r="AO24" s="129"/>
+      <c r="AP24" s="129"/>
     </row>
     <row r="25" ht="13.5" spans="1:42">
       <c r="A25" s="93" t="s">
@@ -4711,85 +4690,85 @@
       <c r="D25" s="101">
         <v>53.912</v>
       </c>
-      <c r="E25" s="109">
+      <c r="E25" s="105">
         <v>99.57</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="106">
         <f t="shared" si="2"/>
         <v>53.6801784</v>
       </c>
-      <c r="G25" s="109">
+      <c r="G25" s="105">
         <v>11.6</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="106">
         <f t="shared" si="3"/>
         <v>625.3792</v>
       </c>
-      <c r="I25" s="109">
+      <c r="I25" s="105">
         <v>329.29</v>
       </c>
-      <c r="J25" s="110">
+      <c r="J25" s="106">
         <f t="shared" si="13"/>
         <v>17752.68248</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="111">
         <v>3883.32</v>
       </c>
-      <c r="L25" s="118"/>
+      <c r="L25" s="114"/>
       <c r="M25" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N25" s="118"/>
+      <c r="N25" s="114"/>
       <c r="O25" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="118"/>
+      <c r="P25" s="114"/>
       <c r="Q25" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R25" s="122">
+      <c r="R25" s="118">
         <v>34.147</v>
       </c>
-      <c r="S25" s="123">
+      <c r="S25" s="119">
         <v>99.51</v>
       </c>
       <c r="T25" s="93">
         <f t="shared" si="8"/>
         <v>33.9796797</v>
       </c>
-      <c r="U25" s="123">
+      <c r="U25" s="119">
         <v>367.65</v>
       </c>
       <c r="V25" s="93">
         <f t="shared" si="14"/>
         <v>12554.14455</v>
       </c>
-      <c r="W25" s="123">
+      <c r="W25" s="119">
         <v>6.65</v>
       </c>
       <c r="X25" s="93">
         <f t="shared" si="9"/>
         <v>227.07755</v>
       </c>
-      <c r="Y25" s="133">
+      <c r="Y25" s="125">
         <f t="shared" si="10"/>
         <v>3903.085</v>
       </c>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="133">
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="125">
         <f t="shared" si="11"/>
         <v>1970.04987</v>
       </c>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="133">
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="125">
         <f t="shared" si="15"/>
         <v>5198.53793</v>
       </c>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="133">
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="125">
         <f t="shared" si="12"/>
         <v>398.30165</v>
       </c>
@@ -4797,13 +4776,13 @@
       <c r="AG25" s="93"/>
       <c r="AH25" s="93"/>
       <c r="AI25" s="93"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="105"/>
+      <c r="AJ25" s="129"/>
+      <c r="AK25" s="129"/>
+      <c r="AL25" s="129"/>
+      <c r="AM25" s="129"/>
+      <c r="AN25" s="129"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
     </row>
     <row r="26" ht="13.5" spans="1:42">
       <c r="A26" s="93" t="s">
@@ -4818,77 +4797,77 @@
       <c r="D26" s="101">
         <v>6.72</v>
       </c>
-      <c r="E26" s="109">
+      <c r="E26" s="105">
         <v>100</v>
       </c>
-      <c r="F26" s="110">
+      <c r="F26" s="106">
         <f t="shared" si="2"/>
         <v>6.72</v>
       </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110">
+      <c r="G26" s="105"/>
+      <c r="H26" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110">
+      <c r="I26" s="105"/>
+      <c r="J26" s="106">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K26" s="115">
+      <c r="K26" s="111">
         <v>17.4</v>
       </c>
-      <c r="L26" s="118"/>
+      <c r="L26" s="114"/>
       <c r="M26" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N26" s="118"/>
+      <c r="N26" s="114"/>
       <c r="O26" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="118"/>
+      <c r="P26" s="114"/>
       <c r="Q26" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R26" s="122">
+      <c r="R26" s="118">
         <v>8.5</v>
       </c>
-      <c r="S26" s="123">
+      <c r="S26" s="119">
         <v>100</v>
       </c>
       <c r="T26" s="93">
         <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
-      <c r="U26" s="123"/>
+      <c r="U26" s="119"/>
       <c r="V26" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W26" s="123"/>
+      <c r="W26" s="119"/>
       <c r="X26" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="133">
+      <c r="Y26" s="125">
         <f t="shared" si="10"/>
         <v>15.62</v>
       </c>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="133">
+      <c r="Z26" s="126"/>
+      <c r="AA26" s="125">
         <f t="shared" si="11"/>
         <v>-178</v>
       </c>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="133">
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="133">
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -4896,13 +4875,13 @@
       <c r="AG26" s="93"/>
       <c r="AH26" s="93"/>
       <c r="AI26" s="93"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
-      <c r="AM26" s="105"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="105"/>
-      <c r="AP26" s="105"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
     </row>
     <row r="27" ht="13.5" spans="1:35">
       <c r="A27" s="93" t="s">
@@ -4917,88 +4896,88 @@
       <c r="D27" s="101">
         <v>5.4</v>
       </c>
-      <c r="E27" s="109">
+      <c r="E27" s="105">
         <v>99.74</v>
       </c>
-      <c r="F27" s="110">
+      <c r="F27" s="106">
         <f t="shared" si="2"/>
         <v>5.38596</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110">
+      <c r="G27" s="105"/>
+      <c r="H27" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="109">
+      <c r="I27" s="105">
         <v>2.61</v>
       </c>
-      <c r="J27" s="110">
+      <c r="J27" s="106">
         <f t="shared" si="13"/>
         <v>14.094</v>
       </c>
-      <c r="K27" s="115">
+      <c r="K27" s="111">
         <v>37.68</v>
       </c>
-      <c r="L27" s="118"/>
+      <c r="L27" s="114"/>
       <c r="M27" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="118"/>
+      <c r="N27" s="114"/>
       <c r="O27" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="118"/>
+      <c r="P27" s="114"/>
       <c r="Q27" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R27" s="122">
+      <c r="R27" s="118">
         <v>2.28</v>
       </c>
-      <c r="S27" s="123">
+      <c r="S27" s="119">
         <v>99.93</v>
       </c>
       <c r="T27" s="93">
         <f t="shared" si="8"/>
         <v>2.278404</v>
       </c>
-      <c r="U27" s="123">
+      <c r="U27" s="119">
         <v>2.47</v>
       </c>
       <c r="V27" s="93">
         <f t="shared" si="14"/>
         <v>5.6316</v>
       </c>
-      <c r="W27" s="123"/>
+      <c r="W27" s="119"/>
       <c r="X27" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="133">
+      <c r="Y27" s="125">
         <f t="shared" si="10"/>
         <v>40.8</v>
       </c>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="133">
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="125">
         <f t="shared" si="11"/>
         <v>310.7556</v>
       </c>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="133">
+      <c r="AB27" s="126"/>
+      <c r="AC27" s="125">
         <f t="shared" si="15"/>
         <v>8.4624</v>
       </c>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="133">
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="106"/>
     </row>
     <row r="28" ht="13.5" spans="1:35">
       <c r="A28" s="93" t="s">
@@ -5013,92 +4992,92 @@
       <c r="D28" s="101">
         <v>57.505</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="109">
         <v>4.17355012607599</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="106">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="109">
         <v>1.68680984262238</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="106">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="I28" s="113">
+      <c r="I28" s="109">
         <v>349.50004347448</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="106">
         <f t="shared" si="13"/>
         <v>20098</v>
       </c>
-      <c r="K28" s="115">
+      <c r="K28" s="111">
         <v>39.63</v>
       </c>
-      <c r="L28" s="118"/>
+      <c r="L28" s="114"/>
       <c r="M28" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="118"/>
+      <c r="N28" s="114"/>
       <c r="O28" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="118"/>
+      <c r="P28" s="114"/>
       <c r="Q28" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R28" s="122">
+      <c r="R28" s="118">
         <v>90.747</v>
       </c>
-      <c r="S28" s="127">
+      <c r="S28" s="123">
         <v>4.8133822605706</v>
       </c>
       <c r="T28" s="93">
         <f t="shared" si="8"/>
         <v>4.368</v>
       </c>
-      <c r="U28" s="127">
+      <c r="U28" s="123">
         <v>304.483894784401</v>
       </c>
       <c r="V28" s="93">
         <f t="shared" si="14"/>
         <v>27631</v>
       </c>
-      <c r="W28" s="127">
+      <c r="W28" s="123">
         <v>1.39949530012011</v>
       </c>
       <c r="X28" s="93">
         <f t="shared" si="9"/>
         <v>127</v>
       </c>
-      <c r="Y28" s="133">
+      <c r="Y28" s="125">
         <f t="shared" si="10"/>
         <v>6.38800000000001</v>
       </c>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="133">
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="125">
         <f t="shared" si="11"/>
         <v>-196.8</v>
       </c>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="133">
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="125">
         <f t="shared" si="15"/>
         <v>-7533.00000000007</v>
       </c>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="133">
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="125">
         <f t="shared" si="12"/>
         <v>-29.9999999999997</v>
       </c>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="106"/>
     </row>
     <row r="29" ht="13.5" spans="1:35">
       <c r="A29" s="93" t="s">
@@ -5113,80 +5092,80 @@
       <c r="D29" s="102">
         <v>0</v>
       </c>
-      <c r="E29" s="113"/>
-      <c r="F29" s="110">
+      <c r="E29" s="109"/>
+      <c r="F29" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="113"/>
-      <c r="H29" s="110">
+      <c r="G29" s="109"/>
+      <c r="H29" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="110">
+      <c r="I29" s="109"/>
+      <c r="J29" s="106">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K29" s="115">
-        <v>0</v>
-      </c>
-      <c r="L29" s="120"/>
+      <c r="K29" s="111">
+        <v>0</v>
+      </c>
+      <c r="L29" s="116"/>
       <c r="M29" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="120"/>
+      <c r="N29" s="116"/>
       <c r="O29" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="120"/>
+      <c r="P29" s="116"/>
       <c r="Q29" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R29" s="122">
-        <v>0</v>
-      </c>
-      <c r="S29" s="127"/>
+      <c r="R29" s="118">
+        <v>0</v>
+      </c>
+      <c r="S29" s="123"/>
       <c r="T29" s="93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U29" s="127"/>
+      <c r="U29" s="123"/>
       <c r="V29" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W29" s="127"/>
+      <c r="W29" s="123"/>
       <c r="X29" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="133">
+      <c r="Y29" s="125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="133">
+      <c r="Z29" s="126"/>
+      <c r="AA29" s="125">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="133">
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="133">
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106"/>
     </row>
     <row r="30" ht="13.5" spans="1:35">
       <c r="A30" s="93" t="s">
@@ -5201,92 +5180,92 @@
       <c r="D30" s="101">
         <v>1111.498</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="109">
         <v>2.2910522556046</v>
       </c>
-      <c r="F30" s="110">
+      <c r="F30" s="106">
         <f t="shared" si="2"/>
         <v>25.465</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="109">
         <v>0.304094114429356</v>
       </c>
-      <c r="H30" s="110">
+      <c r="H30" s="106">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="I30" s="113">
+      <c r="I30" s="109">
         <v>5.83986655846434</v>
       </c>
-      <c r="J30" s="110">
+      <c r="J30" s="106">
         <f t="shared" si="13"/>
         <v>6491</v>
       </c>
-      <c r="K30" s="115">
+      <c r="K30" s="111">
         <v>900.88</v>
       </c>
-      <c r="L30" s="120"/>
+      <c r="L30" s="116"/>
       <c r="M30" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="120"/>
+      <c r="N30" s="116"/>
       <c r="O30" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="120"/>
+      <c r="P30" s="116"/>
       <c r="Q30" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R30" s="122">
+      <c r="R30" s="118">
         <v>1409.509</v>
       </c>
-      <c r="S30" s="127">
+      <c r="S30" s="123">
         <v>1.92506752351351</v>
       </c>
       <c r="T30" s="93">
         <f t="shared" si="8"/>
         <v>27.134</v>
       </c>
-      <c r="U30" s="127">
+      <c r="U30" s="123">
         <v>5.04927602448796</v>
       </c>
       <c r="V30" s="93">
         <f t="shared" si="14"/>
         <v>7117</v>
       </c>
-      <c r="W30" s="127">
+      <c r="W30" s="123">
         <v>0.254698622002414</v>
       </c>
       <c r="X30" s="93">
         <f t="shared" si="9"/>
         <v>359.000000000001</v>
       </c>
-      <c r="Y30" s="133">
+      <c r="Y30" s="125">
         <f t="shared" si="10"/>
         <v>602.869</v>
       </c>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="133">
+      <c r="Z30" s="126"/>
+      <c r="AA30" s="125">
         <f t="shared" si="11"/>
         <v>-166.900000000002</v>
       </c>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="133">
+      <c r="AB30" s="126"/>
+      <c r="AC30" s="125">
         <f t="shared" si="15"/>
         <v>-626.000000000003</v>
       </c>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="133">
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="125">
         <f t="shared" si="12"/>
         <v>-21.0000000000002</v>
       </c>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="110"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
     </row>
     <row r="31" ht="13.5" spans="1:35">
       <c r="A31" s="93" t="s">
@@ -5301,84 +5280,84 @@
       <c r="D31" s="101">
         <v>1476.72562222222</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="109">
         <v>0.0852783861014548</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="106">
         <f t="shared" si="2"/>
         <v>1.25932777777778</v>
       </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="110">
+      <c r="G31" s="109"/>
+      <c r="H31" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="110">
+      <c r="I31" s="109"/>
+      <c r="J31" s="106">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K31" s="115">
+      <c r="K31" s="111">
         <v>1331.05</v>
       </c>
-      <c r="L31" s="120"/>
+      <c r="L31" s="116"/>
       <c r="M31" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="120"/>
+      <c r="N31" s="116"/>
       <c r="O31" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="120"/>
+      <c r="P31" s="116"/>
       <c r="Q31" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R31" s="122">
+      <c r="R31" s="118">
         <v>1280.57400399849</v>
       </c>
-      <c r="S31" s="127">
+      <c r="S31" s="123">
         <v>0.0847237310009935</v>
       </c>
       <c r="T31" s="93">
         <f t="shared" si="8"/>
         <v>1.08495007441633</v>
       </c>
-      <c r="U31" s="127"/>
+      <c r="U31" s="123"/>
       <c r="V31" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W31" s="127"/>
+      <c r="W31" s="123"/>
       <c r="X31" s="93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="133">
+      <c r="Y31" s="125">
         <f t="shared" si="10"/>
         <v>1527.20161822373</v>
       </c>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="133">
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="125">
         <f t="shared" si="11"/>
         <v>17.4377703361443</v>
       </c>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="133">
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="133">
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106"/>
     </row>
     <row r="32" ht="25" spans="1:35">
       <c r="A32" s="93" t="s">
@@ -5393,92 +5372,92 @@
       <c r="D32" s="101">
         <v>105.919</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="109">
         <v>0.129344121451298</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="106">
         <f t="shared" si="2"/>
         <v>0.137</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="109">
         <v>0.160500004720588</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="106">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I32" s="113">
+      <c r="I32" s="109">
         <v>1.3500882750026</v>
       </c>
-      <c r="J32" s="110">
+      <c r="J32" s="106">
         <f t="shared" si="13"/>
         <v>143</v>
       </c>
-      <c r="K32" s="115">
+      <c r="K32" s="111">
         <v>58.06</v>
       </c>
-      <c r="L32" s="120"/>
+      <c r="L32" s="116"/>
       <c r="M32" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="120"/>
+      <c r="N32" s="116"/>
       <c r="O32" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="120"/>
+      <c r="P32" s="116"/>
       <c r="Q32" s="93">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R32" s="122">
+      <c r="R32" s="118">
         <v>130.624</v>
       </c>
-      <c r="S32" s="127">
+      <c r="S32" s="123">
         <v>0.133206761391475</v>
       </c>
       <c r="T32" s="93">
         <f t="shared" si="8"/>
         <v>0.174</v>
       </c>
-      <c r="U32" s="127">
+      <c r="U32" s="123">
         <v>1.09474522292994</v>
       </c>
       <c r="V32" s="93">
         <f t="shared" si="14"/>
         <v>143</v>
       </c>
-      <c r="W32" s="127">
+      <c r="W32" s="123">
         <v>0.130144536991671</v>
       </c>
       <c r="X32" s="93">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="Y32" s="133">
+      <c r="Y32" s="125">
         <f t="shared" si="10"/>
         <v>33.355</v>
       </c>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="133">
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="125">
         <f t="shared" si="11"/>
         <v>-3.7</v>
       </c>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="133">
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="133">
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="125">
         <f t="shared" si="12"/>
         <v>-7.105427357601e-14</v>
       </c>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="106"/>
     </row>
     <row r="33" ht="13.5" spans="1:35">
       <c r="A33" s="93" t="s">
@@ -5491,77 +5470,77 @@
         <v>68</v>
       </c>
       <c r="D33" s="104"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="110">
-        <f t="shared" ref="F33:F61" si="16">D33*E33/100</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="110">
-        <f t="shared" ref="H33:H56" si="17">D33*G33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="111"/>
-      <c r="J33" s="110">
-        <f t="shared" ref="J33:J56" si="18">D33*I33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="115">
+      <c r="E33" s="107"/>
+      <c r="F33" s="106">
+        <f>D33*E33/100</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="106">
+        <f>D33*G33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="107"/>
+      <c r="J33" s="106">
+        <f>D33*I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="111">
         <v>0.66</v>
       </c>
-      <c r="L33" s="120"/>
+      <c r="L33" s="116"/>
       <c r="M33" s="93">
-        <f t="shared" ref="M33:M61" si="19">K33*L33/100</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="120"/>
+        <f>K33*L33/100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="116"/>
       <c r="O33" s="93">
-        <f t="shared" ref="O33:O67" si="20">K33*N33</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="120"/>
+        <f>K33*N33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="116"/>
       <c r="Q33" s="93">
-        <f t="shared" ref="Q33:Q58" si="21">K33*P33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="128"/>
-      <c r="S33" s="120"/>
+        <f>K33*P33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="124"/>
+      <c r="S33" s="116"/>
       <c r="T33" s="93">
-        <f t="shared" ref="T33:T69" si="22">R33*S33/100</f>
+        <f>R33*S33/100</f>
         <v>0</v>
       </c>
       <c r="V33" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W33" s="120"/>
+      <c r="W33" s="116"/>
       <c r="X33" s="93">
-        <f t="shared" ref="X33:X74" si="23">R33*W33</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="133">
+        <f>R33*W33</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="125">
         <f t="shared" si="10"/>
         <v>0.66</v>
       </c>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="133">
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="125">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="133">
+      <c r="AB33" s="126"/>
+      <c r="AC33" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="133">
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
+      <c r="AF33" s="106"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="106"/>
     </row>
     <row r="34" ht="13.5" spans="1:35">
       <c r="A34" s="93" t="s">
@@ -5574,1309 +5553,65 @@
         <v>46</v>
       </c>
       <c r="D34" s="104"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="111"/>
-      <c r="H34" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="115">
+      <c r="E34" s="107"/>
+      <c r="F34" s="106">
+        <f>D34*E34/100</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="106">
+        <f>D34*G34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="107"/>
+      <c r="J34" s="106">
+        <f>D34*I34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="111">
         <v>148.32</v>
       </c>
-      <c r="L34" s="110"/>
+      <c r="L34" s="106"/>
       <c r="M34" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="110"/>
+        <f>K34*L34/100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="106"/>
       <c r="O34" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="110"/>
+        <f>K34*N34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="106"/>
       <c r="Q34" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="128"/>
-      <c r="S34" s="120"/>
+        <f>K34*P34</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="124"/>
+      <c r="S34" s="116"/>
       <c r="T34" s="93">
-        <f t="shared" si="22"/>
+        <f>R34*S34/100</f>
         <v>0</v>
       </c>
       <c r="V34" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W34" s="120"/>
+      <c r="W34" s="116"/>
       <c r="X34" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="135"/>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="135"/>
-      <c r="AC34" s="135"/>
-      <c r="AD34" s="135"/>
-      <c r="AE34" s="135"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-    </row>
-    <row r="35" spans="2:24">
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="F35" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="129"/>
-      <c r="T35" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24">
-      <c r="B36" s="105"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="130"/>
-      <c r="T36" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24">
-      <c r="B37" s="105"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="131"/>
-      <c r="T37" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24">
-      <c r="B38" s="105"/>
-      <c r="C38" s="19"/>
-      <c r="F38" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="131"/>
-      <c r="T38" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24">
-      <c r="B39" s="105"/>
-      <c r="C39" s="107"/>
-      <c r="F39" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="131"/>
-      <c r="T39" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="B40" s="105"/>
-      <c r="C40" s="19"/>
-      <c r="F40" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="131"/>
-      <c r="T40" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="B41" s="105"/>
-      <c r="C41" s="19"/>
-      <c r="F41" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="130"/>
-      <c r="T41" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="B42" s="105"/>
-      <c r="C42" s="19"/>
-      <c r="F42" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="131"/>
-      <c r="T42" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24">
-      <c r="B43" s="105"/>
-      <c r="C43" s="19"/>
-      <c r="F43" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="131"/>
-      <c r="T43" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="93">
-        <f t="shared" ref="V43:V75" si="24">R43*U43</f>
-        <v>0</v>
-      </c>
-      <c r="X43" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="B44" s="105"/>
-      <c r="C44" s="19"/>
-      <c r="F44" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="131"/>
-      <c r="T44" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24">
-      <c r="B45" s="105"/>
-      <c r="C45" s="19"/>
-      <c r="F45" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="132"/>
-      <c r="T45" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24">
-      <c r="B46" s="105"/>
-      <c r="C46" s="19"/>
-      <c r="F46" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="130"/>
-      <c r="T46" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24">
-      <c r="B47" s="105"/>
-      <c r="C47" s="19"/>
-      <c r="F47" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="130"/>
-      <c r="T47" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24">
-      <c r="B48" s="105"/>
-      <c r="C48" s="19"/>
-      <c r="F48" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="131"/>
-      <c r="T48" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24">
-      <c r="B49" s="105"/>
-      <c r="C49" s="107"/>
-      <c r="F49" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="131"/>
-      <c r="T49" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="105"/>
-      <c r="C50" s="107"/>
-      <c r="F50" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="131"/>
-      <c r="T50" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24">
-      <c r="B51" s="105"/>
-      <c r="C51" s="19"/>
-      <c r="F51" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="130"/>
-      <c r="T51" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24">
-      <c r="B52" s="105"/>
-      <c r="C52" s="19"/>
-      <c r="F52" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="130"/>
-      <c r="T52" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="105"/>
-      <c r="C53" s="19"/>
-      <c r="F53" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="130"/>
-      <c r="T53" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="105"/>
-      <c r="C54" s="19"/>
-      <c r="F54" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="130"/>
-      <c r="T54" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="105"/>
-      <c r="C55" s="19"/>
-      <c r="F55" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="130"/>
-      <c r="T55" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="105"/>
-      <c r="C56" s="107"/>
-      <c r="F56" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="110">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="110">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="131"/>
-      <c r="T56" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24">
-      <c r="B57" s="105"/>
-      <c r="C57" s="107"/>
-      <c r="F57" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="131"/>
-      <c r="T57" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="105"/>
-      <c r="C58" s="107"/>
-      <c r="F58" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="93">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="131"/>
-      <c r="T58" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24">
-      <c r="B59" s="105"/>
-      <c r="C59" s="108"/>
-      <c r="F59" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="131"/>
-      <c r="T59" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24">
-      <c r="B60" s="105"/>
-      <c r="C60" s="108"/>
-      <c r="F60" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="131"/>
-      <c r="T60" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="6:24">
-      <c r="F61" s="110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="93">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X61" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="15:24">
-      <c r="O62" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T62" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X62" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="15:24">
-      <c r="O63" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="15:24">
-      <c r="O64" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="15:24">
-      <c r="O65" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="15:24">
-      <c r="O66" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="15:24">
-      <c r="O67" s="93">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="20:24">
-      <c r="T68" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X68" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="20:24">
-      <c r="T69" s="93">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="22:24">
-      <c r="V70" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="22:24">
-      <c r="V71" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="22:24">
-      <c r="V72" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X72" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="22:24">
-      <c r="V73" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="22:24">
-      <c r="V74" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="22:22">
-      <c r="V75" s="93">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f>R34*W34</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="127"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2_metal_balance/data/2-4假数据.xlsx
+++ b/2_metal_balance/data/2-4假数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8370"/>
+    <workbookView windowWidth="17910" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>material</t>
   </si>
@@ -184,6 +184,9 @@
     <t>熔炼渣（侧吹）</t>
   </si>
   <si>
+    <t>回收品</t>
+  </si>
+  <si>
     <t>熔炼渣</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t>阳极铜（炉存）</t>
   </si>
   <si>
+    <t>产品</t>
+  </si>
+  <si>
     <t>阳极铜</t>
   </si>
   <si>
@@ -241,10 +247,16 @@
     <t>旋流电积铜</t>
   </si>
   <si>
+    <t>调拨南丹</t>
+  </si>
+  <si>
     <t>铅滤饼</t>
   </si>
   <si>
     <t>硫化铜渣</t>
+  </si>
+  <si>
+    <t>损失</t>
   </si>
   <si>
     <t>砷滤饼</t>
@@ -273,13 +285,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -320,6 +332,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -351,13 +370,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -379,26 +391,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,10 +406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,23 +420,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,25 +460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,11 +474,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,11 +511,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +570,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,73 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,67 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,16 +805,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,17 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,172 +889,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,7 +1099,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,73 +1111,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,10 +1198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1197,9 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1234,10 +1246,10 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 21" xfId="1"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
-    <cellStyle name="常规 19" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 19" xfId="2"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="3"/>
+    <cellStyle name="常规 21" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1584,12 +1596,12 @@
   <sheetPr/>
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1639,7 +1651,7 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
@@ -1654,37 +1666,37 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="51" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="53" t="s">
@@ -1720,78 +1732,78 @@
       <c r="D2" s="14">
         <v>38960.18</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="28">
         <v>22.6041151676158</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="28">
         <v>140.355867386371</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="28">
         <v>2.19185432924274</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="29">
         <v>91120.883</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="34">
         <v>24.2726203608014</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="34">
         <v>92.9671083191764</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="34">
         <v>1.25527756354161</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="35">
         <v>32284.196</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="28">
         <v>22.5243831378053</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="28">
         <v>139.629960120425</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="28">
         <v>1.28195851617305</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2" s="51">
         <f>(D2+H2-L2)</f>
         <v>97796.867</v>
       </c>
       <c r="U2" s="54">
-        <f t="shared" ref="U2:U18" si="0">(D2*E2/100+H2*I2/100-L2*N2/100)</f>
+        <f>(D2*E2/100+H2*I2/100-L2*N2/100)</f>
         <v>23652.2139567104</v>
       </c>
-      <c r="V2" s="50">
-        <f>(D2*F2/100+H2*J2/100-L2*P2/100)</f>
-        <v>94316.9385742916</v>
-      </c>
-      <c r="W2" s="50">
-        <f>(D2*G2/100+H2*K2/100-L2*R2/100)</f>
-        <v>1583.90039201077</v>
+      <c r="V2" s="51">
+        <f>(D2*F2/100+H2*J2/100-L2*P2/100)/1000</f>
+        <v>94.3169385742916</v>
+      </c>
+      <c r="W2" s="51">
+        <f>(D2*G2/100+H2*K2/100-L2*R2/100)/1000</f>
+        <v>1.58390039201077</v>
       </c>
       <c r="X2" s="10">
-        <f t="shared" ref="X2:Z2" si="1">-(U19/(SUM(U2:U8)+SUM(U25:U27)+SUM(U31:U33)+SUM(U9:U18)+SUM(U20:U24)+SUM(U28:U30)+U34))</f>
-        <v>0.998958113130596</v>
+        <f>-(U19/(SUM(U2:U8)+SUM(U25:U27)+SUM(U31:U33)+SUM(U9:U18)+SUM(U20:U24)+SUM(U28:U30)+U34))*100</f>
+        <v>99.8958113130597</v>
       </c>
       <c r="Y2" s="10">
-        <f t="shared" si="1"/>
-        <v>0.982581411038586</v>
+        <f t="shared" ref="X2:Z2" si="0">-(V19/(SUM(V2:V8)+SUM(V25:V27)+SUM(V31:V33)+SUM(V9:V18)+SUM(V20:V24)+SUM(V28:V30)+V34))*100</f>
+        <v>98.2581411038585</v>
       </c>
       <c r="Z2" s="10">
-        <f t="shared" si="1"/>
-        <v>0.963941704286692</v>
+        <f t="shared" si="0"/>
+        <v>96.3941704286689</v>
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="58"/>
@@ -1815,60 +1827,60 @@
       <c r="D3" s="14">
         <v>187.8</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="28">
         <v>60.3967678662801</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <v>140.734265734266</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="28">
         <v>0.4583830803343</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="29">
         <v>0</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="34">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="35">
         <v>187.616</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="28">
         <v>60.3967678662801</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="28">
         <v>140.734265734266</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="28">
         <v>0.4583830803343</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="50">
-        <f t="shared" ref="T3:T34" si="2">(D3+H3-L3)</f>
+      <c r="T3" s="51">
+        <f t="shared" ref="T3:T34" si="1">(D3+H3-L3)</f>
         <v>0.183999999999997</v>
       </c>
       <c r="U3" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U3:U34" si="2">(D3*E3/100+H3*I3/100-L3*N3/100)</f>
         <v>0.111130052873932</v>
       </c>
-      <c r="V3" s="50">
-        <f t="shared" ref="V3:V34" si="3">(D3*F3/100+H3*J3/100-L3*P3/100)</f>
-        <v>0.258951048951019</v>
-      </c>
-      <c r="W3" s="50">
-        <f t="shared" ref="W3:W34" si="4">(D3*G3/100+H3*K3/100-L3*R3/100)</f>
-        <v>0.000843424867815079</v>
+      <c r="V3" s="51">
+        <f t="shared" ref="V3:V34" si="3">(D3*F3/100+H3*J3/100-L3*P3/100)/1000</f>
+        <v>0.000258951048951019</v>
+      </c>
+      <c r="W3" s="51">
+        <f t="shared" ref="W3:W34" si="4">(D3*G3/100+H3*K3/100-L3*R3/100)/1000</f>
+        <v>8.43424867815079e-7</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
@@ -1895,52 +1907,55 @@
       <c r="D4" s="14">
         <v>4.04</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>78.960396039604</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>6948.0198019802</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28">
+      <c r="G4" s="28"/>
+      <c r="H4" s="29">
         <v>0</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="44" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="45" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27" t="s">
+      <c r="R4" s="28"/>
+      <c r="S4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="51">
+        <f t="shared" si="1"/>
+        <v>4.04</v>
+      </c>
+      <c r="U4" s="54">
         <f t="shared" si="2"/>
-        <v>4.04</v>
-      </c>
-      <c r="U4" s="54">
-        <f t="shared" si="0"/>
         <v>3.19</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="51">
         <f t="shared" si="3"/>
-        <v>280.7</v>
-      </c>
-      <c r="W4" s="50">
+        <v>0.2807</v>
+      </c>
+      <c r="W4" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="10">
+        <f>SUM(U2:U8)+SUM(U25:U27)+SUM(U31:U33)+SUM(U9:U18)+SUM(U20:U24)+SUM(U28:U30)+U34</f>
+        <v>27055.8106218279</v>
+      </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -1963,58 +1978,58 @@
         <v>36</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29">
         <v>93.15</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <v>64.5260332796565</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="34">
         <v>581.29898013956</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <v>0.128824476650564</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="35">
         <v>93.15</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="28">
         <v>64.5260332796565</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="28">
         <v>581.29898013956</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="28">
         <v>0.128824476650564</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U5" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
+      <c r="V5" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W5" s="50">
+      <c r="W5" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2043,52 +2058,52 @@
       <c r="D6" s="14">
         <v>121.74</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>0.909976954537588</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="28">
         <v>60.4009728282157</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <v>0.628512611242178</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="29">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="44" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="45" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="51">
+        <f t="shared" si="1"/>
+        <v>121.74</v>
+      </c>
+      <c r="U6" s="54">
         <f t="shared" si="2"/>
-        <v>121.74</v>
-      </c>
-      <c r="U6" s="54">
-        <f t="shared" si="0"/>
         <v>1.10780594445406</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="51">
         <f t="shared" si="3"/>
-        <v>73.5321443210698</v>
-      </c>
-      <c r="W6" s="50">
+        <v>0.0735321443210698</v>
+      </c>
+      <c r="W6" s="51">
         <f t="shared" si="4"/>
-        <v>0.765151252926228</v>
+        <v>0.000765151252926228</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
@@ -2115,52 +2130,52 @@
       <c r="D7" s="18">
         <v>39.18</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <v>99.02</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31">
         <v>3.34</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="40">
         <v>99.99</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42">
         <v>20.16</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="30">
         <v>99.02</v>
       </c>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="51" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="51" t="s">
+      <c r="R7" s="30"/>
+      <c r="S7" s="30" t="s">
         <v>32</v>
       </c>
       <c r="T7" s="52">
+        <f t="shared" si="1"/>
+        <v>22.36</v>
+      </c>
+      <c r="U7" s="54">
         <f t="shared" si="2"/>
-        <v>22.36</v>
-      </c>
-      <c r="U7" s="52">
-        <f t="shared" si="0"/>
         <v>22.17327</v>
       </c>
-      <c r="V7" s="52">
+      <c r="V7" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W7" s="52">
+      <c r="W7" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2189,66 +2204,66 @@
       <c r="D8" s="14">
         <v>580</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="28">
         <v>24.2</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="28">
         <v>41.2</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <v>0.2</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="29">
         <v>5022.1</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="28">
         <v>24.8</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="28">
         <v>39.88</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="28">
         <v>0.32</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="35">
         <v>637.171185</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="28">
         <v>24.8</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="28">
         <v>39.88</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <v>0.32</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="51">
+        <f t="shared" si="1"/>
+        <v>4964.928815</v>
+      </c>
+      <c r="U8" s="54">
         <f t="shared" si="2"/>
-        <v>4964.928815</v>
-      </c>
-      <c r="U8" s="54">
-        <f t="shared" si="0"/>
         <v>1227.82234612</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="51">
         <f t="shared" si="3"/>
-        <v>1987.669611422</v>
-      </c>
-      <c r="W8" s="50">
+        <v>1.987669611422</v>
+      </c>
+      <c r="W8" s="51">
         <f t="shared" si="4"/>
-        <v>15.191772208</v>
+        <v>0.015191772208</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
@@ -2275,66 +2290,66 @@
       <c r="D9" s="14">
         <v>376.2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="32">
         <v>73.62</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="32">
         <v>237.5</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="32">
         <v>8.97</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="29">
         <v>-39.6</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="32">
         <v>73.99</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="32">
         <v>264.9</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="32">
         <v>5.32</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="35">
         <v>415.8</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="32">
         <v>73.99</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="32">
         <v>264.9</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="32">
         <v>5.32</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="50">
+      <c r="T9" s="51">
+        <f t="shared" si="1"/>
+        <v>-79.2</v>
+      </c>
+      <c r="U9" s="54">
         <f t="shared" si="2"/>
-        <v>-79.2</v>
-      </c>
-      <c r="U9" s="54">
-        <f t="shared" si="0"/>
         <v>-59.99202</v>
       </c>
-      <c r="V9" s="50">
+      <c r="V9" s="51">
         <f t="shared" si="3"/>
-        <v>-312.8796</v>
-      </c>
-      <c r="W9" s="50">
+        <v>-0.3128796</v>
+      </c>
+      <c r="W9" s="51">
         <f t="shared" si="4"/>
-        <v>9.51786</v>
+        <v>0.00951786</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
@@ -2361,66 +2376,66 @@
       <c r="D10" s="14">
         <v>215.27</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="32">
         <v>1.89</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="32">
         <v>5.6</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="32">
         <v>0.06</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="32">
         <v>1.89</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="32">
         <v>6.1</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="32">
         <v>0.05</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="35">
         <v>209</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="32">
         <v>1.89</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="32">
         <v>6.1</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="32">
         <v>0.05</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="51">
+        <f t="shared" si="1"/>
+        <v>6.27000000000001</v>
+      </c>
+      <c r="U10" s="54">
         <f t="shared" si="2"/>
-        <v>6.27000000000001</v>
-      </c>
-      <c r="U10" s="54">
-        <f t="shared" si="0"/>
         <v>0.118503</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="51">
         <f t="shared" si="3"/>
-        <v>-0.69388</v>
-      </c>
-      <c r="W10" s="50">
+        <v>-0.00069388</v>
+      </c>
+      <c r="W10" s="51">
         <f t="shared" si="4"/>
-        <v>0.024662</v>
+        <v>2.4662e-5</v>
       </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
@@ -2436,71 +2451,71 @@
     </row>
     <row r="11" ht="13.5" spans="1:34">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10">
         <v>10047</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="28">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="29">
         <v>0</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="32">
         <v>1.89</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="32">
         <v>6.1</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="32">
         <v>0.05</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="35">
         <v>148.32</v>
       </c>
-      <c r="M11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="31">
+      <c r="M11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="32">
         <v>1.89</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="32">
         <v>6.1</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="32">
         <v>0.05</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11" s="51">
+        <f t="shared" si="1"/>
+        <v>-148.32</v>
+      </c>
+      <c r="U11" s="54">
         <f t="shared" si="2"/>
-        <v>-148.32</v>
-      </c>
-      <c r="U11" s="54">
-        <f t="shared" si="0"/>
         <v>-2.803248</v>
       </c>
-      <c r="V11" s="50">
+      <c r="V11" s="51">
         <f t="shared" si="3"/>
-        <v>-9.04752</v>
-      </c>
-      <c r="W11" s="50">
+        <v>-0.00904752</v>
+      </c>
+      <c r="W11" s="51">
         <f t="shared" si="4"/>
-        <v>-0.07416</v>
+        <v>-7.416e-5</v>
       </c>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -2522,71 +2537,71 @@
         <v>10049</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="20">
         <v>237</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="32">
         <v>12.71</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="32">
         <v>130.6</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="32">
         <v>1.15</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="29">
         <v>-721.29</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="32">
         <v>11.5</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="32">
         <v>118.6</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="32">
         <v>0.67</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="35">
         <v>33.3</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="32">
         <v>11.5</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="32">
         <v>118.6</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="32">
         <v>0.67</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="51">
+        <f t="shared" si="1"/>
+        <v>-517.59</v>
+      </c>
+      <c r="U12" s="54">
         <f t="shared" si="2"/>
-        <v>-517.59</v>
-      </c>
-      <c r="U12" s="54">
-        <f t="shared" si="0"/>
         <v>-56.65515</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="51">
         <f t="shared" si="3"/>
-        <v>-585.42174</v>
-      </c>
-      <c r="W12" s="50">
+        <v>-0.58542174</v>
+      </c>
+      <c r="W12" s="51">
         <f t="shared" si="4"/>
-        <v>-2.330253</v>
+        <v>-0.002330253</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -2608,71 +2623,71 @@
         <v>10051</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="20">
         <v>438.54</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="32">
         <v>99.01</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="32">
         <v>315</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="32">
         <v>12.02</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="29">
         <v>-99.41</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="32">
         <v>98.95</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="32">
         <v>420.4</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="32">
         <v>9.12</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="35">
         <v>537.95</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="32">
         <v>98.95</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="32">
         <v>420.4</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="32">
         <v>9.12</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="51">
+        <f t="shared" si="1"/>
+        <v>-198.82</v>
+      </c>
+      <c r="U13" s="54">
         <f t="shared" si="2"/>
-        <v>-198.82</v>
-      </c>
-      <c r="U13" s="54">
-        <f t="shared" si="0"/>
         <v>-196.469266</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="51">
         <f t="shared" si="3"/>
-        <v>-1298.06044</v>
-      </c>
-      <c r="W13" s="50">
+        <v>-1.29806044</v>
+      </c>
+      <c r="W13" s="51">
         <f t="shared" si="4"/>
-        <v>-5.41472400000001</v>
+        <v>-0.00541472400000001</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -2694,71 +2709,71 @@
         <v>10053</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="20">
         <v>161.13</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="32">
         <v>30.51</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="32">
         <v>13.9</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="32">
         <v>0.15</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="29">
         <v>0</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="32">
         <v>32.79</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="32">
         <v>16.7</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="32">
         <v>0.05</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="35">
         <v>136.06</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="32">
         <v>32.79</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="32">
         <v>16.7</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="32">
         <v>0.05</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="51">
+        <f t="shared" si="1"/>
+        <v>25.07</v>
+      </c>
+      <c r="U14" s="54">
         <f t="shared" si="2"/>
-        <v>25.07</v>
-      </c>
-      <c r="U14" s="54">
-        <f t="shared" si="0"/>
         <v>4.54668899999999</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="51">
         <f t="shared" si="3"/>
-        <v>-0.324949999999998</v>
-      </c>
-      <c r="W14" s="50">
+        <v>-0.000324949999999998</v>
+      </c>
+      <c r="W14" s="51">
         <f t="shared" si="4"/>
-        <v>0.173665</v>
+        <v>0.000173665</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
@@ -2780,71 +2795,71 @@
         <v>10055</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="20">
         <v>312.5</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="32">
         <v>30.51</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="32">
         <v>13.9</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="32">
         <v>0.15</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="29">
         <v>-3399.43</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="32">
         <v>32.79</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="32">
         <v>16.7</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="32">
         <v>0.05</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="35">
         <v>53.6</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="32">
         <v>32.79</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="32">
         <v>16.7</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="32">
         <v>0.05</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="51">
+        <f t="shared" si="1"/>
+        <v>-3140.53</v>
+      </c>
+      <c r="U15" s="54">
         <f t="shared" si="2"/>
-        <v>-3140.53</v>
-      </c>
-      <c r="U15" s="54">
-        <f t="shared" si="0"/>
         <v>-1036.904787</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="51">
         <f t="shared" si="3"/>
-        <v>-533.21851</v>
-      </c>
-      <c r="W15" s="50">
+        <v>-0.53321851</v>
+      </c>
+      <c r="W15" s="51">
         <f t="shared" si="4"/>
-        <v>-1.257765</v>
+        <v>-0.001257765</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -2866,71 +2881,71 @@
         <v>10057</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="20">
         <v>63</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="32">
         <v>12.71</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="32">
         <v>130.6</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="32">
         <v>1.15</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="29">
         <v>-335.66</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="32">
         <v>11.5</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="32">
         <v>118.6</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="32">
         <v>0.67</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="35">
         <v>11.7</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="32">
         <v>11.5</v>
       </c>
-      <c r="O16" s="45" t="s">
+      <c r="O16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="32">
         <v>118.6</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="32">
         <v>0.67</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16" s="51">
+        <f t="shared" si="1"/>
+        <v>-284.36</v>
+      </c>
+      <c r="U16" s="54">
         <f t="shared" si="2"/>
-        <v>-284.36</v>
-      </c>
-      <c r="U16" s="54">
-        <f t="shared" si="0"/>
         <v>-31.9391</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16" s="51">
         <f t="shared" si="3"/>
-        <v>-329.69096</v>
-      </c>
-      <c r="W16" s="50">
+        <v>-0.32969096</v>
+      </c>
+      <c r="W16" s="51">
         <f t="shared" si="4"/>
-        <v>-1.602812</v>
+        <v>-0.001602812</v>
       </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
@@ -2952,71 +2967,71 @@
         <v>10059</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="20">
         <v>2719.13</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="28">
         <v>7.01934074501771</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="28">
         <v>75.2281060486258</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="28">
         <v>0.514870565217551</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="29">
         <v>-495.54</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="28">
         <v>6.60652732898352</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="28">
         <v>77.3118304162161</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="28">
         <v>0.493356029888881</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="35">
         <v>3060.67</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="28">
         <v>6.60652732898352</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="28">
         <v>77.3118304162161</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="28">
         <v>0.493356029888881</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="51">
+        <f t="shared" si="1"/>
+        <v>-837.08</v>
+      </c>
+      <c r="U17" s="54">
         <f t="shared" si="2"/>
-        <v>-837.08</v>
-      </c>
-      <c r="U17" s="54">
-        <f t="shared" si="0"/>
         <v>-44.0769855260448</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="51">
         <f t="shared" si="3"/>
-        <v>-703.821044444519</v>
-      </c>
-      <c r="W17" s="50">
+        <v>-0.703821044444519</v>
+      </c>
+      <c r="W17" s="51">
         <f t="shared" si="4"/>
-        <v>-3.54477647051138</v>
+        <v>-0.00354477647051138</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -3038,71 +3053,71 @@
         <v>10061</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="14">
         <v>666</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="33">
         <v>99.57</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="33">
         <v>329.29</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="33">
         <v>11.6</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="29">
         <v>0</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="33">
         <v>99.51</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="33">
         <v>367.65</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="33">
         <v>6.65</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="35">
         <v>890</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="33">
         <v>99.51</v>
       </c>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="33">
         <v>367.65</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="33">
         <v>6.65</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="51">
+        <f t="shared" si="1"/>
+        <v>-224</v>
+      </c>
+      <c r="U18" s="54">
         <f t="shared" si="2"/>
-        <v>-224</v>
-      </c>
-      <c r="U18" s="54">
-        <f t="shared" si="0"/>
         <v>-222.5028</v>
       </c>
-      <c r="V18" s="50">
+      <c r="V18" s="51">
         <f t="shared" si="3"/>
-        <v>-1079.0136</v>
-      </c>
-      <c r="W18" s="50">
+        <v>-1.0790136</v>
+      </c>
+      <c r="W18" s="51">
         <f t="shared" si="4"/>
-        <v>18.071</v>
+        <v>0.018071</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -3118,77 +3133,77 @@
     </row>
     <row r="19" s="5" customFormat="1" ht="13.5" spans="1:34">
       <c r="A19" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B19" s="16">
         <v>10063</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="22">
         <v>283.6</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <v>99.57</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <v>329.29</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="30">
         <v>11.6</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="31">
         <v>-26621.68</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="30">
         <v>99.51</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="30">
         <v>367.65</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="30">
         <v>6.65</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="42">
         <v>822.8</v>
       </c>
-      <c r="M19" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="29">
+      <c r="M19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="30">
         <v>99.51</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="30">
         <v>367.65</v>
       </c>
-      <c r="Q19" s="51" t="s">
+      <c r="Q19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="30">
         <v>6.65</v>
       </c>
-      <c r="S19" s="51" t="s">
+      <c r="S19" s="30" t="s">
         <v>32</v>
       </c>
       <c r="T19" s="52">
+        <f t="shared" si="1"/>
+        <v>-27160.88</v>
+      </c>
+      <c r="U19" s="54">
         <f t="shared" si="2"/>
-        <v>-27160.88</v>
-      </c>
-      <c r="U19" s="52">
-        <f>(D19*E19/100+H19*I19/100-L19*N19/100)</f>
         <v>-27027.621528</v>
       </c>
-      <c r="V19" s="50">
+      <c r="V19" s="51">
         <f t="shared" si="3"/>
-        <v>-99965.76428</v>
-      </c>
-      <c r="W19" s="50">
+        <v>-99.96576428</v>
+      </c>
+      <c r="W19" s="51">
         <f t="shared" si="4"/>
-        <v>-1792.16032</v>
+        <v>-1.79216032</v>
       </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -3210,71 +3225,71 @@
         <v>10065</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="20">
         <v>20.94</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="28">
         <v>99.57</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="28">
         <v>329.29</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="28">
         <v>11.6</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="29">
         <v>0</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="28">
         <v>99.51</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="28">
         <v>367.65</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="28">
         <v>6.65</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="35">
         <v>17.96</v>
       </c>
-      <c r="M20" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="27">
+      <c r="M20" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="28">
         <v>99.51</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="28">
         <v>367.65</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="28">
         <v>6.65</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="50">
+      <c r="T20" s="51">
+        <f t="shared" si="1"/>
+        <v>2.98</v>
+      </c>
+      <c r="U20" s="54">
         <f t="shared" si="2"/>
-        <v>2.98</v>
-      </c>
-      <c r="U20" s="54">
-        <f t="shared" ref="U20:U34" si="5">(D20*E20/100+H20*I20/100-L20*N20/100)</f>
         <v>2.977962</v>
       </c>
-      <c r="V20" s="50">
+      <c r="V20" s="51">
         <f t="shared" si="3"/>
-        <v>2.92338600000001</v>
-      </c>
-      <c r="W20" s="50">
+        <v>0.00292338600000001</v>
+      </c>
+      <c r="W20" s="51">
         <f t="shared" si="4"/>
-        <v>1.2347</v>
+        <v>0.0012347</v>
       </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -3296,71 +3311,71 @@
         <v>10067</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="20">
         <v>14</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="28">
         <v>99.57</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="28">
         <v>329.29</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="28">
         <v>11.6</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="29">
         <v>-11.2</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="28">
         <v>99.51</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="28">
         <v>367.65</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="28">
         <v>6.65</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="35">
         <v>25.2</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="28">
         <v>99.51</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="28">
         <v>367.65</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="28">
         <v>6.65</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="51">
+        <f t="shared" si="1"/>
+        <v>-22.4</v>
+      </c>
+      <c r="U21" s="54">
         <f t="shared" si="2"/>
-        <v>-22.4</v>
-      </c>
-      <c r="U21" s="54">
-        <f t="shared" si="5"/>
         <v>-22.28184</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21" s="51">
         <f t="shared" si="3"/>
-        <v>-87.724</v>
-      </c>
-      <c r="W21" s="50">
+        <v>-0.087724</v>
+      </c>
+      <c r="W21" s="51">
         <f t="shared" si="4"/>
-        <v>-0.7966</v>
+        <v>-0.0007966</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -3382,71 +3397,71 @@
         <v>10069</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="20">
         <v>136.8</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="28">
         <v>39.84</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="28">
         <v>57.6</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="28">
         <v>1.32</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="29">
         <v>-178.2</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="28">
         <v>44.8352380952381</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="28">
         <v>95.9555555555556</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="28">
         <v>1.81904761904762</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="35">
         <v>315</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="28">
         <v>44.8352380952381</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="28">
         <v>95.9555555555556</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="28">
         <v>1.81904761904762</v>
       </c>
-      <c r="S22" s="27" t="s">
+      <c r="S22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="50">
+      <c r="T22" s="51">
+        <f t="shared" si="1"/>
+        <v>-356.4</v>
+      </c>
+      <c r="U22" s="54">
         <f t="shared" si="2"/>
-        <v>-356.4</v>
-      </c>
-      <c r="U22" s="54">
-        <f t="shared" si="5"/>
         <v>-166.626274285714</v>
       </c>
-      <c r="V22" s="50">
+      <c r="V22" s="51">
         <f t="shared" si="3"/>
-        <v>-394.456</v>
-      </c>
-      <c r="W22" s="50">
+        <v>-0.394456</v>
+      </c>
+      <c r="W22" s="51">
         <f t="shared" si="4"/>
-        <v>-7.16578285714286</v>
+        <v>-0.00716578285714286</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -3468,59 +3483,59 @@
         <v>10071</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="20">
         <v>70</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="28">
         <v>56.1</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="28">
         <v>72.8</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="28">
         <v>0.128571428571429</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="29">
         <v>-40.14</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="34">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="35">
         <v>0</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="45" t="s">
+      <c r="N23" s="28"/>
+      <c r="O23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27" t="s">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27" t="s">
+      <c r="R23" s="28"/>
+      <c r="S23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="50">
+      <c r="T23" s="51">
+        <f t="shared" si="1"/>
+        <v>29.86</v>
+      </c>
+      <c r="U23" s="54">
         <f t="shared" si="2"/>
-        <v>29.86</v>
-      </c>
-      <c r="U23" s="54">
-        <f t="shared" si="5"/>
         <v>39.27</v>
       </c>
-      <c r="V23" s="50">
+      <c r="V23" s="51">
         <f t="shared" si="3"/>
-        <v>50.96</v>
-      </c>
-      <c r="W23" s="50">
+        <v>0.05096</v>
+      </c>
+      <c r="W23" s="51">
         <f t="shared" si="4"/>
-        <v>0.0900000000000003</v>
+        <v>9.00000000000003e-5</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
@@ -3535,58 +3550,58 @@
       <c r="AH23" s="57"/>
     </row>
     <row r="24" ht="13.5" spans="1:34">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="10">
         <v>10073</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="23">
+        <v>61</v>
+      </c>
+      <c r="D24" s="24">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29">
         <v>-6.02</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="34">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="35">
         <v>0</v>
       </c>
-      <c r="M24" s="44" t="s">
+      <c r="M24" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="45" t="s">
+      <c r="N24" s="28"/>
+      <c r="O24" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27" t="s">
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27" t="s">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T24" s="50">
+      <c r="T24" s="51">
+        <f t="shared" si="1"/>
+        <v>-6.02</v>
+      </c>
+      <c r="U24" s="54">
         <f t="shared" si="2"/>
-        <v>-6.02</v>
-      </c>
-      <c r="U24" s="54">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V24" s="50">
+      <c r="V24" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W24" s="50">
+      <c r="W24" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3603,78 +3618,78 @@
       <c r="AH24" s="57"/>
     </row>
     <row r="25" ht="13.5" spans="1:34">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="10">
         <v>10075</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="20">
         <v>53.912</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="28">
         <v>99.57</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="28">
         <v>329.29</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="28">
         <v>11.6</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="29">
         <v>3883.32</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="28">
         <v>99.51</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="28">
         <v>367.65</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="28">
         <v>6.65</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="35">
         <v>34.147</v>
       </c>
-      <c r="M25" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="27">
+      <c r="M25" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="28">
         <v>99.51</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="28">
         <v>367.65</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="28">
         <v>6.65</v>
       </c>
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="50">
+      <c r="T25" s="51">
+        <f t="shared" si="1"/>
+        <v>3903.085</v>
+      </c>
+      <c r="U25" s="54">
         <f t="shared" si="2"/>
-        <v>3903.085</v>
-      </c>
-      <c r="U25" s="54">
-        <f t="shared" si="5"/>
         <v>3883.9922307</v>
       </c>
-      <c r="V25" s="50">
+      <c r="V25" s="51">
         <f t="shared" si="3"/>
-        <v>14329.0113593</v>
-      </c>
-      <c r="W25" s="50">
+        <v>14.3290113593</v>
+      </c>
+      <c r="W25" s="51">
         <f t="shared" si="4"/>
-        <v>262.2237965</v>
+        <v>0.2622237965</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
@@ -3689,64 +3704,64 @@
       <c r="AH25" s="57"/>
     </row>
     <row r="26" ht="13.5" spans="1:34">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="10">
         <v>10077</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="20">
         <v>6.72</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="28">
         <v>100</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29">
         <v>17.4</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="28">
         <v>100</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="34">
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="35">
         <v>8.5</v>
       </c>
-      <c r="M26" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="27">
+      <c r="M26" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="28">
         <v>100</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27" t="s">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27" t="s">
+      <c r="R26" s="28"/>
+      <c r="S26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="50">
+      <c r="T26" s="51">
+        <f t="shared" si="1"/>
+        <v>15.62</v>
+      </c>
+      <c r="U26" s="54">
         <f t="shared" si="2"/>
         <v>15.62</v>
       </c>
-      <c r="U26" s="54">
-        <f t="shared" si="5"/>
-        <v>15.62</v>
-      </c>
-      <c r="V26" s="50">
+      <c r="V26" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W26" s="50">
+      <c r="W26" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3763,70 +3778,70 @@
       <c r="AH26" s="57"/>
     </row>
     <row r="27" ht="13.5" spans="1:27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="10">
         <v>10079</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" s="20">
         <v>5.4</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="28">
         <v>99.74</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="28">
         <v>2.61</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28">
+      <c r="G27" s="28"/>
+      <c r="H27" s="29">
         <v>37.68</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="28">
         <v>99.93</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="28">
         <v>2.47</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="34">
+      <c r="K27" s="28"/>
+      <c r="L27" s="35">
         <v>2.28</v>
       </c>
-      <c r="M27" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="27">
+      <c r="M27" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="28">
         <v>99.93</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="28">
         <v>2.47</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27" t="s">
+      <c r="R27" s="28"/>
+      <c r="S27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="50">
+      <c r="T27" s="51">
+        <f t="shared" si="1"/>
+        <v>40.8</v>
+      </c>
+      <c r="U27" s="54">
         <f t="shared" si="2"/>
-        <v>40.8</v>
-      </c>
-      <c r="U27" s="54">
-        <f t="shared" si="5"/>
         <v>40.76118</v>
       </c>
-      <c r="V27" s="50">
+      <c r="V27" s="51">
         <f t="shared" si="3"/>
-        <v>1.01532</v>
-      </c>
-      <c r="W27" s="50">
+        <v>0.00101532</v>
+      </c>
+      <c r="W27" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3836,56 +3851,56 @@
       <c r="AA27" s="53"/>
     </row>
     <row r="28" ht="13.5" spans="1:27">
-      <c r="A28" s="10" t="s">
-        <v>40</v>
+      <c r="A28" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="B28" s="10">
         <v>10081</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29">
         <v>0.66</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="34">
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="35">
         <v>90.747</v>
       </c>
-      <c r="M28" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="45" t="s">
+      <c r="M28" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27" t="s">
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27" t="s">
+      <c r="R28" s="28"/>
+      <c r="S28" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="50">
+      <c r="T28" s="51">
+        <f t="shared" si="1"/>
+        <v>-90.087</v>
+      </c>
+      <c r="U28" s="54">
         <f t="shared" si="2"/>
-        <v>-90.087</v>
-      </c>
-      <c r="U28" s="54">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V28" s="50">
+      <c r="V28" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3895,56 +3910,56 @@
       <c r="AA28" s="53"/>
     </row>
     <row r="29" ht="13.5" spans="1:27">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="10">
         <v>10083</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28">
+        <v>67</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29">
         <v>-103678.32</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="34">
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="35">
         <v>0</v>
       </c>
-      <c r="M29" s="44" t="s">
+      <c r="M29" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="28"/>
+      <c r="O29" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27" t="s">
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27" t="s">
+      <c r="R29" s="28"/>
+      <c r="S29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="50">
+      <c r="T29" s="51">
+        <f t="shared" si="1"/>
+        <v>-103678.32</v>
+      </c>
+      <c r="U29" s="54">
         <f t="shared" si="2"/>
-        <v>-103678.32</v>
-      </c>
-      <c r="U29" s="54">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V29" s="50">
+      <c r="V29" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3955,77 +3970,77 @@
     </row>
     <row r="30" ht="13.5" spans="1:27">
       <c r="A30" s="10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10">
         <v>10085</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D30" s="20">
         <v>71.55</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="32">
         <v>4.17355012607599</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="32">
         <v>349.50004347448</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="32">
         <v>1.68680984262238</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="29">
         <v>-32.3466775499191</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="32">
         <v>4.8133822605706</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="32">
         <v>304.483894784401</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="32">
         <v>1.39949530012011</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="35">
         <v>1409.509</v>
       </c>
-      <c r="M30" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="31">
+      <c r="M30" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="32">
         <v>4.8133822605706</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="32">
         <v>304.483894784401</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="32">
         <v>1.39949530012011</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="S30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="50">
+      <c r="T30" s="51">
+        <f t="shared" si="1"/>
+        <v>-1370.30567754992</v>
+      </c>
+      <c r="U30" s="54">
         <f t="shared" si="2"/>
-        <v>-1370.30567754992</v>
-      </c>
-      <c r="U30" s="54">
-        <f t="shared" si="5"/>
         <v>-66.4158502910105</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30" s="51">
         <f t="shared" si="3"/>
-        <v>-4140.15104306802</v>
-      </c>
-      <c r="W30" s="50">
+        <v>-4.14015104306802</v>
+      </c>
+      <c r="W30" s="51">
         <f t="shared" si="4"/>
-        <v>-18.9717899994298</v>
+        <v>-0.0189717899994298</v>
       </c>
       <c r="X30" s="53"/>
       <c r="Y30" s="53"/>
@@ -4040,51 +4055,51 @@
         <v>10087</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="28">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="29">
         <v>0</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="34">
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="35">
         <v>1280.57400399849</v>
       </c>
-      <c r="M31" s="44" t="s">
+      <c r="M31" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="45" t="s">
+      <c r="N31" s="32"/>
+      <c r="O31" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="27" t="s">
+      <c r="P31" s="32"/>
+      <c r="Q31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="31"/>
-      <c r="S31" s="27" t="s">
+      <c r="R31" s="32"/>
+      <c r="S31" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="50">
+      <c r="T31" s="51">
+        <f t="shared" si="1"/>
+        <v>-1280.57400399849</v>
+      </c>
+      <c r="U31" s="54">
         <f t="shared" si="2"/>
-        <v>-1280.57400399849</v>
-      </c>
-      <c r="U31" s="54">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V31" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W31" s="50">
+      <c r="W31" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4101,71 +4116,71 @@
         <v>10089</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D32" s="20">
         <v>3202.12</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="32">
         <v>2.2910522556046</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="32">
         <v>5.83986655846434</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="32">
         <v>0.304094114429356</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="29">
         <v>-309.480494252985</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="32">
         <v>1.92506752351351</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="32">
         <v>5.04927602448796</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="32">
         <v>0.254698622002414</v>
       </c>
-      <c r="L32" s="34">
+      <c r="L32" s="35">
         <v>130.624</v>
       </c>
-      <c r="M32" s="44" t="s">
+      <c r="M32" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="32">
         <v>1.92506752351351</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="32">
         <v>5.04927602448796</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="32">
         <v>0.254698622002414</v>
       </c>
-      <c r="S32" s="27" t="s">
+      <c r="S32" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="50">
+      <c r="T32" s="51">
+        <f t="shared" si="1"/>
+        <v>2762.01550574702</v>
+      </c>
+      <c r="U32" s="54">
         <f t="shared" si="2"/>
-        <v>2762.01550574702</v>
-      </c>
-      <c r="U32" s="54">
-        <f t="shared" si="5"/>
         <v>64.8899337987784</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32" s="51">
         <f t="shared" si="3"/>
-        <v>164.777444330888</v>
-      </c>
-      <c r="W32" s="50">
+        <v>0.164777444330888</v>
+      </c>
+      <c r="W32" s="51">
         <f t="shared" si="4"/>
-        <v>8.61651837473225</v>
+        <v>0.00861651837473225</v>
       </c>
       <c r="X32" s="53"/>
       <c r="Y32" s="53"/>
@@ -4179,56 +4194,56 @@
       <c r="B33" s="10">
         <v>10091</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="25">
+      <c r="C33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="26">
         <v>3148.62</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="32">
         <v>0.0852783861014548</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="28">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="29">
         <v>636.9064049137</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="32">
         <v>0.0847237310009935</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="44" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="32">
         <v>0.0847237310009935</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="27" t="s">
+      <c r="P33" s="32"/>
+      <c r="Q33" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="31"/>
-      <c r="S33" s="27" t="s">
+      <c r="R33" s="32"/>
+      <c r="S33" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T33" s="50">
+      <c r="T33" s="51">
+        <f t="shared" si="1"/>
+        <v>3785.5264049137</v>
+      </c>
+      <c r="U33" s="54">
         <f t="shared" si="2"/>
-        <v>3785.5264049137</v>
-      </c>
-      <c r="U33" s="54">
-        <f t="shared" si="5"/>
         <v>3.22470318969481</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33" s="51">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4244,70 +4259,70 @@
       <c r="B34" s="10">
         <v>10093</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="25">
+      <c r="C34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="26">
         <v>294.48</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="32">
         <v>0.129344121451298</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="32">
         <v>1.3500882750026</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="32">
         <v>0.160500004720588</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="29">
         <v>58.06</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="32">
         <v>0.133206761391475</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="32">
         <v>1.09474522292994</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="32">
         <v>0.130144536991671</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="44" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="32">
         <v>0.133206761391475</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="31">
+      <c r="P34" s="32">
         <v>1.09474522292994</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="31">
+      <c r="R34" s="32">
         <v>0.130144536991671</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="S34" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T34" s="50">
+      <c r="T34" s="51">
+        <f t="shared" si="1"/>
+        <v>352.54</v>
+      </c>
+      <c r="U34" s="54">
         <f t="shared" si="2"/>
-        <v>352.54</v>
-      </c>
-      <c r="U34" s="54">
-        <f t="shared" si="5"/>
         <v>0.458232414513673</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34" s="51">
         <f t="shared" si="3"/>
-        <v>4.61134902866078</v>
-      </c>
-      <c r="W34" s="50">
+        <v>0.00461134902866078</v>
+      </c>
+      <c r="W34" s="51">
         <f t="shared" si="4"/>
-        <v>0.548202332078552</v>
+        <v>0.000548202332078552</v>
       </c>
       <c r="X34" s="53"/>
       <c r="Y34" s="53"/>
@@ -4340,13 +4355,13 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4365,7 +4380,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4393,7 +4408,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.95</v>
